--- a/new_data/double_hit/20260204_205825_phrase39/20260204_205825_phrase39_keypoints.xlsx
+++ b/new_data/double_hit/20260204_205825_phrase39/20260204_205825_phrase39_keypoints.xlsx
@@ -491,1804 +491,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.576091462318577</v>
+        <v>3.616619428373955</v>
       </c>
       <c r="B2" t="n">
-        <v>5.553835706272185</v>
+        <v>3.590592832707221</v>
       </c>
       <c r="C2" t="n">
-        <v>5.595014983404641</v>
+        <v>3.610409091975639</v>
       </c>
       <c r="D2" t="n">
-        <v>5.487296312768295</v>
+        <v>3.49295713869988</v>
       </c>
       <c r="E2" t="n">
-        <v>5.602933626980874</v>
+        <v>3.520563108857722</v>
       </c>
       <c r="F2" t="n">
-        <v>5.394136587106914</v>
+        <v>3.449365755460722</v>
       </c>
       <c r="G2" t="n">
-        <v>5.576137641458683</v>
+        <v>3.463553874893007</v>
       </c>
       <c r="H2" t="n">
-        <v>5.327188918214801</v>
+        <v>3.491254060924407</v>
       </c>
       <c r="I2" t="n">
-        <v>5.583991979503367</v>
+        <v>3.573782850930979</v>
       </c>
       <c r="J2" t="n">
-        <v>5.437869959109882</v>
+        <v>3.720225603864864</v>
       </c>
       <c r="K2" t="n">
-        <v>5.660363214042256</v>
+        <v>3.722095177630635</v>
       </c>
       <c r="L2" t="n">
-        <v>5.398145109100376</v>
+        <v>3.41039922088507</v>
       </c>
       <c r="M2" t="n">
-        <v>5.512490702132246</v>
+        <v>3.464788390518683</v>
       </c>
       <c r="N2" t="n">
-        <v>5.425803824539121</v>
+        <v>3.453204872506954</v>
       </c>
       <c r="O2" t="n">
-        <v>5.484513911681747</v>
+        <v>3.813582386881842</v>
       </c>
       <c r="P2" t="n">
-        <v>5.405384444578234</v>
+        <v>3.242116005811537</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.405709424881968</v>
+        <v>3.836956913588671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.594192822078463</v>
+        <v>3.66970431948315</v>
       </c>
       <c r="B3" t="n">
-        <v>5.573660799542179</v>
+        <v>3.647787981201057</v>
       </c>
       <c r="C3" t="n">
-        <v>5.614045104935622</v>
+        <v>3.662076789353175</v>
       </c>
       <c r="D3" t="n">
-        <v>5.501999405713309</v>
+        <v>3.549379860871563</v>
       </c>
       <c r="E3" t="n">
-        <v>5.617212044469217</v>
+        <v>3.586191297240203</v>
       </c>
       <c r="F3" t="n">
-        <v>5.39724569482019</v>
+        <v>3.519296948205812</v>
       </c>
       <c r="G3" t="n">
-        <v>5.588761809937449</v>
+        <v>3.532363467219664</v>
       </c>
       <c r="H3" t="n">
-        <v>5.315575511849373</v>
+        <v>3.569732287573097</v>
       </c>
       <c r="I3" t="n">
-        <v>5.615672595938782</v>
+        <v>3.656984816950155</v>
       </c>
       <c r="J3" t="n">
-        <v>5.425599686845008</v>
+        <v>3.782285455936953</v>
       </c>
       <c r="K3" t="n">
-        <v>5.700329749271006</v>
+        <v>3.813714001422768</v>
       </c>
       <c r="L3" t="n">
-        <v>5.407665348834851</v>
+        <v>3.479449387331615</v>
       </c>
       <c r="M3" t="n">
-        <v>5.525911137092272</v>
+        <v>3.539464898788508</v>
       </c>
       <c r="N3" t="n">
-        <v>5.440069726185752</v>
+        <v>3.48911442562794</v>
       </c>
       <c r="O3" t="n">
-        <v>5.506237097084306</v>
+        <v>3.870514665896398</v>
       </c>
       <c r="P3" t="n">
-        <v>5.437165619328085</v>
+        <v>3.273757795621857</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.439061121976157</v>
+        <v>3.962060490366652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.593456113740517</v>
+        <v>3.707172030543564</v>
       </c>
       <c r="B4" t="n">
-        <v>5.57459732976675</v>
+        <v>3.687635901677825</v>
       </c>
       <c r="C4" t="n">
-        <v>5.613396870651149</v>
+        <v>3.693644141431331</v>
       </c>
       <c r="D4" t="n">
-        <v>5.500564831304796</v>
+        <v>3.57270584123133</v>
       </c>
       <c r="E4" t="n">
-        <v>5.617045022719489</v>
+        <v>3.625746141621741</v>
       </c>
       <c r="F4" t="n">
-        <v>5.385152370662262</v>
+        <v>3.537687742883443</v>
       </c>
       <c r="G4" t="n">
-        <v>5.581043419828589</v>
+        <v>3.553916247302644</v>
       </c>
       <c r="H4" t="n">
-        <v>5.326001639575265</v>
+        <v>3.6353996726358</v>
       </c>
       <c r="I4" t="n">
-        <v>5.611443967763508</v>
+        <v>3.694544945871272</v>
       </c>
       <c r="J4" t="n">
-        <v>5.429001837886618</v>
+        <v>3.829901870751464</v>
       </c>
       <c r="K4" t="n">
-        <v>5.689109512967599</v>
+        <v>3.847804684740472</v>
       </c>
       <c r="L4" t="n">
-        <v>5.416032836389681</v>
+        <v>3.505506549216871</v>
       </c>
       <c r="M4" t="n">
-        <v>5.534550520518751</v>
+        <v>3.558857905831055</v>
       </c>
       <c r="N4" t="n">
-        <v>5.451308952042099</v>
+        <v>3.581727190925861</v>
       </c>
       <c r="O4" t="n">
-        <v>5.522092510628215</v>
+        <v>3.900936324183875</v>
       </c>
       <c r="P4" t="n">
-        <v>5.445785581620875</v>
+        <v>3.320520513933206</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.473199159194386</v>
+        <v>4.013736818205887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.60438028565035</v>
+        <v>3.764328341959749</v>
       </c>
       <c r="B5" t="n">
-        <v>5.584797309180348</v>
+        <v>3.743704055714665</v>
       </c>
       <c r="C5" t="n">
-        <v>5.623530386629456</v>
+        <v>3.744415709202347</v>
       </c>
       <c r="D5" t="n">
-        <v>5.510064786744084</v>
+        <v>3.611316009659284</v>
       </c>
       <c r="E5" t="n">
-        <v>5.622375476546068</v>
+        <v>3.675894158534929</v>
       </c>
       <c r="F5" t="n">
-        <v>5.400124769994434</v>
+        <v>3.599388351987267</v>
       </c>
       <c r="G5" t="n">
-        <v>5.590564091143812</v>
+        <v>3.608879342639308</v>
       </c>
       <c r="H5" t="n">
-        <v>5.319714371228929</v>
+        <v>3.704471055634024</v>
       </c>
       <c r="I5" t="n">
-        <v>5.626953685127749</v>
+        <v>3.781287558802886</v>
       </c>
       <c r="J5" t="n">
-        <v>5.407851791718268</v>
+        <v>3.964932636099909</v>
       </c>
       <c r="K5" t="n">
-        <v>5.70664636510825</v>
+        <v>3.973704781212851</v>
       </c>
       <c r="L5" t="n">
-        <v>5.421982608590572</v>
+        <v>3.53551538375303</v>
       </c>
       <c r="M5" t="n">
-        <v>5.540269397019115</v>
+        <v>3.565576720264531</v>
       </c>
       <c r="N5" t="n">
-        <v>5.448677172636831</v>
+        <v>3.729213870122879</v>
       </c>
       <c r="O5" t="n">
-        <v>5.524107129562914</v>
+        <v>3.874293369710729</v>
       </c>
       <c r="P5" t="n">
-        <v>5.453326592042039</v>
+        <v>3.430184913934968</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.46850097116458</v>
+        <v>4.022983279109761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.599567297141403</v>
+        <v>3.810917372229386</v>
       </c>
       <c r="B6" t="n">
-        <v>5.578421566780539</v>
+        <v>3.782932380961885</v>
       </c>
       <c r="C6" t="n">
-        <v>5.616053250159092</v>
+        <v>3.788909335291729</v>
       </c>
       <c r="D6" t="n">
-        <v>5.50506535535172</v>
+        <v>3.634657812532168</v>
       </c>
       <c r="E6" t="n">
-        <v>5.617758425697009</v>
+        <v>3.707084647118851</v>
       </c>
       <c r="F6" t="n">
-        <v>5.393121509186089</v>
+        <v>3.590864692250771</v>
       </c>
       <c r="G6" t="n">
-        <v>5.598635514305068</v>
+        <v>3.658643304006845</v>
       </c>
       <c r="H6" t="n">
-        <v>5.328635576884277</v>
+        <v>3.729094841671933</v>
       </c>
       <c r="I6" t="n">
-        <v>5.636612893863289</v>
+        <v>3.736511644695399</v>
       </c>
       <c r="J6" t="n">
-        <v>5.399211113549542</v>
+        <v>3.916191384443827</v>
       </c>
       <c r="K6" t="n">
-        <v>5.72787668529585</v>
+        <v>3.987949358248757</v>
       </c>
       <c r="L6" t="n">
-        <v>5.425052874036469</v>
+        <v>3.552500851583838</v>
       </c>
       <c r="M6" t="n">
-        <v>5.550291996745018</v>
+        <v>3.613000747703645</v>
       </c>
       <c r="N6" t="n">
-        <v>5.456602289924295</v>
+        <v>3.757693314925278</v>
       </c>
       <c r="O6" t="n">
-        <v>5.51973133235235</v>
+        <v>3.899453682784324</v>
       </c>
       <c r="P6" t="n">
-        <v>5.463098874933725</v>
+        <v>3.513843575219104</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.480684064118226</v>
+        <v>4.02768759994142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.601364399378783</v>
+        <v>3.858088958663775</v>
       </c>
       <c r="B7" t="n">
-        <v>5.580977819554795</v>
+        <v>3.828417790941629</v>
       </c>
       <c r="C7" t="n">
-        <v>5.620885228220978</v>
+        <v>3.838878270124641</v>
       </c>
       <c r="D7" t="n">
-        <v>5.508487359107767</v>
+        <v>3.703227190341507</v>
       </c>
       <c r="E7" t="n">
-        <v>5.626168208165206</v>
+        <v>3.753234962252069</v>
       </c>
       <c r="F7" t="n">
-        <v>5.394746842285505</v>
+        <v>3.653637636220825</v>
       </c>
       <c r="G7" t="n">
-        <v>5.598610482621646</v>
+        <v>3.699117652162007</v>
       </c>
       <c r="H7" t="n">
-        <v>5.332919878976126</v>
+        <v>3.787876556708292</v>
       </c>
       <c r="I7" t="n">
-        <v>5.645049434337902</v>
+        <v>3.791676477074302</v>
       </c>
       <c r="J7" t="n">
-        <v>5.390915699979737</v>
+        <v>4.004300846747183</v>
       </c>
       <c r="K7" t="n">
-        <v>5.72582063460928</v>
+        <v>4.027876391291109</v>
       </c>
       <c r="L7" t="n">
-        <v>5.430667307995659</v>
+        <v>3.589074590653156</v>
       </c>
       <c r="M7" t="n">
-        <v>5.55396172785079</v>
+        <v>3.624932720606513</v>
       </c>
       <c r="N7" t="n">
-        <v>5.464353480170051</v>
+        <v>3.852515838020977</v>
       </c>
       <c r="O7" t="n">
-        <v>5.532616175603302</v>
+        <v>3.955396335523942</v>
       </c>
       <c r="P7" t="n">
-        <v>5.471396014826525</v>
+        <v>3.647011599250624</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.496495888006522</v>
+        <v>4.073518228389166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.605240857663158</v>
+        <v>3.897386327604595</v>
       </c>
       <c r="B8" t="n">
-        <v>5.584597487293723</v>
+        <v>3.875686829672714</v>
       </c>
       <c r="C8" t="n">
-        <v>5.626612304755566</v>
+        <v>3.890264039086642</v>
       </c>
       <c r="D8" t="n">
-        <v>5.510974558962238</v>
+        <v>3.756929159462254</v>
       </c>
       <c r="E8" t="n">
-        <v>5.630575510770421</v>
+        <v>3.802596887945412</v>
       </c>
       <c r="F8" t="n">
-        <v>5.404932147953649</v>
+        <v>3.6728749353502</v>
       </c>
       <c r="G8" t="n">
-        <v>5.605023772546588</v>
+        <v>3.744849030300203</v>
       </c>
       <c r="H8" t="n">
-        <v>5.329287263814738</v>
+        <v>3.761319906852146</v>
       </c>
       <c r="I8" t="n">
-        <v>5.654433726136552</v>
+        <v>3.798588038485746</v>
       </c>
       <c r="J8" t="n">
-        <v>5.362667445238337</v>
+        <v>3.972856838350823</v>
       </c>
       <c r="K8" t="n">
-        <v>5.728943552906513</v>
+        <v>4.03501486192475</v>
       </c>
       <c r="L8" t="n">
-        <v>5.430976319811693</v>
+        <v>3.605399468561341</v>
       </c>
       <c r="M8" t="n">
-        <v>5.552475363752439</v>
+        <v>3.666804484351939</v>
       </c>
       <c r="N8" t="n">
-        <v>5.464252921855616</v>
+        <v>3.85546350029411</v>
       </c>
       <c r="O8" t="n">
-        <v>5.53381251743856</v>
+        <v>4.021314003975946</v>
       </c>
       <c r="P8" t="n">
-        <v>5.485298525482794</v>
+        <v>3.70776069995202</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.492038953615212</v>
+        <v>4.099511021414243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.60516360470915</v>
+        <v>3.926444013340896</v>
       </c>
       <c r="B9" t="n">
-        <v>5.582853469488428</v>
+        <v>3.904140742692583</v>
       </c>
       <c r="C9" t="n">
-        <v>5.624066409919279</v>
+        <v>3.918497875333161</v>
       </c>
       <c r="D9" t="n">
-        <v>5.51331458978142</v>
+        <v>3.782349105591991</v>
       </c>
       <c r="E9" t="n">
-        <v>5.634054051604542</v>
+        <v>3.826590290676647</v>
       </c>
       <c r="F9" t="n">
-        <v>5.405409044680908</v>
+        <v>3.691577505456744</v>
       </c>
       <c r="G9" t="n">
-        <v>5.622119549162118</v>
+        <v>3.781316327008553</v>
       </c>
       <c r="H9" t="n">
-        <v>5.337428171476526</v>
+        <v>3.771137416638505</v>
       </c>
       <c r="I9" t="n">
-        <v>5.667046673515853</v>
+        <v>3.830367196478124</v>
       </c>
       <c r="J9" t="n">
-        <v>5.347969099681558</v>
+        <v>3.99546397317149</v>
       </c>
       <c r="K9" t="n">
-        <v>5.735545443618615</v>
+        <v>4.071045241509536</v>
       </c>
       <c r="L9" t="n">
-        <v>5.443746794164252</v>
+        <v>3.643301579527322</v>
       </c>
       <c r="M9" t="n">
-        <v>5.575451428068328</v>
+        <v>3.7197282735094</v>
       </c>
       <c r="N9" t="n">
-        <v>5.481271877097887</v>
+        <v>3.890633350926889</v>
       </c>
       <c r="O9" t="n">
-        <v>5.540038932899336</v>
+        <v>4.08823136757487</v>
       </c>
       <c r="P9" t="n">
-        <v>5.517747355650806</v>
+        <v>3.707901304557216</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.526927078174594</v>
+        <v>4.105016536773723</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.611111219006299</v>
+        <v>3.960243058973653</v>
       </c>
       <c r="B10" t="n">
-        <v>5.59149501081865</v>
+        <v>3.945123209280335</v>
       </c>
       <c r="C10" t="n">
-        <v>5.631728694530815</v>
+        <v>3.95116057684208</v>
       </c>
       <c r="D10" t="n">
-        <v>5.516338676087211</v>
+        <v>3.782066457971315</v>
       </c>
       <c r="E10" t="n">
-        <v>5.636764378706065</v>
+        <v>3.900780256668133</v>
       </c>
       <c r="F10" t="n">
-        <v>5.410120611713921</v>
+        <v>3.709964704108666</v>
       </c>
       <c r="G10" t="n">
-        <v>5.62572885896308</v>
+        <v>3.823793661483265</v>
       </c>
       <c r="H10" t="n">
-        <v>5.332853415540835</v>
+        <v>3.733938328698506</v>
       </c>
       <c r="I10" t="n">
-        <v>5.681719987389211</v>
+        <v>3.875306370152771</v>
       </c>
       <c r="J10" t="n">
-        <v>5.328339512490702</v>
+        <v>3.923521163645151</v>
       </c>
       <c r="K10" t="n">
-        <v>5.736679637826067</v>
+        <v>4.102597490279718</v>
       </c>
       <c r="L10" t="n">
-        <v>5.44089188751193</v>
+        <v>3.683578865473667</v>
       </c>
       <c r="M10" t="n">
-        <v>5.561877781942532</v>
+        <v>3.771170859677593</v>
       </c>
       <c r="N10" t="n">
-        <v>5.507246132874649</v>
+        <v>3.935545554408723</v>
       </c>
       <c r="O10" t="n">
-        <v>5.509261614970845</v>
+        <v>4.162129695881409</v>
       </c>
       <c r="P10" t="n">
-        <v>5.463232664965807</v>
+        <v>3.707045090836059</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.557214983534116</v>
+        <v>4.108774383638946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.6154749319559</v>
+        <v>4.004877289668231</v>
       </c>
       <c r="B11" t="n">
-        <v>5.594862635400368</v>
+        <v>3.986813733330061</v>
       </c>
       <c r="C11" t="n">
-        <v>5.636565851561686</v>
+        <v>3.987525027215172</v>
       </c>
       <c r="D11" t="n">
-        <v>5.52051163034591</v>
+        <v>3.819791284869875</v>
       </c>
       <c r="E11" t="n">
-        <v>5.646855599771003</v>
+        <v>3.949955908229783</v>
       </c>
       <c r="F11" t="n">
-        <v>5.417186451730823</v>
+        <v>3.772417242188106</v>
       </c>
       <c r="G11" t="n">
-        <v>5.630650605820686</v>
+        <v>3.874267478325629</v>
       </c>
       <c r="H11" t="n">
-        <v>5.345790048481623</v>
+        <v>3.85111662441786</v>
       </c>
       <c r="I11" t="n">
-        <v>5.68415669229609</v>
+        <v>3.905329948394334</v>
       </c>
       <c r="J11" t="n">
-        <v>5.328992925744158</v>
+        <v>4.054803072192644</v>
       </c>
       <c r="K11" t="n">
-        <v>5.752412050856612</v>
+        <v>4.121821484113972</v>
       </c>
       <c r="L11" t="n">
-        <v>5.449917535708452</v>
+        <v>3.708952063269196</v>
       </c>
       <c r="M11" t="n">
-        <v>5.563282577279388</v>
+        <v>3.795307384232021</v>
       </c>
       <c r="N11" t="n">
-        <v>5.490540936836647</v>
+        <v>3.954578239675293</v>
       </c>
       <c r="O11" t="n">
-        <v>5.538880570169959</v>
+        <v>4.214989475781262</v>
       </c>
       <c r="P11" t="n">
-        <v>5.433757857736743</v>
+        <v>3.708698543456757</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.611125461171004</v>
+        <v>4.14424342361066</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.616540073243569</v>
+        <v>4.04993369378097</v>
       </c>
       <c r="B12" t="n">
-        <v>5.594975277975766</v>
+        <v>4.024884857504335</v>
       </c>
       <c r="C12" t="n">
-        <v>5.637466992164867</v>
+        <v>4.035365114828743</v>
       </c>
       <c r="D12" t="n">
-        <v>5.522653565601461</v>
+        <v>3.883696257732916</v>
       </c>
       <c r="E12" t="n">
-        <v>5.648758439291802</v>
+        <v>3.956405739940275</v>
       </c>
       <c r="F12" t="n">
-        <v>5.419475556021663</v>
+        <v>3.812758177789489</v>
       </c>
       <c r="G12" t="n">
-        <v>5.625920480815481</v>
+        <v>3.902867749591829</v>
       </c>
       <c r="H12" t="n">
-        <v>5.344954508152236</v>
+        <v>3.858810321420869</v>
       </c>
       <c r="I12" t="n">
-        <v>5.674080144976605</v>
+        <v>3.938373828628338</v>
       </c>
       <c r="J12" t="n">
-        <v>5.318902136259969</v>
+        <v>4.028791579833883</v>
       </c>
       <c r="K12" t="n">
-        <v>5.743775688495374</v>
+        <v>4.131525719090519</v>
       </c>
       <c r="L12" t="n">
-        <v>5.45292996933403</v>
+        <v>3.7528523451167</v>
       </c>
       <c r="M12" t="n">
-        <v>5.559866615653823</v>
+        <v>3.832554299313941</v>
       </c>
       <c r="N12" t="n">
-        <v>5.490394630962855</v>
+        <v>3.971841680293357</v>
       </c>
       <c r="O12" t="n">
-        <v>5.556719097253916</v>
+        <v>4.26188093181297</v>
       </c>
       <c r="P12" t="n">
-        <v>5.421304163653693</v>
+        <v>3.712517882361593</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.653181710384717</v>
+        <v>4.194874386776479</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.613944546621187</v>
+        <v>4.083679158630673</v>
       </c>
       <c r="B13" t="n">
-        <v>5.591231746561974</v>
+        <v>4.066294531946238</v>
       </c>
       <c r="C13" t="n">
-        <v>5.636129523424801</v>
+        <v>4.070156663557003</v>
       </c>
       <c r="D13" t="n">
-        <v>5.527920145477239</v>
+        <v>3.930156550282194</v>
       </c>
       <c r="E13" t="n">
-        <v>5.651512356048939</v>
+        <v>4.013689350666537</v>
       </c>
       <c r="F13" t="n">
-        <v>5.417391021005683</v>
+        <v>3.855501618166619</v>
       </c>
       <c r="G13" t="n">
-        <v>5.647088221794526</v>
+        <v>3.951326713229805</v>
       </c>
       <c r="H13" t="n">
-        <v>5.350412278299666</v>
+        <v>3.907213546660366</v>
       </c>
       <c r="I13" t="n">
-        <v>5.680375181776417</v>
+        <v>3.97132601020678</v>
       </c>
       <c r="J13" t="n">
-        <v>5.30136787360381</v>
+        <v>4.090908968317305</v>
       </c>
       <c r="K13" t="n">
-        <v>5.750937339438474</v>
+        <v>4.169792107460755</v>
       </c>
       <c r="L13" t="n">
-        <v>5.448520077244322</v>
+        <v>3.818418322254427</v>
       </c>
       <c r="M13" t="n">
-        <v>5.575151479448017</v>
+        <v>3.909226601851899</v>
       </c>
       <c r="N13" t="n">
-        <v>5.502900977897239</v>
+        <v>3.981929970815554</v>
       </c>
       <c r="O13" t="n">
-        <v>5.548108198156848</v>
+        <v>4.286735582701354</v>
       </c>
       <c r="P13" t="n">
-        <v>5.453087927888036</v>
+        <v>3.726730814371265</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.66791415082064</v>
+        <v>4.258298211399743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.613083111446881</v>
+        <v>4.142563720002291</v>
       </c>
       <c r="B14" t="n">
-        <v>5.589552465868976</v>
+        <v>4.11441978439848</v>
       </c>
       <c r="C14" t="n">
-        <v>5.633544354740386</v>
+        <v>4.130302351144539</v>
       </c>
       <c r="D14" t="n">
-        <v>5.523381210743685</v>
+        <v>3.981927453597558</v>
       </c>
       <c r="E14" t="n">
-        <v>5.646888831488649</v>
+        <v>4.048434151060589</v>
       </c>
       <c r="F14" t="n">
-        <v>5.417631843063429</v>
+        <v>3.91900599376575</v>
       </c>
       <c r="G14" t="n">
-        <v>5.642347307270604</v>
+        <v>3.991769775961305</v>
       </c>
       <c r="H14" t="n">
-        <v>5.355515720652456</v>
+        <v>4.016876508251845</v>
       </c>
       <c r="I14" t="n">
-        <v>5.681596986875845</v>
+        <v>4.022106568042066</v>
       </c>
       <c r="J14" t="n">
-        <v>5.302628520970616</v>
+        <v>4.198752700502931</v>
       </c>
       <c r="K14" t="n">
-        <v>5.755101230501452</v>
+        <v>4.232263704476449</v>
       </c>
       <c r="L14" t="n">
-        <v>5.459272911596941</v>
+        <v>3.885377759354139</v>
       </c>
       <c r="M14" t="n">
-        <v>5.579871678096004</v>
+        <v>3.971484594940518</v>
       </c>
       <c r="N14" t="n">
-        <v>5.49995932351444</v>
+        <v>3.981037796837313</v>
       </c>
       <c r="O14" t="n">
-        <v>5.564100854378829</v>
+        <v>4.347926634962306</v>
       </c>
       <c r="P14" t="n">
-        <v>5.443916405398471</v>
+        <v>3.72008140323396</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.691368838186783</v>
+        <v>4.314522432952326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.619580128037061</v>
+        <v>4.207687385977891</v>
       </c>
       <c r="B15" t="n">
-        <v>5.595924324042048</v>
+        <v>4.183601924988522</v>
       </c>
       <c r="C15" t="n">
-        <v>5.641199734059943</v>
+        <v>4.195921189860178</v>
       </c>
       <c r="D15" t="n">
-        <v>5.524581005224932</v>
+        <v>4.043148352871889</v>
       </c>
       <c r="E15" t="n">
-        <v>5.652083768960152</v>
+        <v>4.120081726876274</v>
       </c>
       <c r="F15" t="n">
-        <v>5.435661128838291</v>
+        <v>3.990876523175352</v>
       </c>
       <c r="G15" t="n">
-        <v>5.627957541949109</v>
+        <v>4.05790356555838</v>
       </c>
       <c r="H15" t="n">
-        <v>5.346947979630252</v>
+        <v>4.092054662107985</v>
       </c>
       <c r="I15" t="n">
-        <v>5.675590677596881</v>
+        <v>4.097004591495525</v>
       </c>
       <c r="J15" t="n">
-        <v>5.30519815274808</v>
+        <v>4.256184827090947</v>
       </c>
       <c r="K15" t="n">
-        <v>5.753648098120746</v>
+        <v>4.342722466557186</v>
       </c>
       <c r="L15" t="n">
-        <v>5.472831452396536</v>
+        <v>3.935503840510506</v>
       </c>
       <c r="M15" t="n">
-        <v>5.571555980231012</v>
+        <v>4.029525169078386</v>
       </c>
       <c r="N15" t="n">
-        <v>5.483719371523482</v>
+        <v>3.978602927830191</v>
       </c>
       <c r="O15" t="n">
-        <v>5.556904676975836</v>
+        <v>4.407866270276753</v>
       </c>
       <c r="P15" t="n">
-        <v>5.436108678074641</v>
+        <v>3.723202034343664</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.62979564435761</v>
+        <v>4.470555786450373</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.630823669700895</v>
+        <v>4.253938030228372</v>
       </c>
       <c r="B16" t="n">
-        <v>5.606624073962583</v>
+        <v>4.231132754391174</v>
       </c>
       <c r="C16" t="n">
-        <v>5.649707485358084</v>
+        <v>4.243744016550349</v>
       </c>
       <c r="D16" t="n">
-        <v>5.530398282135988</v>
+        <v>4.11826213786785</v>
       </c>
       <c r="E16" t="n">
-        <v>5.655027581246695</v>
+        <v>4.177960479857266</v>
       </c>
       <c r="F16" t="n">
-        <v>5.442394651678731</v>
+        <v>4.072840017940572</v>
       </c>
       <c r="G16" t="n">
-        <v>5.636131249747795</v>
+        <v>4.121382049772412</v>
       </c>
       <c r="H16" t="n">
-        <v>5.354457053076016</v>
+        <v>4.127265147831269</v>
       </c>
       <c r="I16" t="n">
-        <v>5.681136058636286</v>
+        <v>4.167965686003486</v>
       </c>
       <c r="J16" t="n">
-        <v>5.311863917410982</v>
+        <v>4.323838297152371</v>
       </c>
       <c r="K16" t="n">
-        <v>5.750238178625661</v>
+        <v>4.34448631716713</v>
       </c>
       <c r="L16" t="n">
-        <v>5.489501258813148</v>
+        <v>3.987023022026287</v>
       </c>
       <c r="M16" t="n">
-        <v>5.589822203836882</v>
+        <v>4.082685576727457</v>
       </c>
       <c r="N16" t="n">
-        <v>5.492930167861174</v>
+        <v>3.983393912881422</v>
       </c>
       <c r="O16" t="n">
-        <v>5.566371400697478</v>
+        <v>4.460576815109709</v>
       </c>
       <c r="P16" t="n">
-        <v>5.437223882729152</v>
+        <v>3.722064971014684</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.625420710308544</v>
+        <v>4.567749528898157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.634701854308266</v>
+        <v>4.353878776714763</v>
       </c>
       <c r="B17" t="n">
-        <v>5.608668040388189</v>
+        <v>4.332247243668769</v>
       </c>
       <c r="C17" t="n">
-        <v>5.649942265285349</v>
+        <v>4.348763430144638</v>
       </c>
       <c r="D17" t="n">
-        <v>5.535403755658833</v>
+        <v>4.212728654418424</v>
       </c>
       <c r="E17" t="n">
-        <v>5.653188184095947</v>
+        <v>4.271631195918583</v>
       </c>
       <c r="F17" t="n">
-        <v>5.44005116821356</v>
+        <v>4.154334950555995</v>
       </c>
       <c r="G17" t="n">
-        <v>5.646965652861909</v>
+        <v>4.190836769111146</v>
       </c>
       <c r="H17" t="n">
-        <v>5.367025547638207</v>
+        <v>4.214345067974326</v>
       </c>
       <c r="I17" t="n">
-        <v>5.6841532396501</v>
+        <v>4.256041345665184</v>
       </c>
       <c r="J17" t="n">
-        <v>5.305640091434698</v>
+        <v>4.4634806058692</v>
       </c>
       <c r="K17" t="n">
-        <v>5.735533790938401</v>
+        <v>4.471303759797709</v>
       </c>
       <c r="L17" t="n">
-        <v>5.498252853234277</v>
+        <v>4.062091856700893</v>
       </c>
       <c r="M17" t="n">
-        <v>5.607442351062023</v>
+        <v>4.153568997080117</v>
       </c>
       <c r="N17" t="n">
-        <v>5.52545150359496</v>
+        <v>4.036629837070368</v>
       </c>
       <c r="O17" t="n">
-        <v>5.587546046968502</v>
+        <v>4.511229354429778</v>
       </c>
       <c r="P17" t="n">
-        <v>5.448951657992972</v>
+        <v>3.753973226329992</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.686974483004026</v>
+        <v>4.589804673772593</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.640384478025743</v>
+        <v>4.467259309683531</v>
       </c>
       <c r="B18" t="n">
-        <v>5.613040384952765</v>
+        <v>4.443316610914783</v>
       </c>
       <c r="C18" t="n">
-        <v>5.657090105644493</v>
+        <v>4.459245206789908</v>
       </c>
       <c r="D18" t="n">
-        <v>5.540183080869385</v>
+        <v>4.344790181339485</v>
       </c>
       <c r="E18" t="n">
-        <v>5.6636583330582</v>
+        <v>4.390771842866982</v>
       </c>
       <c r="F18" t="n">
-        <v>5.451120351254939</v>
+        <v>4.213574799267597</v>
       </c>
       <c r="G18" t="n">
-        <v>5.657031842243426</v>
+        <v>4.300731674360813</v>
       </c>
       <c r="H18" t="n">
-        <v>5.372447496583499</v>
+        <v>4.188609750389967</v>
       </c>
       <c r="I18" t="n">
-        <v>5.695256517570623</v>
+        <v>4.284937929449751</v>
       </c>
       <c r="J18" t="n">
-        <v>5.337457950548183</v>
+        <v>4.444905335072731</v>
       </c>
       <c r="K18" t="n">
-        <v>5.756148245397677</v>
+        <v>4.512856196460234</v>
       </c>
       <c r="L18" t="n">
-        <v>5.506163296776286</v>
+        <v>4.127959180792979</v>
       </c>
       <c r="M18" t="n">
-        <v>5.61552629006499</v>
+        <v>4.233868970352656</v>
       </c>
       <c r="N18" t="n">
-        <v>5.537696744176412</v>
+        <v>4.145076982369854</v>
       </c>
       <c r="O18" t="n">
-        <v>5.578051702078946</v>
+        <v>4.574033943426065</v>
       </c>
       <c r="P18" t="n">
-        <v>5.465948602617063</v>
+        <v>3.825144688341891</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.659979970337455</v>
+        <v>4.637546230281755</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.642621361045997</v>
+        <v>4.520035302184379</v>
       </c>
       <c r="B19" t="n">
-        <v>5.614986814129177</v>
+        <v>4.495740552498784</v>
       </c>
       <c r="C19" t="n">
-        <v>5.65683547300279</v>
+        <v>4.49641085169082</v>
       </c>
       <c r="D19" t="n">
-        <v>5.538801159312207</v>
+        <v>4.340935960985279</v>
       </c>
       <c r="E19" t="n">
-        <v>5.646547451116467</v>
+        <v>4.430859618258497</v>
       </c>
       <c r="F19" t="n">
-        <v>5.48146608843478</v>
+        <v>4.207600002553178</v>
       </c>
       <c r="G19" t="n">
-        <v>5.627238960002606</v>
+        <v>4.368080920647309</v>
       </c>
       <c r="H19" t="n">
-        <v>5.392599296480221</v>
+        <v>4.207540308526419</v>
       </c>
       <c r="I19" t="n">
-        <v>5.644321789195678</v>
+        <v>4.37958316847803</v>
       </c>
       <c r="J19" t="n">
-        <v>5.427614737360456</v>
+        <v>4.424146917068724</v>
       </c>
       <c r="K19" t="n">
-        <v>5.703759521480529</v>
+        <v>4.577903986293388</v>
       </c>
       <c r="L19" t="n">
-        <v>5.524880090683747</v>
+        <v>4.19852830849873</v>
       </c>
       <c r="M19" t="n">
-        <v>5.597700710403491</v>
+        <v>4.335389091330152</v>
       </c>
       <c r="N19" t="n">
-        <v>5.540907704946369</v>
+        <v>4.33213540726924</v>
       </c>
       <c r="O19" t="n">
-        <v>5.582800816637093</v>
+        <v>4.644484402283441</v>
       </c>
       <c r="P19" t="n">
-        <v>5.471668773859672</v>
+        <v>4.001674669172377</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.624674075613378</v>
+        <v>4.641314146018961</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.628140100605789</v>
+        <v>4.583103120262517</v>
       </c>
       <c r="B20" t="n">
-        <v>5.599588444598087</v>
+        <v>4.560071654408264</v>
       </c>
       <c r="C20" t="n">
-        <v>5.646196575967815</v>
+        <v>4.560179175576944</v>
       </c>
       <c r="D20" t="n">
-        <v>5.531892846268564</v>
+        <v>4.40818847418022</v>
       </c>
       <c r="E20" t="n">
-        <v>5.660556562217652</v>
+        <v>4.505935285381948</v>
       </c>
       <c r="F20" t="n">
-        <v>5.449662039905251</v>
+        <v>4.297922818680023</v>
       </c>
       <c r="G20" t="n">
-        <v>5.662041199993008</v>
+        <v>4.452247340761464</v>
       </c>
       <c r="H20" t="n">
-        <v>5.388663280052532</v>
+        <v>4.238508562721566</v>
       </c>
       <c r="I20" t="n">
-        <v>5.691464649112983</v>
+        <v>4.445661579279196</v>
       </c>
       <c r="J20" t="n">
-        <v>5.48323082211601</v>
+        <v>4.390743074661315</v>
       </c>
       <c r="K20" t="n">
-        <v>5.709893578661094</v>
+        <v>4.591151025797799</v>
       </c>
       <c r="L20" t="n">
-        <v>5.515269650572804</v>
+        <v>4.258068065754409</v>
       </c>
       <c r="M20" t="n">
-        <v>5.63876087124932</v>
+        <v>4.364275965845308</v>
       </c>
       <c r="N20" t="n">
-        <v>5.568044207679246</v>
+        <v>4.51303096330966</v>
       </c>
       <c r="O20" t="n">
-        <v>5.58042625935802</v>
+        <v>4.691052935206539</v>
       </c>
       <c r="P20" t="n">
-        <v>5.530134586298563</v>
+        <v>4.244157559506808</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.619041946843494</v>
+        <v>4.668631714914993</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.630739943035657</v>
+        <v>4.649027621163366</v>
       </c>
       <c r="B21" t="n">
-        <v>5.600169783866519</v>
+        <v>4.631085610494138</v>
       </c>
       <c r="C21" t="n">
-        <v>5.649082556434038</v>
+        <v>4.632817816077849</v>
       </c>
       <c r="D21" t="n">
-        <v>5.530054312279314</v>
+        <v>4.47056297850179</v>
       </c>
       <c r="E21" t="n">
-        <v>5.662572044313849</v>
+        <v>4.564167887292643</v>
       </c>
       <c r="F21" t="n">
-        <v>5.467945095160318</v>
+        <v>4.38583881480027</v>
       </c>
       <c r="G21" t="n">
-        <v>5.657464717734322</v>
+        <v>4.51190217083981</v>
       </c>
       <c r="H21" t="n">
-        <v>5.396214216830916</v>
+        <v>4.414537617170879</v>
       </c>
       <c r="I21" t="n">
-        <v>5.703448783341501</v>
+        <v>4.536062788766484</v>
       </c>
       <c r="J21" t="n">
-        <v>5.433084591768849</v>
+        <v>4.58783477088956</v>
       </c>
       <c r="K21" t="n">
-        <v>5.726363994771831</v>
+        <v>4.649401248234463</v>
       </c>
       <c r="L21" t="n">
-        <v>5.513791918089426</v>
+        <v>4.329671050851309</v>
       </c>
       <c r="M21" t="n">
-        <v>5.628776682210047</v>
+        <v>4.443106962615986</v>
       </c>
       <c r="N21" t="n">
-        <v>5.55247493217169</v>
+        <v>4.49537303867139</v>
       </c>
       <c r="O21" t="n">
-        <v>5.614550485992291</v>
+        <v>4.794066126058142</v>
       </c>
       <c r="P21" t="n">
-        <v>5.575924008988101</v>
+        <v>4.270305341239915</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.609554075665169</v>
+        <v>4.75619422170811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.665247413374731</v>
+        <v>4.720384638101816</v>
       </c>
       <c r="B22" t="n">
-        <v>5.649303525777347</v>
+        <v>4.707115662840585</v>
       </c>
       <c r="C22" t="n">
-        <v>5.653322837289526</v>
+        <v>4.710453493903073</v>
       </c>
       <c r="D22" t="n">
-        <v>5.484274815946995</v>
+        <v>4.569655422523581</v>
       </c>
       <c r="E22" t="n">
-        <v>5.589454065458284</v>
+        <v>4.657302076318274</v>
       </c>
       <c r="F22" t="n">
-        <v>5.344979108254909</v>
+        <v>4.453685751044802</v>
       </c>
       <c r="G22" t="n">
-        <v>5.54741033208628</v>
+        <v>4.622241544867029</v>
       </c>
       <c r="H22" t="n">
-        <v>5.231204496553504</v>
+        <v>4.358852439871978</v>
       </c>
       <c r="I22" t="n">
-        <v>5.531474212942373</v>
+        <v>4.608902806707055</v>
       </c>
       <c r="J22" t="n">
-        <v>5.277938217921088</v>
+        <v>4.397680527457859</v>
       </c>
       <c r="K22" t="n">
-        <v>5.641570030342285</v>
+        <v>4.700532418576314</v>
       </c>
       <c r="L22" t="n">
-        <v>5.259821752835</v>
+        <v>4.382646982381542</v>
       </c>
       <c r="M22" t="n">
-        <v>5.422784485621563</v>
+        <v>4.518344091293743</v>
       </c>
       <c r="N22" t="n">
-        <v>5.473541402728065</v>
+        <v>4.560675427124696</v>
       </c>
       <c r="O22" t="n">
-        <v>5.853616441672833</v>
+        <v>4.877309805975534</v>
       </c>
       <c r="P22" t="n">
-        <v>5.193366949157846</v>
+        <v>4.327201300394817</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.841391916967317</v>
+        <v>4.866946059884077</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.776122234025956</v>
+        <v>4.812818680922032</v>
       </c>
       <c r="B23" t="n">
-        <v>5.753616161145346</v>
+        <v>4.794063968442717</v>
       </c>
       <c r="C23" t="n">
-        <v>5.7541107526833</v>
+        <v>4.794501964373993</v>
       </c>
       <c r="D23" t="n">
-        <v>5.565387396590555</v>
+        <v>4.637300262123304</v>
       </c>
       <c r="E23" t="n">
-        <v>5.68222536844588</v>
+        <v>4.734611594611751</v>
       </c>
       <c r="F23" t="n">
-        <v>5.445603022964196</v>
+        <v>4.537518100370652</v>
       </c>
       <c r="G23" t="n">
-        <v>5.595855271122264</v>
+        <v>4.662648647341444</v>
       </c>
       <c r="H23" t="n">
-        <v>5.478194274779263</v>
+        <v>4.564770940803933</v>
       </c>
       <c r="I23" t="n">
-        <v>5.622594287985634</v>
+        <v>4.684919553758382</v>
       </c>
       <c r="J23" t="n">
-        <v>5.696846461048651</v>
+        <v>4.746843835661266</v>
       </c>
       <c r="K23" t="n">
-        <v>5.849619572359583</v>
+        <v>4.874002541131567</v>
       </c>
       <c r="L23" t="n">
-        <v>5.36735052794194</v>
+        <v>4.472202406622225</v>
       </c>
       <c r="M23" t="n">
-        <v>5.511908068121569</v>
+        <v>4.592606337401967</v>
       </c>
       <c r="N23" t="n">
-        <v>5.499057751330509</v>
+        <v>4.582024312550013</v>
       </c>
       <c r="O23" t="n">
-        <v>5.945500414641204</v>
+        <v>4.953974556859505</v>
       </c>
       <c r="P23" t="n">
-        <v>5.156843996722576</v>
+        <v>4.296857316262639</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.983761342751288</v>
+        <v>4.985679636722291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.877250666630414</v>
+        <v>4.897090824192011</v>
       </c>
       <c r="B24" t="n">
-        <v>5.844848447183256</v>
+        <v>4.870076040660622</v>
       </c>
       <c r="C24" t="n">
-        <v>5.846204473895515</v>
+        <v>4.871224611271868</v>
       </c>
       <c r="D24" t="n">
-        <v>5.64360795463741</v>
+        <v>4.702450898291717</v>
       </c>
       <c r="E24" t="n">
-        <v>5.77423449983136</v>
+        <v>4.811220607097242</v>
       </c>
       <c r="F24" t="n">
-        <v>5.522525386119112</v>
+        <v>4.601573746710873</v>
       </c>
       <c r="G24" t="n">
-        <v>5.698985375238961</v>
+        <v>4.748518145231072</v>
       </c>
       <c r="H24" t="n">
-        <v>5.501903594787109</v>
+        <v>4.584342310721613</v>
       </c>
       <c r="I24" t="n">
-        <v>5.757624683138809</v>
+        <v>4.797359726004417</v>
       </c>
       <c r="J24" t="n">
-        <v>5.729301764927893</v>
+        <v>4.773664793406975</v>
       </c>
       <c r="K24" t="n">
-        <v>5.979574146327884</v>
+        <v>4.982284628851041</v>
       </c>
       <c r="L24" t="n">
-        <v>5.47144866767786</v>
+        <v>4.558978102990356</v>
       </c>
       <c r="M24" t="n">
-        <v>5.620467026475537</v>
+        <v>4.683067600518583</v>
       </c>
       <c r="N24" t="n">
-        <v>5.614244926822248</v>
+        <v>4.678049706245154</v>
       </c>
       <c r="O24" t="n">
-        <v>6.051651152417705</v>
+        <v>5.042274968127975</v>
       </c>
       <c r="P24" t="n">
-        <v>5.134523071983137</v>
+        <v>4.278276651427609</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.986990861493438</v>
+        <v>4.988415493081201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.983368172689268</v>
+        <v>4.985445895051249</v>
       </c>
       <c r="B25" t="n">
-        <v>5.950303908373681</v>
+        <v>4.957908249381866</v>
       </c>
       <c r="C25" t="n">
-        <v>5.961872430341248</v>
+        <v>4.967531214177403</v>
       </c>
       <c r="D25" t="n">
-        <v>5.766847995318212</v>
+        <v>4.805031846853177</v>
       </c>
       <c r="E25" t="n">
-        <v>5.881470663190715</v>
+        <v>4.900590476411375</v>
       </c>
       <c r="F25" t="n">
-        <v>5.633697997486905</v>
+        <v>4.694139404072014</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792160637807293</v>
+        <v>4.826205246223926</v>
       </c>
       <c r="H25" t="n">
-        <v>5.538583642614888</v>
+        <v>4.614803884894454</v>
       </c>
       <c r="I25" t="n">
-        <v>5.794411762992253</v>
+        <v>4.828025914040062</v>
       </c>
       <c r="J25" t="n">
-        <v>5.677991129720873</v>
+        <v>4.730812753053453</v>
       </c>
       <c r="K25" t="n">
-        <v>6.019246343486055</v>
+        <v>5.015259824994015</v>
       </c>
       <c r="L25" t="n">
-        <v>5.581587211571888</v>
+        <v>4.650645113526982</v>
       </c>
       <c r="M25" t="n">
-        <v>5.707289852004488</v>
+        <v>4.755377204667174</v>
       </c>
       <c r="N25" t="n">
-        <v>5.745562864375534</v>
+        <v>4.78734083877839</v>
       </c>
       <c r="O25" t="n">
-        <v>6.151768822908824</v>
+        <v>5.125713193036188</v>
       </c>
       <c r="P25" t="n">
-        <v>5.268506883820836</v>
+        <v>4.389950510595195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.992138325082588</v>
+        <v>4.992584725287459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.02276156868381</v>
+        <v>5.018259629639918</v>
       </c>
       <c r="B26" t="n">
-        <v>5.995753245433282</v>
+        <v>4.995745631885097</v>
       </c>
       <c r="C26" t="n">
-        <v>6.001521322138992</v>
+        <v>5.000573656001124</v>
       </c>
       <c r="D26" t="n">
-        <v>5.8146036998986</v>
+        <v>4.844811083238915</v>
       </c>
       <c r="E26" t="n">
-        <v>5.944773201079729</v>
+        <v>4.953303898064898</v>
       </c>
       <c r="F26" t="n">
-        <v>5.680025169789261</v>
+        <v>4.732715410255739</v>
       </c>
       <c r="G26" t="n">
-        <v>5.873426429616624</v>
+        <v>4.893863031516198</v>
       </c>
       <c r="H26" t="n">
-        <v>5.583092996803929</v>
+        <v>4.65188502319122</v>
       </c>
       <c r="I26" t="n">
-        <v>5.902499435168695</v>
+        <v>4.91804846202026</v>
       </c>
       <c r="J26" t="n">
-        <v>5.680884015479075</v>
+        <v>4.733296887612779</v>
       </c>
       <c r="K26" t="n">
-        <v>6.108635348146479</v>
+        <v>5.089844994210848</v>
       </c>
       <c r="L26" t="n">
-        <v>5.634716959634468</v>
+        <v>4.695020070767988</v>
       </c>
       <c r="M26" t="n">
-        <v>5.759136510501331</v>
+        <v>4.798690974721647</v>
       </c>
       <c r="N26" t="n">
-        <v>5.897652351780605</v>
+        <v>4.913987110585253</v>
       </c>
       <c r="O26" t="n">
-        <v>6.194960992652985</v>
+        <v>5.161804345455447</v>
       </c>
       <c r="P26" t="n">
-        <v>5.56156833854575</v>
+        <v>4.633993716484478</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.003969679726084</v>
+        <v>5.002667262168524</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.078450159005137</v>
+        <v>5.064746532779438</v>
       </c>
       <c r="B27" t="n">
-        <v>6.057538345410042</v>
+        <v>5.047319832594215</v>
       </c>
       <c r="C27" t="n">
-        <v>6.063029347275118</v>
+        <v>5.051917351462337</v>
       </c>
       <c r="D27" t="n">
-        <v>5.854989300034289</v>
+        <v>4.878541804383214</v>
       </c>
       <c r="E27" t="n">
-        <v>6.003691310143205</v>
+        <v>5.00240690990724</v>
       </c>
       <c r="F27" t="n">
-        <v>5.71904870108221</v>
+        <v>4.765336757469012</v>
       </c>
       <c r="G27" t="n">
-        <v>5.93694259997622</v>
+        <v>4.946804441199631</v>
       </c>
       <c r="H27" t="n">
-        <v>5.620349636511904</v>
+        <v>4.683133407789046</v>
       </c>
       <c r="I27" t="n">
-        <v>5.953864881130793</v>
+        <v>4.960857709667852</v>
       </c>
       <c r="J27" t="n">
-        <v>5.712365241608613</v>
+        <v>4.759654317644682</v>
       </c>
       <c r="K27" t="n">
-        <v>6.138445925197993</v>
+        <v>5.114638872264762</v>
       </c>
       <c r="L27" t="n">
-        <v>5.715244748363608</v>
+        <v>4.762140609819434</v>
       </c>
       <c r="M27" t="n">
-        <v>5.867534057655304</v>
+        <v>4.888985022642825</v>
       </c>
       <c r="N27" t="n">
-        <v>5.968343983667258</v>
+        <v>4.973070532178542</v>
       </c>
       <c r="O27" t="n">
-        <v>6.273872079897681</v>
+        <v>5.227623842405611</v>
       </c>
       <c r="P27" t="n">
-        <v>5.738819846758624</v>
+        <v>4.781797924751544</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.047511861457401</v>
+        <v>5.038833931127657</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.161038745809082</v>
+        <v>5.133528795310711</v>
       </c>
       <c r="B28" t="n">
-        <v>6.145917882699374</v>
+        <v>5.120939828510928</v>
       </c>
       <c r="C28" t="n">
-        <v>6.156224894138637</v>
+        <v>5.129504123337928</v>
       </c>
       <c r="D28" t="n">
-        <v>5.947223716570565</v>
+        <v>4.955344283051814</v>
       </c>
       <c r="E28" t="n">
-        <v>6.087795608536409</v>
+        <v>5.072524736386593</v>
       </c>
       <c r="F28" t="n">
-        <v>5.789855565028753</v>
+        <v>4.824273461213402</v>
       </c>
       <c r="G28" t="n">
-        <v>6.003770289420208</v>
+        <v>5.002486022472823</v>
       </c>
       <c r="H28" t="n">
-        <v>5.685711677733476</v>
+        <v>4.737515744973813</v>
       </c>
       <c r="I28" t="n">
-        <v>6.00290324369617</v>
+        <v>5.001797743152245</v>
       </c>
       <c r="J28" t="n">
-        <v>5.755844412550627</v>
+        <v>4.795933901811058</v>
       </c>
       <c r="K28" t="n">
-        <v>6.136693707358473</v>
+        <v>5.113161265301202</v>
       </c>
       <c r="L28" t="n">
-        <v>5.774097257153289</v>
+        <v>4.811110568710567</v>
       </c>
       <c r="M28" t="n">
-        <v>5.931912526350702</v>
+        <v>4.942571199735764</v>
       </c>
       <c r="N28" t="n">
-        <v>5.977172399461646</v>
+        <v>4.980430158393245</v>
       </c>
       <c r="O28" t="n">
-        <v>6.357701461353994</v>
+        <v>5.297393933198967</v>
       </c>
       <c r="P28" t="n">
-        <v>5.73476989301329</v>
+        <v>4.778424493034543</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.11450873055486</v>
+        <v>5.094746377251326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.238916197160759</v>
+        <v>5.198417640807556</v>
       </c>
       <c r="B29" t="n">
-        <v>6.219094988117503</v>
+        <v>5.181893183472558</v>
       </c>
       <c r="C29" t="n">
-        <v>6.232386812014431</v>
+        <v>5.19299123801366</v>
       </c>
       <c r="D29" t="n">
-        <v>6.031958122856797</v>
+        <v>5.026021651131386</v>
       </c>
       <c r="E29" t="n">
-        <v>6.157738447824153</v>
+        <v>5.130776397233541</v>
       </c>
       <c r="F29" t="n">
-        <v>5.885256057937126</v>
+        <v>4.903783747240388</v>
       </c>
       <c r="G29" t="n">
-        <v>6.045915875848892</v>
+        <v>5.037590785040281</v>
       </c>
       <c r="H29" t="n">
-        <v>5.848196650631284</v>
+        <v>4.873059663190838</v>
       </c>
       <c r="I29" t="n">
-        <v>6.067141448648257</v>
+        <v>5.055282871922779</v>
       </c>
       <c r="J29" t="n">
-        <v>6.0808281689302</v>
+        <v>5.066903788601875</v>
       </c>
       <c r="K29" t="n">
-        <v>6.24589269996269</v>
+        <v>5.204096125003607</v>
       </c>
       <c r="L29" t="n">
-        <v>5.846342579735083</v>
+        <v>4.871324940389131</v>
       </c>
       <c r="M29" t="n">
-        <v>5.983309477707452</v>
+        <v>4.985434747371553</v>
       </c>
       <c r="N29" t="n">
-        <v>6.047949484336532</v>
+        <v>5.039363266111926</v>
       </c>
       <c r="O29" t="n">
-        <v>6.465850849577493</v>
+        <v>5.387631163913954</v>
       </c>
       <c r="P29" t="n">
-        <v>5.731765659421937</v>
+        <v>4.775870235973904</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.239131124373587</v>
+        <v>5.198689500351107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.253412131346422</v>
+        <v>5.21052474016242</v>
       </c>
       <c r="B30" t="n">
-        <v>6.231260817841203</v>
+        <v>5.192058788547485</v>
       </c>
       <c r="C30" t="n">
-        <v>6.236382386585435</v>
+        <v>5.19633410351214</v>
       </c>
       <c r="D30" t="n">
-        <v>6.070830600887718</v>
+        <v>5.058451689776976</v>
       </c>
       <c r="E30" t="n">
-        <v>6.186172713868221</v>
+        <v>5.154471329830984</v>
       </c>
       <c r="F30" t="n">
-        <v>5.961045090046087</v>
+        <v>4.966952973243501</v>
       </c>
       <c r="G30" t="n">
-        <v>6.108709580035248</v>
+        <v>5.089931298827849</v>
       </c>
       <c r="H30" t="n">
-        <v>6.02446285999499</v>
+        <v>5.019830373669325</v>
       </c>
       <c r="I30" t="n">
-        <v>6.134143065133951</v>
+        <v>5.111194598841307</v>
       </c>
       <c r="J30" t="n">
-        <v>6.292610452842574</v>
+        <v>5.24334278998194</v>
       </c>
       <c r="K30" t="n">
-        <v>6.368605780549389</v>
+        <v>5.306458075599428</v>
       </c>
       <c r="L30" t="n">
-        <v>5.939794485563301</v>
+        <v>4.949247221463311</v>
       </c>
       <c r="M30" t="n">
-        <v>6.084264414850953</v>
+        <v>5.069596852254857</v>
       </c>
       <c r="N30" t="n">
-        <v>6.102225510867527</v>
+        <v>5.084537979470469</v>
       </c>
       <c r="O30" t="n">
-        <v>6.588103433505383</v>
+        <v>5.489399410665327</v>
       </c>
       <c r="P30" t="n">
-        <v>5.703236445613165</v>
+        <v>4.75213179146539</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.430105605651291</v>
+        <v>5.357882681639079</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.300706907687252</v>
+        <v>5.24984800048834</v>
       </c>
       <c r="B31" t="n">
-        <v>6.261509449352596</v>
+        <v>5.217179545338287</v>
       </c>
       <c r="C31" t="n">
-        <v>6.270580413527726</v>
+        <v>5.224735874159238</v>
       </c>
       <c r="D31" t="n">
-        <v>6.074792080579578</v>
+        <v>5.061570882476396</v>
       </c>
       <c r="E31" t="n">
-        <v>6.189870066141908</v>
+        <v>5.157508892746825</v>
       </c>
       <c r="F31" t="n">
-        <v>6.034362459207527</v>
+        <v>5.027922510320819</v>
       </c>
       <c r="G31" t="n">
-        <v>6.153868894831755</v>
+        <v>5.127487831723258</v>
       </c>
       <c r="H31" t="n">
-        <v>6.190913628392144</v>
+        <v>5.158422642879316</v>
       </c>
       <c r="I31" t="n">
-        <v>6.292219440684297</v>
+        <v>5.242754480176054</v>
       </c>
       <c r="J31" t="n">
-        <v>6.461686958514516</v>
+        <v>5.384100585873498</v>
       </c>
       <c r="K31" t="n">
-        <v>6.633034873666604</v>
+        <v>5.526659631042368</v>
       </c>
       <c r="L31" t="n">
-        <v>6.002062955978547</v>
+        <v>5.001085010856851</v>
       </c>
       <c r="M31" t="n">
-        <v>6.133741695037706</v>
+        <v>5.110798316808246</v>
       </c>
       <c r="N31" t="n">
-        <v>6.151313073638249</v>
+        <v>5.12553734737905</v>
       </c>
       <c r="O31" t="n">
-        <v>6.639951386744472</v>
+        <v>5.532693402578404</v>
       </c>
       <c r="P31" t="n">
-        <v>5.705106916577815</v>
+        <v>4.753668013647997</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.629835565576861</v>
+        <v>5.524209658727271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.414929068625008</v>
+        <v>5.345074716873659</v>
       </c>
       <c r="B32" t="n">
-        <v>6.383055104014197</v>
+        <v>5.318525618671501</v>
       </c>
       <c r="C32" t="n">
-        <v>6.385301481810921</v>
+        <v>5.320383325552433</v>
       </c>
       <c r="D32" t="n">
-        <v>6.187440266527007</v>
+        <v>5.155569556082313</v>
       </c>
       <c r="E32" t="n">
-        <v>6.307042944658185</v>
+        <v>5.255171556946978</v>
       </c>
       <c r="F32" t="n">
-        <v>6.112192005096105</v>
+        <v>5.092847316074748</v>
       </c>
       <c r="G32" t="n">
-        <v>6.271581680864594</v>
+        <v>5.225592087880395</v>
       </c>
       <c r="H32" t="n">
-        <v>6.371993689426294</v>
+        <v>5.309297137896168</v>
       </c>
       <c r="I32" t="n">
-        <v>6.526875935855879</v>
+        <v>5.438272915156897</v>
       </c>
       <c r="J32" t="n">
-        <v>6.691020768312996</v>
+        <v>5.575107087398078</v>
       </c>
       <c r="K32" t="n">
-        <v>6.805762552472127</v>
+        <v>5.670574737505856</v>
       </c>
       <c r="L32" t="n">
-        <v>6.032208008110265</v>
+        <v>5.026210442481075</v>
       </c>
       <c r="M32" t="n">
-        <v>6.198211227271069</v>
+        <v>5.164483384608165</v>
       </c>
       <c r="N32" t="n">
-        <v>6.159768603665804</v>
+        <v>5.132562183600307</v>
       </c>
       <c r="O32" t="n">
-        <v>6.690047122144041</v>
+        <v>5.574254469702629</v>
       </c>
       <c r="P32" t="n">
-        <v>5.722912643524875</v>
+        <v>4.768512767374625</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.818971081284565</v>
+        <v>5.681737160907137</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.672373027325319</v>
+        <v>5.559498897413567</v>
       </c>
       <c r="B33" t="n">
-        <v>6.648782392023352</v>
+        <v>5.539858124199716</v>
       </c>
       <c r="C33" t="n">
-        <v>6.656812815013486</v>
+        <v>5.546531269106696</v>
       </c>
       <c r="D33" t="n">
-        <v>6.453299618245249</v>
+        <v>5.376987647022387</v>
       </c>
       <c r="E33" t="n">
-        <v>6.633148379403499</v>
+        <v>5.526823250212098</v>
       </c>
       <c r="F33" t="n">
-        <v>6.291891007734574</v>
+        <v>5.242473270965662</v>
       </c>
       <c r="G33" t="n">
-        <v>6.655064481400704</v>
+        <v>5.545110479349328</v>
       </c>
       <c r="H33" t="n">
-        <v>6.131842308162897</v>
+        <v>5.109100273468765</v>
       </c>
       <c r="I33" t="n">
-        <v>6.95931898284186</v>
+        <v>5.79869502025057</v>
       </c>
       <c r="J33" t="n">
-        <v>6.010475759511985</v>
+        <v>5.00801167557627</v>
       </c>
       <c r="K33" t="n">
-        <v>7.257522290606192</v>
+        <v>6.047047343746165</v>
       </c>
       <c r="L33" t="n">
-        <v>6.261886219346168</v>
+        <v>5.217506064472605</v>
       </c>
       <c r="M33" t="n">
-        <v>6.518779049430454</v>
+        <v>5.431579992108522</v>
       </c>
       <c r="N33" t="n">
-        <v>6.302484157210193</v>
+        <v>5.251416946504892</v>
       </c>
       <c r="O33" t="n">
-        <v>6.954687689828095</v>
+        <v>5.794853745588912</v>
       </c>
       <c r="P33" t="n">
-        <v>6.074571974397767</v>
+        <v>5.061484577859396</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.981301116693608</v>
+        <v>5.817132922864979</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.447216919173774</v>
+        <v>5.371984136851792</v>
       </c>
       <c r="B34" t="n">
-        <v>6.417780954212088</v>
+        <v>5.347462837546572</v>
       </c>
       <c r="C34" t="n">
-        <v>6.428116881561511</v>
+        <v>5.356072082694927</v>
       </c>
       <c r="D34" t="n">
-        <v>6.261320848565436</v>
+        <v>5.217033187091958</v>
       </c>
       <c r="E34" t="n">
-        <v>6.443416850681908</v>
+        <v>5.368758501791405</v>
       </c>
       <c r="F34" t="n">
-        <v>6.163692967413279</v>
+        <v>5.135687849146002</v>
       </c>
       <c r="G34" t="n">
-        <v>6.522400011911628</v>
+        <v>5.434566491459304</v>
       </c>
       <c r="H34" t="n">
-        <v>6.007592368530254</v>
+        <v>5.005702307866369</v>
       </c>
       <c r="I34" t="n">
-        <v>6.741305967661223</v>
+        <v>5.616969141874092</v>
       </c>
       <c r="J34" t="n">
-        <v>5.844536414301982</v>
+        <v>4.86972147252578</v>
       </c>
       <c r="K34" t="n">
-        <v>7.029268295840835</v>
+        <v>5.856716535452184</v>
       </c>
       <c r="L34" t="n">
-        <v>6.25696145142332</v>
+        <v>5.213433924960473</v>
       </c>
       <c r="M34" t="n">
-        <v>6.527154737019508</v>
+        <v>5.438572464098403</v>
       </c>
       <c r="N34" t="n">
-        <v>6.224961465233905</v>
+        <v>5.186808231410727</v>
       </c>
       <c r="O34" t="n">
-        <v>6.900756496315272</v>
+        <v>5.749886882516312</v>
       </c>
       <c r="P34" t="n">
-        <v>6.078973234872501</v>
+        <v>5.065180573082435</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.005204216457598</v>
+        <v>5.836946664915402</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.455533048619514</v>
+        <v>5.378891023429816</v>
       </c>
       <c r="B35" t="n">
-        <v>6.421120094464395</v>
+        <v>5.350235373367708</v>
       </c>
       <c r="C35" t="n">
-        <v>6.436719149043606</v>
+        <v>5.363228533457108</v>
       </c>
       <c r="D35" t="n">
-        <v>6.227030463342934</v>
+        <v>5.188525693289034</v>
       </c>
       <c r="E35" t="n">
-        <v>6.412384468530966</v>
+        <v>5.342962051770004</v>
       </c>
       <c r="F35" t="n">
-        <v>6.113169967072547</v>
+        <v>5.093681953641655</v>
       </c>
       <c r="G35" t="n">
-        <v>6.459427633295332</v>
+        <v>5.382145067093299</v>
       </c>
       <c r="H35" t="n">
-        <v>5.962200000129474</v>
+        <v>4.967981796198659</v>
       </c>
       <c r="I35" t="n">
-        <v>6.632327944400315</v>
+        <v>5.526189270879716</v>
       </c>
       <c r="J35" t="n">
-        <v>5.82566338816351</v>
+        <v>4.85418304544001</v>
       </c>
       <c r="K35" t="n">
-        <v>6.87788357979831</v>
+        <v>5.730701006554566</v>
       </c>
       <c r="L35" t="n">
-        <v>6.218289658440522</v>
+        <v>5.181254529306756</v>
       </c>
       <c r="M35" t="n">
-        <v>6.480007561294716</v>
+        <v>5.399310336209525</v>
       </c>
       <c r="N35" t="n">
-        <v>6.189558033260633</v>
+        <v>5.15736433251335</v>
       </c>
       <c r="O35" t="n">
-        <v>6.835850635945023</v>
+        <v>5.695805532683334</v>
       </c>
       <c r="P35" t="n">
-        <v>6.109690563076929</v>
+        <v>5.090751192689352</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.996221294755193</v>
+        <v>5.829409754633277</v>
       </c>
     </row>
   </sheetData>
@@ -2365,1804 +2365,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.424779683422574</v>
+        <v>2.478647563499296</v>
       </c>
       <c r="B2" t="n">
-        <v>2.39383555953473</v>
+        <v>2.453537774586904</v>
       </c>
       <c r="C2" t="n">
-        <v>2.398747811615866</v>
+        <v>2.448862581563482</v>
       </c>
       <c r="D2" t="n">
-        <v>2.381926304566103</v>
+        <v>2.463009706302691</v>
       </c>
       <c r="E2" t="n">
-        <v>2.399711963008351</v>
+        <v>2.477401720392639</v>
       </c>
       <c r="F2" t="n">
-        <v>2.522579549503067</v>
+        <v>2.628107921406341</v>
       </c>
       <c r="G2" t="n">
-        <v>2.544083707675685</v>
+        <v>2.642073087244708</v>
       </c>
       <c r="H2" t="n">
-        <v>2.727293835494798</v>
+        <v>2.913806410293408</v>
       </c>
       <c r="I2" t="n">
-        <v>2.737790742463467</v>
+        <v>2.793625792710155</v>
       </c>
       <c r="J2" t="n">
-        <v>2.900018277444705</v>
+        <v>2.944701665166674</v>
       </c>
       <c r="K2" t="n">
-        <v>2.897681915061888</v>
+        <v>2.784891046264579</v>
       </c>
       <c r="L2" t="n">
-        <v>2.915261925277404</v>
+        <v>3.059785275910916</v>
       </c>
       <c r="M2" t="n">
-        <v>2.919017972532906</v>
+        <v>3.062360030318093</v>
       </c>
       <c r="N2" t="n">
-        <v>3.24326933638202</v>
+        <v>3.345854155445943</v>
       </c>
       <c r="O2" t="n">
-        <v>3.24877501199255</v>
+        <v>3.248625531548788</v>
       </c>
       <c r="P2" t="n">
-        <v>3.506445766376277</v>
+        <v>3.619577878724213</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.522549554641036</v>
+        <v>3.574673226896366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.456307520272966</v>
+        <v>2.44001545931452</v>
       </c>
       <c r="B3" t="n">
-        <v>2.422911586152041</v>
+        <v>2.414705012167603</v>
       </c>
       <c r="C3" t="n">
-        <v>2.428489119957222</v>
+        <v>2.408786673056804</v>
       </c>
       <c r="D3" t="n">
-        <v>2.394264550798888</v>
+        <v>2.416612703805881</v>
       </c>
       <c r="E3" t="n">
-        <v>2.414499861570475</v>
+        <v>2.433234253835004</v>
       </c>
       <c r="F3" t="n">
-        <v>2.528462210897543</v>
+        <v>2.574044911304475</v>
       </c>
       <c r="G3" t="n">
-        <v>2.550471534336456</v>
+        <v>2.606937758458729</v>
       </c>
       <c r="H3" t="n">
-        <v>2.734239911853948</v>
+        <v>2.899864618622145</v>
       </c>
       <c r="I3" t="n">
-        <v>2.741206272508285</v>
+        <v>2.737698962483653</v>
       </c>
       <c r="J3" t="n">
-        <v>2.904674170561143</v>
+        <v>2.951533394807393</v>
       </c>
       <c r="K3" t="n">
-        <v>2.904115920862764</v>
+        <v>2.743592489017063</v>
       </c>
       <c r="L3" t="n">
-        <v>2.927733529961523</v>
+        <v>3.024464751800957</v>
       </c>
       <c r="M3" t="n">
-        <v>2.929458558213877</v>
+        <v>3.037958119066389</v>
       </c>
       <c r="N3" t="n">
-        <v>3.26436047177818</v>
+        <v>3.310545857823392</v>
       </c>
       <c r="O3" t="n">
-        <v>3.262939492163249</v>
+        <v>3.258267555280579</v>
       </c>
       <c r="P3" t="n">
-        <v>3.574308170665154</v>
+        <v>3.603876551673856</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.536658360895159</v>
+        <v>3.594854123171612</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.464129058180753</v>
+        <v>2.433636289509197</v>
       </c>
       <c r="B4" t="n">
-        <v>2.428219381989315</v>
+        <v>2.406860282084843</v>
       </c>
       <c r="C4" t="n">
-        <v>2.434190733227639</v>
+        <v>2.399337036700409</v>
       </c>
       <c r="D4" t="n">
-        <v>2.394077676334723</v>
+        <v>2.407742926594957</v>
       </c>
       <c r="E4" t="n">
-        <v>2.411785002871091</v>
+        <v>2.428294752922018</v>
       </c>
       <c r="F4" t="n">
-        <v>2.52037244555447</v>
+        <v>2.585479194249308</v>
       </c>
       <c r="G4" t="n">
-        <v>2.532867355599016</v>
+        <v>2.613801133125681</v>
       </c>
       <c r="H4" t="n">
-        <v>2.743646214270778</v>
+        <v>2.893854940458355</v>
       </c>
       <c r="I4" t="n">
-        <v>2.737294208812145</v>
+        <v>2.740755943938319</v>
       </c>
       <c r="J4" t="n">
-        <v>2.919422579484766</v>
+        <v>2.779790263598573</v>
       </c>
       <c r="K4" t="n">
-        <v>2.899461538278947</v>
+        <v>2.963301029335389</v>
       </c>
       <c r="L4" t="n">
-        <v>2.930610447232024</v>
+        <v>3.026677746021874</v>
       </c>
       <c r="M4" t="n">
-        <v>2.925696253037519</v>
+        <v>3.040924480673205</v>
       </c>
       <c r="N4" t="n">
-        <v>3.261310922208217</v>
+        <v>3.311345254338358</v>
       </c>
       <c r="O4" t="n">
-        <v>3.251571223663055</v>
+        <v>3.253668957604745</v>
       </c>
       <c r="P4" t="n">
-        <v>3.578989958626511</v>
+        <v>3.576438515916594</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.56071618235754</v>
+        <v>3.625487946975882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.45723671362481</v>
+        <v>2.462897510300591</v>
       </c>
       <c r="B5" t="n">
-        <v>2.423747989642925</v>
+        <v>2.433067398242137</v>
       </c>
       <c r="C5" t="n">
-        <v>2.429090959311214</v>
+        <v>2.425883617684571</v>
       </c>
       <c r="D5" t="n">
-        <v>2.393863180702644</v>
+        <v>2.426300397064169</v>
       </c>
       <c r="E5" t="n">
-        <v>2.414411387517001</v>
+        <v>2.446715754215599</v>
       </c>
       <c r="F5" t="n">
-        <v>2.527111147363894</v>
+        <v>2.590389926956627</v>
       </c>
       <c r="G5" t="n">
-        <v>2.54585167821253</v>
+        <v>2.633734263229621</v>
       </c>
       <c r="H5" t="n">
-        <v>2.736063772097744</v>
+        <v>2.933511552367439</v>
       </c>
       <c r="I5" t="n">
-        <v>2.740349153141465</v>
+        <v>2.775561337365557</v>
       </c>
       <c r="J5" t="n">
-        <v>2.916050854885937</v>
+        <v>3.011907070424837</v>
       </c>
       <c r="K5" t="n">
-        <v>2.917123548836706</v>
+        <v>2.849507133211446</v>
       </c>
       <c r="L5" t="n">
-        <v>2.939914896592174</v>
+        <v>3.030212279690609</v>
       </c>
       <c r="M5" t="n">
-        <v>2.938442774658528</v>
+        <v>3.058519474861578</v>
       </c>
       <c r="N5" t="n">
-        <v>3.26518025941024</v>
+        <v>3.294656099025917</v>
       </c>
       <c r="O5" t="n">
-        <v>3.254765352783815</v>
+        <v>3.297721710942284</v>
       </c>
       <c r="P5" t="n">
-        <v>3.562904080962822</v>
+        <v>3.558810438291705</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.514424399676574</v>
+        <v>3.692629342976436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.451560779408937</v>
+        <v>2.460141156595143</v>
       </c>
       <c r="B6" t="n">
-        <v>2.420061211097581</v>
+        <v>2.429929146606462</v>
       </c>
       <c r="C6" t="n">
-        <v>2.423333240543472</v>
+        <v>2.421784867582197</v>
       </c>
       <c r="D6" t="n">
-        <v>2.400393644800844</v>
+        <v>2.425866716363742</v>
       </c>
       <c r="E6" t="n">
-        <v>2.410325828359904</v>
+        <v>2.453511523599234</v>
       </c>
       <c r="F6" t="n">
-        <v>2.529450530811952</v>
+        <v>2.605819754066004</v>
       </c>
       <c r="G6" t="n">
-        <v>2.535195517947609</v>
+        <v>2.664608121749923</v>
       </c>
       <c r="H6" t="n">
-        <v>2.735975082253896</v>
+        <v>2.804687527391602</v>
       </c>
       <c r="I6" t="n">
-        <v>2.720005515601968</v>
+        <v>2.952752807125093</v>
       </c>
       <c r="J6" t="n">
-        <v>2.938063415180464</v>
+        <v>2.896189839950785</v>
       </c>
       <c r="K6" t="n">
-        <v>2.899487864704614</v>
+        <v>3.025747094568554</v>
       </c>
       <c r="L6" t="n">
-        <v>2.942936177623099</v>
+        <v>3.050967820874048</v>
       </c>
       <c r="M6" t="n">
-        <v>2.937559328866041</v>
+        <v>3.092979470019529</v>
       </c>
       <c r="N6" t="n">
-        <v>3.251699187355029</v>
+        <v>3.302062113972259</v>
       </c>
       <c r="O6" t="n">
-        <v>3.244204140283596</v>
+        <v>3.355041641528199</v>
       </c>
       <c r="P6" t="n">
-        <v>3.518136425695713</v>
+        <v>3.551134002212095</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.501328729229907</v>
+        <v>3.734085046547406</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.451747222292354</v>
+        <v>2.461333778521316</v>
       </c>
       <c r="B7" t="n">
-        <v>2.417543369009956</v>
+        <v>2.434593371751474</v>
       </c>
       <c r="C7" t="n">
-        <v>2.422412031435479</v>
+        <v>2.426029256725759</v>
       </c>
       <c r="D7" t="n">
-        <v>2.394241029648087</v>
+        <v>2.442851644790694</v>
       </c>
       <c r="E7" t="n">
-        <v>2.407248441831654</v>
+        <v>2.471406066729112</v>
       </c>
       <c r="F7" t="n">
-        <v>2.530235791984121</v>
+        <v>2.628828205355723</v>
       </c>
       <c r="G7" t="n">
-        <v>2.53292497162896</v>
+        <v>2.681620020369688</v>
       </c>
       <c r="H7" t="n">
-        <v>2.754259432251209</v>
+        <v>2.970796405520583</v>
       </c>
       <c r="I7" t="n">
-        <v>2.726837870433849</v>
+        <v>2.862595408180832</v>
       </c>
       <c r="J7" t="n">
-        <v>2.955311324009894</v>
+        <v>3.000549922231449</v>
       </c>
       <c r="K7" t="n">
-        <v>2.902503966766556</v>
+        <v>3.08311449269382</v>
       </c>
       <c r="L7" t="n">
-        <v>2.935641599809414</v>
+        <v>3.060593302887582</v>
       </c>
       <c r="M7" t="n">
-        <v>2.927784024909114</v>
+        <v>3.102591646737942</v>
       </c>
       <c r="N7" t="n">
-        <v>3.24407013446114</v>
+        <v>3.278965560052685</v>
       </c>
       <c r="O7" t="n">
-        <v>3.23267812901977</v>
+        <v>3.340393590407817</v>
       </c>
       <c r="P7" t="n">
-        <v>3.532271126794755</v>
+        <v>3.568151115069137</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.512217727308725</v>
+        <v>3.729124688685312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.448493103447532</v>
+        <v>2.524786910754104</v>
       </c>
       <c r="B8" t="n">
-        <v>2.4147156519448</v>
+        <v>2.49272114951277</v>
       </c>
       <c r="C8" t="n">
-        <v>2.420454165369227</v>
+        <v>2.487039608694867</v>
       </c>
       <c r="D8" t="n">
-        <v>2.384451915107204</v>
+        <v>2.485837277499281</v>
       </c>
       <c r="E8" t="n">
-        <v>2.404558399025318</v>
+        <v>2.505355066633907</v>
       </c>
       <c r="F8" t="n">
-        <v>2.522014826093459</v>
+        <v>2.665286871602374</v>
       </c>
       <c r="G8" t="n">
-        <v>2.532797007936986</v>
+        <v>2.692523889522539</v>
       </c>
       <c r="H8" t="n">
-        <v>2.754825018822316</v>
+        <v>2.917260752588847</v>
       </c>
       <c r="I8" t="n">
-        <v>2.731445426506438</v>
+        <v>2.984334363504798</v>
       </c>
       <c r="J8" t="n">
-        <v>2.962632012458873</v>
+        <v>3.026244784526589</v>
       </c>
       <c r="K8" t="n">
-        <v>2.911061565641166</v>
+        <v>3.105541466626499</v>
       </c>
       <c r="L8" t="n">
-        <v>2.929086535608541</v>
+        <v>3.090763958580616</v>
       </c>
       <c r="M8" t="n">
-        <v>2.927257064815012</v>
+        <v>3.117129299869078</v>
       </c>
       <c r="N8" t="n">
-        <v>3.241571066136081</v>
+        <v>3.332798784111787</v>
       </c>
       <c r="O8" t="n">
-        <v>3.238406716086978</v>
+        <v>3.336005360235921</v>
       </c>
       <c r="P8" t="n">
-        <v>3.530214644527438</v>
+        <v>3.664863709277144</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.504369431394522</v>
+        <v>3.733679414847505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.45602634541522</v>
+        <v>2.529726411667089</v>
       </c>
       <c r="B9" t="n">
-        <v>2.423331514220478</v>
+        <v>2.496097278249052</v>
       </c>
       <c r="C9" t="n">
-        <v>2.426575490917707</v>
+        <v>2.492416925737844</v>
       </c>
       <c r="D9" t="n">
-        <v>2.409987684843337</v>
+        <v>2.492608593908099</v>
       </c>
       <c r="E9" t="n">
-        <v>2.418665910537195</v>
+        <v>2.509114711511984</v>
       </c>
       <c r="F9" t="n">
-        <v>2.540500076929268</v>
+        <v>2.676208720883766</v>
       </c>
       <c r="G9" t="n">
-        <v>2.553564457771658</v>
+        <v>2.703992694314171</v>
       </c>
       <c r="H9" t="n">
-        <v>2.743537455922119</v>
+        <v>2.935631589323795</v>
       </c>
       <c r="I9" t="n">
-        <v>2.746494215631121</v>
+        <v>3.005051607014444</v>
       </c>
       <c r="J9" t="n">
-        <v>2.961760435136974</v>
+        <v>3.075681507554666</v>
       </c>
       <c r="K9" t="n">
-        <v>2.91265884599192</v>
+        <v>3.149718642453547</v>
       </c>
       <c r="L9" t="n">
-        <v>2.928135979009639</v>
+        <v>3.10695470472988</v>
       </c>
       <c r="M9" t="n">
-        <v>2.928293505982896</v>
+        <v>3.130167050677262</v>
       </c>
       <c r="N9" t="n">
-        <v>3.242435953956376</v>
+        <v>3.341505121954267</v>
       </c>
       <c r="O9" t="n">
-        <v>3.24320200978523</v>
+        <v>3.334530270490357</v>
       </c>
       <c r="P9" t="n">
-        <v>3.538960412608459</v>
+        <v>3.692888976032579</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.535455113767922</v>
+        <v>3.742606189065906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.452972480037772</v>
+        <v>2.55938283568383</v>
       </c>
       <c r="B10" t="n">
-        <v>2.42012055345052</v>
+        <v>2.527357709533001</v>
       </c>
       <c r="C10" t="n">
-        <v>2.424315734117775</v>
+        <v>2.522080541806001</v>
       </c>
       <c r="D10" t="n">
-        <v>2.38779256589213</v>
+        <v>2.517814216905618</v>
       </c>
       <c r="E10" t="n">
-        <v>2.403517426259574</v>
+        <v>2.538298617750648</v>
       </c>
       <c r="F10" t="n">
-        <v>2.525512572270894</v>
+        <v>2.704518433272731</v>
       </c>
       <c r="G10" t="n">
-        <v>2.537083252142205</v>
+        <v>2.731429471462434</v>
       </c>
       <c r="H10" t="n">
-        <v>2.759078462890637</v>
+        <v>2.94286877086313</v>
       </c>
       <c r="I10" t="n">
-        <v>2.747095407613991</v>
+        <v>3.032927998305553</v>
       </c>
       <c r="J10" t="n">
-        <v>2.976265432518358</v>
+        <v>3.072524916187878</v>
       </c>
       <c r="K10" t="n">
-        <v>2.922920325662201</v>
+        <v>3.153554882679212</v>
       </c>
       <c r="L10" t="n">
-        <v>2.921771673499669</v>
+        <v>3.141250361512959</v>
       </c>
       <c r="M10" t="n">
-        <v>2.9228968045114</v>
+        <v>3.163680571868776</v>
       </c>
       <c r="N10" t="n">
-        <v>3.236655792989704</v>
+        <v>3.374921550451656</v>
       </c>
       <c r="O10" t="n">
-        <v>3.222762561319532</v>
+        <v>3.337440534096122</v>
       </c>
       <c r="P10" t="n">
-        <v>3.51544551972788</v>
+        <v>3.714968573881832</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.525908116027032</v>
+        <v>3.745060476611853</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.451093809038898</v>
+        <v>2.536470038677954</v>
       </c>
       <c r="B11" t="n">
-        <v>2.417734343491234</v>
+        <v>2.503205722068027</v>
       </c>
       <c r="C11" t="n">
-        <v>2.42313255549535</v>
+        <v>2.509568889558949</v>
       </c>
       <c r="D11" t="n">
-        <v>2.389583410208654</v>
+        <v>2.513972582641391</v>
       </c>
       <c r="E11" t="n">
-        <v>2.408502831277606</v>
+        <v>2.53590204641732</v>
       </c>
       <c r="F11" t="n">
-        <v>2.530906684257898</v>
+        <v>2.706854231771588</v>
       </c>
       <c r="G11" t="n">
-        <v>2.551749876513958</v>
+        <v>2.721689995433946</v>
       </c>
       <c r="H11" t="n">
-        <v>2.753573218860855</v>
+        <v>2.942540813318529</v>
       </c>
       <c r="I11" t="n">
-        <v>2.759930834869222</v>
+        <v>3.042021268514251</v>
       </c>
       <c r="J11" t="n">
-        <v>2.965955615804228</v>
+        <v>3.096111248808929</v>
       </c>
       <c r="K11" t="n">
-        <v>2.929810080733653</v>
+        <v>3.177739593978131</v>
       </c>
       <c r="L11" t="n">
-        <v>2.92693014239791</v>
+        <v>3.152943558308793</v>
       </c>
       <c r="M11" t="n">
-        <v>2.929455968729385</v>
+        <v>3.164234359827862</v>
       </c>
       <c r="N11" t="n">
-        <v>3.243407010640839</v>
+        <v>3.405971434430382</v>
       </c>
       <c r="O11" t="n">
-        <v>3.235044917845368</v>
+        <v>3.333234622427639</v>
       </c>
       <c r="P11" t="n">
-        <v>3.506716151715307</v>
+        <v>3.729219623764012</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.555808461874264</v>
+        <v>3.741049109934192</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.447848753389797</v>
+        <v>2.55079660510001</v>
       </c>
       <c r="B12" t="n">
-        <v>2.414408150661387</v>
+        <v>2.52327298393089</v>
       </c>
       <c r="C12" t="n">
-        <v>2.419456998049471</v>
+        <v>2.515972152736517</v>
       </c>
       <c r="D12" t="n">
-        <v>2.390697751701669</v>
+        <v>2.519797065481201</v>
       </c>
       <c r="E12" t="n">
-        <v>2.407892576099015</v>
+        <v>2.54172221402628</v>
       </c>
       <c r="F12" t="n">
-        <v>2.537504690743262</v>
+        <v>2.702920359447942</v>
       </c>
       <c r="G12" t="n">
-        <v>2.553376720145995</v>
+        <v>2.721707436158632</v>
       </c>
       <c r="H12" t="n">
-        <v>2.760850101863846</v>
+        <v>2.935831168750608</v>
       </c>
       <c r="I12" t="n">
-        <v>2.753490139566741</v>
+        <v>3.040668084040199</v>
       </c>
       <c r="J12" t="n">
-        <v>2.969230450524986</v>
+        <v>3.054575713467233</v>
       </c>
       <c r="K12" t="n">
-        <v>2.910417431373806</v>
+        <v>3.149358680280141</v>
       </c>
       <c r="L12" t="n">
-        <v>2.936145254543089</v>
+        <v>3.140740804670087</v>
       </c>
       <c r="M12" t="n">
-        <v>2.933875787176312</v>
+        <v>3.152488301454116</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25065195666843</v>
+        <v>3.41361298906062</v>
       </c>
       <c r="O12" t="n">
-        <v>3.249125887141203</v>
+        <v>3.332797345701504</v>
       </c>
       <c r="P12" t="n">
-        <v>3.501054891244888</v>
+        <v>3.729697895183222</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.595159994536188</v>
+        <v>3.730195585141258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.453156549227071</v>
+        <v>2.563910591653211</v>
       </c>
       <c r="B13" t="n">
-        <v>2.421977645411962</v>
+        <v>2.53577924213938</v>
       </c>
       <c r="C13" t="n">
-        <v>2.426182536646061</v>
+        <v>2.529881400375119</v>
       </c>
       <c r="D13" t="n">
-        <v>2.415374028376866</v>
+        <v>2.533817250512906</v>
       </c>
       <c r="E13" t="n">
-        <v>2.424716241052522</v>
+        <v>2.551401816226724</v>
       </c>
       <c r="F13" t="n">
-        <v>2.54562962991735</v>
+        <v>2.712504127563258</v>
       </c>
       <c r="G13" t="n">
-        <v>2.560339843944717</v>
+        <v>2.724032626381649</v>
       </c>
       <c r="H13" t="n">
-        <v>2.744542175904976</v>
+        <v>2.931795888501986</v>
       </c>
       <c r="I13" t="n">
-        <v>2.74659196867069</v>
+        <v>3.017991905525932</v>
       </c>
       <c r="J13" t="n">
-        <v>2.966604065879075</v>
+        <v>2.984919976291402</v>
       </c>
       <c r="K13" t="n">
-        <v>2.908019137153557</v>
+        <v>3.06688634787719</v>
       </c>
       <c r="L13" t="n">
-        <v>2.942242411569644</v>
+        <v>3.150378153568458</v>
       </c>
       <c r="M13" t="n">
-        <v>2.945097102431591</v>
+        <v>3.156322384064356</v>
       </c>
       <c r="N13" t="n">
-        <v>3.252206078944319</v>
+        <v>3.436831088649136</v>
       </c>
       <c r="O13" t="n">
-        <v>3.246447712805454</v>
+        <v>3.34474154509178</v>
       </c>
       <c r="P13" t="n">
-        <v>3.545669982717349</v>
+        <v>3.743363871682655</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.546727139761168</v>
+        <v>3.728562270264526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.454281680238802</v>
+        <v>2.545261782131007</v>
       </c>
       <c r="B14" t="n">
-        <v>2.423491846468601</v>
+        <v>2.517432318975392</v>
       </c>
       <c r="C14" t="n">
-        <v>2.426786102323048</v>
+        <v>2.510278385431205</v>
       </c>
       <c r="D14" t="n">
-        <v>2.417515316261293</v>
+        <v>2.520023075696971</v>
       </c>
       <c r="E14" t="n">
-        <v>2.424687325142362</v>
+        <v>2.541001031070471</v>
       </c>
       <c r="F14" t="n">
-        <v>2.552463279491477</v>
+        <v>2.710661344189016</v>
       </c>
       <c r="G14" t="n">
-        <v>2.562520837258021</v>
+        <v>2.708236364252592</v>
       </c>
       <c r="H14" t="n">
-        <v>2.754323306202009</v>
+        <v>2.93566593136931</v>
       </c>
       <c r="I14" t="n">
-        <v>2.747371187712378</v>
+        <v>2.990151114889335</v>
       </c>
       <c r="J14" t="n">
-        <v>2.978338530644499</v>
+        <v>2.90615622520147</v>
       </c>
       <c r="K14" t="n">
-        <v>2.909905360815532</v>
+        <v>2.983950847363003</v>
       </c>
       <c r="L14" t="n">
-        <v>2.949379030829324</v>
+        <v>3.15340348999689</v>
       </c>
       <c r="M14" t="n">
-        <v>2.950245213391864</v>
+        <v>3.152048867112556</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2503975398171</v>
+        <v>3.445427747707511</v>
       </c>
       <c r="O14" t="n">
-        <v>3.246721766580847</v>
+        <v>3.324739371294239</v>
       </c>
       <c r="P14" t="n">
-        <v>3.540439655624458</v>
+        <v>3.720841603068704</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.542888660582673</v>
+        <v>3.724590819472227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.446469205526737</v>
+        <v>2.55599214304343</v>
       </c>
       <c r="B15" t="n">
-        <v>2.414839299829288</v>
+        <v>2.526720853380053</v>
       </c>
       <c r="C15" t="n">
-        <v>2.416918224295536</v>
+        <v>2.516404754629231</v>
       </c>
       <c r="D15" t="n">
-        <v>2.397843649947444</v>
+        <v>2.507931259451367</v>
       </c>
       <c r="E15" t="n">
-        <v>2.406940508967493</v>
+        <v>2.535513675640818</v>
       </c>
       <c r="F15" t="n">
-        <v>2.54905228104452</v>
+        <v>2.682380400005718</v>
       </c>
       <c r="G15" t="n">
-        <v>2.55292097087542</v>
+        <v>2.697051106088062</v>
       </c>
       <c r="H15" t="n">
-        <v>2.762389118813533</v>
+        <v>2.891164214222084</v>
       </c>
       <c r="I15" t="n">
-        <v>2.74378949907933</v>
+        <v>3.013143384063367</v>
       </c>
       <c r="J15" t="n">
-        <v>2.979937968898997</v>
+        <v>2.884563888835697</v>
       </c>
       <c r="K15" t="n">
-        <v>2.901459109774074</v>
+        <v>3.145263166600905</v>
       </c>
       <c r="L15" t="n">
-        <v>2.938548511941947</v>
+        <v>3.144623433627389</v>
       </c>
       <c r="M15" t="n">
-        <v>2.935995064442559</v>
+        <v>3.147438042949313</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25260227007158</v>
+        <v>3.45043305589096</v>
       </c>
       <c r="O15" t="n">
-        <v>3.238429589866657</v>
+        <v>3.330755522304305</v>
       </c>
       <c r="P15" t="n">
-        <v>3.518593469708534</v>
+        <v>3.728136141218087</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.542753360017971</v>
+        <v>3.724670291640382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.44433244924017</v>
+        <v>2.548783549908477</v>
       </c>
       <c r="B16" t="n">
-        <v>2.413276977519175</v>
+        <v>2.522120457691364</v>
       </c>
       <c r="C16" t="n">
-        <v>2.414058354464606</v>
+        <v>2.513271357628263</v>
       </c>
       <c r="D16" t="n">
-        <v>2.399681104984822</v>
+        <v>2.514022567398737</v>
       </c>
       <c r="E16" t="n">
-        <v>2.406261632449866</v>
+        <v>2.539637777724437</v>
       </c>
       <c r="F16" t="n">
-        <v>2.551397922413434</v>
+        <v>2.699856185941859</v>
       </c>
       <c r="G16" t="n">
-        <v>2.551943656270102</v>
+        <v>2.705258135760938</v>
       </c>
       <c r="H16" t="n">
-        <v>2.764796692019878</v>
+        <v>2.993300154602135</v>
       </c>
       <c r="I16" t="n">
-        <v>2.749450543759375</v>
+        <v>2.917457994598949</v>
       </c>
       <c r="J16" t="n">
-        <v>2.966610755380679</v>
+        <v>2.931827713329505</v>
       </c>
       <c r="K16" t="n">
-        <v>2.914422069140531</v>
+        <v>3.064557202025893</v>
       </c>
       <c r="L16" t="n">
-        <v>2.939968628395381</v>
+        <v>3.138922294469376</v>
       </c>
       <c r="M16" t="n">
-        <v>2.935822432143099</v>
+        <v>3.136089345416339</v>
       </c>
       <c r="N16" t="n">
-        <v>3.252968682127184</v>
+        <v>3.457859208581268</v>
       </c>
       <c r="O16" t="n">
-        <v>3.24121824887406</v>
+        <v>3.353634516668523</v>
       </c>
       <c r="P16" t="n">
-        <v>3.522113226504151</v>
+        <v>3.734336768346991</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.544166571179426</v>
+        <v>3.736161751393977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.439044937698082</v>
+        <v>2.520396882569353</v>
       </c>
       <c r="B17" t="n">
-        <v>2.40964803079415</v>
+        <v>2.491222685600102</v>
       </c>
       <c r="C17" t="n">
-        <v>2.411156405510682</v>
+        <v>2.485095597196934</v>
       </c>
       <c r="D17" t="n">
-        <v>2.412549763957699</v>
+        <v>2.480808415347442</v>
       </c>
       <c r="E17" t="n">
-        <v>2.415361728325529</v>
+        <v>2.500336093552766</v>
       </c>
       <c r="F17" t="n">
-        <v>2.556115747367303</v>
+        <v>2.666443713072749</v>
       </c>
       <c r="G17" t="n">
-        <v>2.561468859183186</v>
+        <v>2.655986470312875</v>
       </c>
       <c r="H17" t="n">
-        <v>2.752578856815965</v>
+        <v>2.965427179535449</v>
       </c>
       <c r="I17" t="n">
-        <v>2.741891191156392</v>
+        <v>2.9597042844219</v>
       </c>
       <c r="J17" t="n">
-        <v>2.976821740103368</v>
+        <v>3.126614896482557</v>
       </c>
       <c r="K17" t="n">
-        <v>2.898412797059727</v>
+        <v>3.107176219913514</v>
       </c>
       <c r="L17" t="n">
-        <v>2.954403709695483</v>
+        <v>3.128806674151794</v>
       </c>
       <c r="M17" t="n">
-        <v>2.954230861605649</v>
+        <v>3.128660315905464</v>
       </c>
       <c r="N17" t="n">
-        <v>3.260919262678817</v>
+        <v>3.429379044573728</v>
       </c>
       <c r="O17" t="n">
-        <v>3.257804112835061</v>
+        <v>3.36043568009072</v>
       </c>
       <c r="P17" t="n">
-        <v>3.546995582986828</v>
+        <v>3.715583494277959</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.550093901181388</v>
+        <v>3.763551960009317</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.439343807366522</v>
+        <v>2.546515356692936</v>
       </c>
       <c r="B18" t="n">
-        <v>2.408571021035893</v>
+        <v>2.513884120408965</v>
       </c>
       <c r="C18" t="n">
-        <v>2.409460508958861</v>
+        <v>2.504885245875111</v>
       </c>
       <c r="D18" t="n">
-        <v>2.406448722704406</v>
+        <v>2.465254165748556</v>
       </c>
       <c r="E18" t="n">
-        <v>2.408468952188837</v>
+        <v>2.494569686528146</v>
       </c>
       <c r="F18" t="n">
-        <v>2.551146526627345</v>
+        <v>2.623473183672137</v>
       </c>
       <c r="G18" t="n">
-        <v>2.554560761929917</v>
+        <v>2.633749006935025</v>
       </c>
       <c r="H18" t="n">
-        <v>2.75114018239034</v>
+        <v>2.890567094153213</v>
       </c>
       <c r="I18" t="n">
-        <v>2.743472071438698</v>
+        <v>2.970897813445558</v>
       </c>
       <c r="J18" t="n">
-        <v>2.956809340788459</v>
+        <v>3.087382975209628</v>
       </c>
       <c r="K18" t="n">
-        <v>2.920707395373498</v>
+        <v>3.162721871414931</v>
       </c>
       <c r="L18" t="n">
-        <v>2.945930484857234</v>
+        <v>3.073876302649075</v>
       </c>
       <c r="M18" t="n">
-        <v>2.944261993682952</v>
+        <v>3.091369529309902</v>
       </c>
       <c r="N18" t="n">
-        <v>3.257595443543088</v>
+        <v>3.430739421099195</v>
       </c>
       <c r="O18" t="n">
-        <v>3.259157550062827</v>
+        <v>3.362293386971653</v>
       </c>
       <c r="P18" t="n">
-        <v>3.542145694323871</v>
+        <v>3.603425610050029</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.549129533998529</v>
+        <v>3.780734490048943</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.430265074737917</v>
+        <v>2.463913207761914</v>
       </c>
       <c r="B19" t="n">
-        <v>2.398383341673631</v>
+        <v>2.429378415269229</v>
       </c>
       <c r="C19" t="n">
-        <v>2.401061947590128</v>
+        <v>2.435595584116391</v>
       </c>
       <c r="D19" t="n">
-        <v>2.39641403871754</v>
+        <v>2.429069696462167</v>
       </c>
       <c r="E19" t="n">
-        <v>2.403002118845686</v>
+        <v>2.452431637079016</v>
       </c>
       <c r="F19" t="n">
-        <v>2.542762639004067</v>
+        <v>2.616224674651821</v>
       </c>
       <c r="G19" t="n">
-        <v>2.54996831118353</v>
+        <v>2.645525271924722</v>
       </c>
       <c r="H19" t="n">
-        <v>2.742404772247286</v>
+        <v>2.879285282698414</v>
       </c>
       <c r="I19" t="n">
-        <v>2.756071424024417</v>
+        <v>2.969658083582605</v>
       </c>
       <c r="J19" t="n">
-        <v>2.883534266540386</v>
+        <v>3.055281253711211</v>
       </c>
       <c r="K19" t="n">
-        <v>2.935132766106755</v>
+        <v>3.169052315071906</v>
       </c>
       <c r="L19" t="n">
-        <v>2.93459566386506</v>
+        <v>3.066017548066053</v>
       </c>
       <c r="M19" t="n">
-        <v>2.934552074209447</v>
+        <v>3.099512010321313</v>
       </c>
       <c r="N19" t="n">
-        <v>3.245773152095314</v>
+        <v>3.314213444443336</v>
       </c>
       <c r="O19" t="n">
-        <v>3.250275834045981</v>
+        <v>3.321145862803888</v>
       </c>
       <c r="P19" t="n">
-        <v>3.540397576501464</v>
+        <v>3.48811041525017</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.550666824625221</v>
+        <v>3.762386488077242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.435537265163428</v>
+        <v>2.499361930188375</v>
       </c>
       <c r="B20" t="n">
-        <v>2.404810010601781</v>
+        <v>2.463498765799026</v>
       </c>
       <c r="C20" t="n">
-        <v>2.406084252762171</v>
+        <v>2.472308309579336</v>
       </c>
       <c r="D20" t="n">
-        <v>2.406327880094784</v>
+        <v>2.443318768530208</v>
       </c>
       <c r="E20" t="n">
-        <v>2.40998034797061</v>
+        <v>2.474356965425382</v>
       </c>
       <c r="F20" t="n">
-        <v>2.549938747902248</v>
+        <v>2.587350386226646</v>
       </c>
       <c r="G20" t="n">
-        <v>2.558350040903065</v>
+        <v>2.627913016812948</v>
       </c>
       <c r="H20" t="n">
-        <v>2.743875599438686</v>
+        <v>2.83096512565278</v>
       </c>
       <c r="I20" t="n">
-        <v>2.757472335134536</v>
+        <v>2.920461934674417</v>
       </c>
       <c r="J20" t="n">
-        <v>2.884336359361753</v>
+        <v>3.004549961428129</v>
       </c>
       <c r="K20" t="n">
-        <v>2.922616061234403</v>
+        <v>3.09006776800348</v>
       </c>
       <c r="L20" t="n">
-        <v>2.945744041973817</v>
+        <v>3.051221340686487</v>
       </c>
       <c r="M20" t="n">
-        <v>2.944503678902197</v>
+        <v>3.089489527069578</v>
       </c>
       <c r="N20" t="n">
-        <v>3.260098180304511</v>
+        <v>3.287374866171656</v>
       </c>
       <c r="O20" t="n">
-        <v>3.256708113523863</v>
+        <v>3.327206964135307</v>
       </c>
       <c r="P20" t="n">
-        <v>3.543984875684244</v>
+        <v>3.453490037345626</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.550954257403822</v>
+        <v>3.747963907768773</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.44222201937927</v>
+        <v>2.547960959027692</v>
       </c>
       <c r="B21" t="n">
-        <v>2.412065746148088</v>
+        <v>2.511828991716645</v>
       </c>
       <c r="C21" t="n">
-        <v>2.414093528295621</v>
+        <v>2.522451471857817</v>
       </c>
       <c r="D21" t="n">
-        <v>2.420450928513612</v>
+        <v>2.482955782099182</v>
       </c>
       <c r="E21" t="n">
-        <v>2.425341385766941</v>
+        <v>2.515252767793562</v>
       </c>
       <c r="F21" t="n">
-        <v>2.552320857844423</v>
+        <v>2.609750929370369</v>
       </c>
       <c r="G21" t="n">
-        <v>2.565568660504988</v>
+        <v>2.659258134502329</v>
       </c>
       <c r="H21" t="n">
-        <v>2.68416273442657</v>
+        <v>2.862341169163253</v>
       </c>
       <c r="I21" t="n">
-        <v>2.719360949753859</v>
+        <v>2.984160675463085</v>
       </c>
       <c r="J21" t="n">
-        <v>2.736940744179001</v>
+        <v>3.039662635252146</v>
       </c>
       <c r="K21" t="n">
-        <v>2.835284186212419</v>
+        <v>3.163081833588337</v>
       </c>
       <c r="L21" t="n">
-        <v>2.931423329572107</v>
+        <v>3.090829046645937</v>
       </c>
       <c r="M21" t="n">
-        <v>2.93303852052393</v>
+        <v>3.121456038001361</v>
       </c>
       <c r="N21" t="n">
-        <v>3.254841095205203</v>
+        <v>3.363142049038823</v>
       </c>
       <c r="O21" t="n">
-        <v>3.251141153447024</v>
+        <v>3.34416438296559</v>
       </c>
       <c r="P21" t="n">
-        <v>3.551557607290435</v>
+        <v>3.683870143556043</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.551975809035877</v>
+        <v>3.733118075234432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.105713762268492</v>
+        <v>2.587767345407529</v>
       </c>
       <c r="B22" t="n">
-        <v>3.064728049101805</v>
+        <v>2.553628475345333</v>
       </c>
       <c r="C22" t="n">
-        <v>3.072531676408523</v>
+        <v>2.560122178569467</v>
       </c>
       <c r="D22" t="n">
-        <v>3.035612532845992</v>
+        <v>2.529391981276214</v>
       </c>
       <c r="E22" t="n">
-        <v>3.065670189876108</v>
+        <v>2.554428231462869</v>
       </c>
       <c r="F22" t="n">
-        <v>3.186861300952693</v>
+        <v>2.655399419115987</v>
       </c>
       <c r="G22" t="n">
-        <v>3.219328257512148</v>
+        <v>2.682451781116028</v>
       </c>
       <c r="H22" t="n">
-        <v>3.449818272136262</v>
+        <v>2.874470563877508</v>
       </c>
       <c r="I22" t="n">
-        <v>3.570591828838528</v>
+        <v>2.974989551297801</v>
       </c>
       <c r="J22" t="n">
-        <v>3.589052047990916</v>
+        <v>2.990378383714103</v>
       </c>
       <c r="K22" t="n">
-        <v>3.713278898053506</v>
+        <v>3.093818422817287</v>
       </c>
       <c r="L22" t="n">
-        <v>3.759254332045712</v>
+        <v>3.132282232998912</v>
       </c>
       <c r="M22" t="n">
-        <v>3.768538928691423</v>
+        <v>3.140011890259005</v>
       </c>
       <c r="N22" t="n">
-        <v>4.103479252942356</v>
+        <v>3.419122100445808</v>
       </c>
       <c r="O22" t="n">
-        <v>4.010416201368672</v>
+        <v>3.341577402071005</v>
       </c>
       <c r="P22" t="n">
-        <v>4.475132856738712</v>
+        <v>3.728768322537614</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.46604031352615</v>
+        <v>3.721191136767556</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.159009453128928</v>
+        <v>2.632071820544652</v>
       </c>
       <c r="B23" t="n">
-        <v>3.128993443641057</v>
+        <v>2.607065057768804</v>
       </c>
       <c r="C23" t="n">
-        <v>3.112056920321778</v>
+        <v>2.592949398254543</v>
       </c>
       <c r="D23" t="n">
-        <v>3.063776413551031</v>
+        <v>2.552722816270686</v>
       </c>
       <c r="E23" t="n">
-        <v>3.115838646631825</v>
+        <v>2.596124509153729</v>
       </c>
       <c r="F23" t="n">
-        <v>3.217942667518607</v>
+        <v>2.681195689336103</v>
       </c>
       <c r="G23" t="n">
-        <v>3.275672634781049</v>
+        <v>2.729379736808677</v>
       </c>
       <c r="H23" t="n">
-        <v>3.44225093528943</v>
+        <v>2.867982973897079</v>
       </c>
       <c r="I23" t="n">
-        <v>3.650207687445769</v>
+        <v>3.041458850093465</v>
       </c>
       <c r="J23" t="n">
-        <v>3.622849352208086</v>
+        <v>3.018440329931763</v>
       </c>
       <c r="K23" t="n">
-        <v>3.855957335653511</v>
+        <v>3.212886070443806</v>
       </c>
       <c r="L23" t="n">
-        <v>3.789235383492943</v>
+        <v>3.157295468621035</v>
       </c>
       <c r="M23" t="n">
-        <v>3.814005097400222</v>
+        <v>3.177948882674357</v>
       </c>
       <c r="N23" t="n">
-        <v>4.179507380786069</v>
+        <v>3.482418266156427</v>
       </c>
       <c r="O23" t="n">
-        <v>4.065591642179854</v>
+        <v>3.387455498058101</v>
       </c>
       <c r="P23" t="n">
-        <v>4.488331890774681</v>
+        <v>3.739713905588682</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.56428751305262</v>
+        <v>3.802977347465355</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.108320725780713</v>
+        <v>2.589787233047908</v>
       </c>
       <c r="B24" t="n">
-        <v>3.076954947501439</v>
+        <v>2.563645204955935</v>
       </c>
       <c r="C24" t="n">
-        <v>3.060568042265566</v>
+        <v>2.55000008540561</v>
       </c>
       <c r="D24" t="n">
-        <v>3.040506011164562</v>
+        <v>2.533354442004241</v>
       </c>
       <c r="E24" t="n">
-        <v>3.087608734072243</v>
+        <v>2.57258204804632</v>
       </c>
       <c r="F24" t="n">
-        <v>3.257019930614763</v>
+        <v>2.713884641832693</v>
       </c>
       <c r="G24" t="n">
-        <v>3.291437416367743</v>
+        <v>2.742554316395063</v>
       </c>
       <c r="H24" t="n">
-        <v>3.517037189528902</v>
+        <v>2.930605424191238</v>
       </c>
       <c r="I24" t="n">
-        <v>3.701680597014281</v>
+        <v>3.084479903655279</v>
       </c>
       <c r="J24" t="n">
-        <v>3.765355157508631</v>
+        <v>3.137311994157177</v>
       </c>
       <c r="K24" t="n">
-        <v>3.908948546295775</v>
+        <v>3.257019734359783</v>
       </c>
       <c r="L24" t="n">
-        <v>3.832370584578282</v>
+        <v>3.193425098515372</v>
       </c>
       <c r="M24" t="n">
-        <v>3.849492687619481</v>
+        <v>3.207680823230973</v>
       </c>
       <c r="N24" t="n">
-        <v>4.195233751686132</v>
+        <v>3.495692275853649</v>
       </c>
       <c r="O24" t="n">
-        <v>4.064755670269719</v>
+        <v>3.386973990215754</v>
       </c>
       <c r="P24" t="n">
-        <v>4.406468359628469</v>
+        <v>3.671714497854117</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.579259912384792</v>
+        <v>3.815596880483658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.092082068532002</v>
+        <v>2.57648517435016</v>
       </c>
       <c r="B25" t="n">
-        <v>3.058559249670973</v>
+        <v>2.54856293373127</v>
       </c>
       <c r="C25" t="n">
-        <v>3.049268826685156</v>
+        <v>2.540816914554204</v>
       </c>
       <c r="D25" t="n">
-        <v>3.045405963194362</v>
+        <v>2.537619688096912</v>
       </c>
       <c r="E25" t="n">
-        <v>3.07746442857522</v>
+        <v>2.564342654142069</v>
       </c>
       <c r="F25" t="n">
-        <v>3.26408857590653</v>
+        <v>2.719856921329116</v>
       </c>
       <c r="G25" t="n">
-        <v>3.283002818006498</v>
+        <v>2.735602299694401</v>
       </c>
       <c r="H25" t="n">
-        <v>3.533960765425721</v>
+        <v>2.944687640666412</v>
       </c>
       <c r="I25" t="n">
-        <v>3.667469191068782</v>
+        <v>3.05584511054228</v>
       </c>
       <c r="J25" t="n">
-        <v>3.770210440930946</v>
+        <v>3.14152186145394</v>
       </c>
       <c r="K25" t="n">
-        <v>3.88304204869655</v>
+        <v>3.235499318508178</v>
       </c>
       <c r="L25" t="n">
-        <v>3.83080783068742</v>
+        <v>3.192005747168287</v>
       </c>
       <c r="M25" t="n">
-        <v>3.848323966952136</v>
+        <v>3.206574685723086</v>
       </c>
       <c r="N25" t="n">
-        <v>4.128302914443217</v>
+        <v>3.439932660822585</v>
       </c>
       <c r="O25" t="n">
-        <v>4.06439400560235</v>
+        <v>3.386624456516902</v>
       </c>
       <c r="P25" t="n">
-        <v>4.331630099908786</v>
+        <v>3.60934970280196</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.572805622288729</v>
+        <v>3.810147463125229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.093195762653894</v>
+        <v>2.577443155598864</v>
       </c>
       <c r="B26" t="n">
-        <v>3.058959325024972</v>
+        <v>2.548935122392083</v>
       </c>
       <c r="C26" t="n">
-        <v>3.050392662954641</v>
+        <v>2.54179557295073</v>
       </c>
       <c r="D26" t="n">
-        <v>3.04727880785313</v>
+        <v>2.539196725171308</v>
       </c>
       <c r="E26" t="n">
-        <v>3.079424020964467</v>
+        <v>2.566005636230894</v>
       </c>
       <c r="F26" t="n">
-        <v>3.243597337750994</v>
+        <v>2.702688415789753</v>
       </c>
       <c r="G26" t="n">
-        <v>3.31378272541948</v>
+        <v>2.761225241475374</v>
       </c>
       <c r="H26" t="n">
-        <v>3.504514658316442</v>
+        <v>2.919982944050065</v>
       </c>
       <c r="I26" t="n">
-        <v>3.712588800436414</v>
+        <v>3.09340631827111</v>
       </c>
       <c r="J26" t="n">
-        <v>3.768045200314968</v>
+        <v>3.139556633404328</v>
       </c>
       <c r="K26" t="n">
-        <v>3.948408405725609</v>
+        <v>3.289900355026628</v>
       </c>
       <c r="L26" t="n">
-        <v>3.835409776210276</v>
+        <v>3.19570749603246</v>
       </c>
       <c r="M26" t="n">
-        <v>3.892638678223536</v>
+        <v>3.243419565130813</v>
       </c>
       <c r="N26" t="n">
-        <v>3.988757321497663</v>
+        <v>3.32339985171788</v>
       </c>
       <c r="O26" t="n">
-        <v>4.099374488441944</v>
+        <v>3.415650137624399</v>
       </c>
       <c r="P26" t="n">
-        <v>4.206978790179898</v>
+        <v>3.505154857902595</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.569478997878133</v>
+        <v>3.807234322698896</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.108842506905832</v>
+        <v>2.590350370673835</v>
       </c>
       <c r="B27" t="n">
-        <v>3.07700242138379</v>
+        <v>2.563813139356514</v>
       </c>
       <c r="C27" t="n">
-        <v>3.066426750928492</v>
+        <v>2.55500341577492</v>
       </c>
       <c r="D27" t="n">
-        <v>3.044218684554826</v>
+        <v>2.536512651582597</v>
       </c>
       <c r="E27" t="n">
-        <v>3.082833724669177</v>
+        <v>2.568685394588754</v>
       </c>
       <c r="F27" t="n">
-        <v>3.213924650748674</v>
+        <v>2.677923665544077</v>
       </c>
       <c r="G27" t="n">
-        <v>3.295824218887398</v>
+        <v>2.746190977193915</v>
       </c>
       <c r="H27" t="n">
-        <v>3.522167821468855</v>
+        <v>2.934777713019348</v>
       </c>
       <c r="I27" t="n">
-        <v>3.671291270178828</v>
+        <v>3.059046292627851</v>
       </c>
       <c r="J27" t="n">
-        <v>3.794995691745177</v>
+        <v>3.162047256992045</v>
       </c>
       <c r="K27" t="n">
-        <v>3.866907402408264</v>
+        <v>3.222084704205759</v>
       </c>
       <c r="L27" t="n">
-        <v>3.78672962566628</v>
+        <v>3.155218044569323</v>
       </c>
       <c r="M27" t="n">
-        <v>3.855363480543369</v>
+        <v>3.212410316242592</v>
       </c>
       <c r="N27" t="n">
-        <v>3.940914869186796</v>
+        <v>3.283657294794366</v>
       </c>
       <c r="O27" t="n">
-        <v>4.064426374158498</v>
+        <v>3.386555772425873</v>
       </c>
       <c r="P27" t="n">
-        <v>4.228581996134332</v>
+        <v>3.523461505578649</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.492045643116816</v>
+        <v>3.742819073787841</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.121595070657321</v>
+        <v>2.601174228254675</v>
       </c>
       <c r="B28" t="n">
-        <v>3.089857053982336</v>
+        <v>2.574729234996774</v>
       </c>
       <c r="C28" t="n">
-        <v>3.079351083817945</v>
+        <v>2.565975070012373</v>
       </c>
       <c r="D28" t="n">
-        <v>3.040400489671518</v>
+        <v>2.533527590642098</v>
       </c>
       <c r="E28" t="n">
-        <v>3.079591258504569</v>
+        <v>2.566181122285461</v>
       </c>
       <c r="F28" t="n">
-        <v>3.198092542565191</v>
+        <v>2.664890769370599</v>
       </c>
       <c r="G28" t="n">
-        <v>3.262665869968605</v>
+        <v>2.718659085165666</v>
       </c>
       <c r="H28" t="n">
-        <v>3.48480393394484</v>
+        <v>2.903726930034196</v>
       </c>
       <c r="I28" t="n">
-        <v>3.623202385260482</v>
+        <v>3.018962113262044</v>
       </c>
       <c r="J28" t="n">
-        <v>3.656065532947198</v>
+        <v>3.046346927838822</v>
       </c>
       <c r="K28" t="n">
-        <v>3.771757657914856</v>
+        <v>3.142688412193728</v>
       </c>
       <c r="L28" t="n">
-        <v>3.793237431775176</v>
+        <v>3.160700185761698</v>
       </c>
       <c r="M28" t="n">
-        <v>3.831790971632845</v>
+        <v>3.192806222490965</v>
       </c>
       <c r="N28" t="n">
-        <v>4.05509300888819</v>
+        <v>3.378804179408959</v>
       </c>
       <c r="O28" t="n">
-        <v>4.011278499704475</v>
+        <v>3.342291572776683</v>
       </c>
       <c r="P28" t="n">
-        <v>4.443880368405958</v>
+        <v>3.702689584498108</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.452049328816409</v>
+        <v>3.70950117639486</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.147795474746376</v>
+        <v>2.622795153024828</v>
       </c>
       <c r="B29" t="n">
-        <v>3.113299657087516</v>
+        <v>2.594053557948291</v>
       </c>
       <c r="C29" t="n">
-        <v>3.10041006644833</v>
+        <v>2.583310251343318</v>
       </c>
       <c r="D29" t="n">
-        <v>3.03376838830701</v>
+        <v>2.527793547848853</v>
       </c>
       <c r="E29" t="n">
-        <v>3.080080023702415</v>
+        <v>2.566391309988114</v>
       </c>
       <c r="F29" t="n">
-        <v>3.176111056084566</v>
+        <v>2.646384362466446</v>
       </c>
       <c r="G29" t="n">
-        <v>3.22660319840177</v>
+        <v>2.688494902318906</v>
       </c>
       <c r="H29" t="n">
-        <v>3.440486848979322</v>
+        <v>2.866669345705819</v>
       </c>
       <c r="I29" t="n">
-        <v>3.584254596388921</v>
+        <v>2.986558865007982</v>
       </c>
       <c r="J29" t="n">
-        <v>3.531057305939177</v>
+        <v>2.942107851823244</v>
       </c>
       <c r="K29" t="n">
-        <v>3.626784505474278</v>
+        <v>3.022015498691002</v>
       </c>
       <c r="L29" t="n">
-        <v>3.802537996908587</v>
+        <v>3.16840359203412</v>
       </c>
       <c r="M29" t="n">
-        <v>3.828878233160205</v>
+        <v>3.190372432291556</v>
       </c>
       <c r="N29" t="n">
-        <v>4.114578215055392</v>
+        <v>3.428370359362536</v>
       </c>
       <c r="O29" t="n">
-        <v>3.976781387303369</v>
+        <v>3.31354782008472</v>
       </c>
       <c r="P29" t="n">
-        <v>4.48020781476209</v>
+        <v>3.733029253399435</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.416333432381115</v>
+        <v>3.679837919929273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.156105346271261</v>
+        <v>2.629641806172236</v>
       </c>
       <c r="B30" t="n">
-        <v>3.124894073900003</v>
+        <v>2.603630134012191</v>
       </c>
       <c r="C30" t="n">
-        <v>3.112311768753856</v>
+        <v>2.593144482649221</v>
       </c>
       <c r="D30" t="n">
-        <v>3.07079974286419</v>
+        <v>2.558562941822327</v>
       </c>
       <c r="E30" t="n">
-        <v>3.106821630050277</v>
+        <v>2.588575911788051</v>
       </c>
       <c r="F30" t="n">
-        <v>3.236692045772591</v>
+        <v>2.696853144872818</v>
       </c>
       <c r="G30" t="n">
-        <v>3.266535854541751</v>
+        <v>2.721703480530353</v>
       </c>
       <c r="H30" t="n">
-        <v>3.472836847155893</v>
+        <v>2.8936891636732</v>
       </c>
       <c r="I30" t="n">
-        <v>3.645907416866219</v>
+        <v>3.037862824385118</v>
       </c>
       <c r="J30" t="n">
-        <v>3.536516586619227</v>
+        <v>2.946623561106501</v>
       </c>
       <c r="K30" t="n">
-        <v>3.689896284672388</v>
+        <v>3.074384780684236</v>
       </c>
       <c r="L30" t="n">
-        <v>3.82409329739992</v>
+        <v>3.186322947741386</v>
       </c>
       <c r="M30" t="n">
-        <v>3.835412365694769</v>
+        <v>3.195748850328106</v>
       </c>
       <c r="N30" t="n">
-        <v>4.148112039225511</v>
+        <v>3.456169076498345</v>
       </c>
       <c r="O30" t="n">
-        <v>3.968820017233019</v>
+        <v>3.306754567919081</v>
       </c>
       <c r="P30" t="n">
-        <v>4.459949414420451</v>
+        <v>3.715964673003044</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.392217563308041</v>
+        <v>3.659511025010269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.11804165056331</v>
+        <v>2.598069959061944</v>
       </c>
       <c r="B31" t="n">
-        <v>3.086637893178154</v>
+        <v>2.571909591238859</v>
       </c>
       <c r="C31" t="n">
-        <v>3.068724271043931</v>
+        <v>2.55698518554279</v>
       </c>
       <c r="D31" t="n">
-        <v>3.044618759908824</v>
+        <v>2.536909832622084</v>
       </c>
       <c r="E31" t="n">
-        <v>3.093426874144796</v>
+        <v>2.577585558216914</v>
       </c>
       <c r="F31" t="n">
-        <v>3.241994015269758</v>
+        <v>2.70129567503291</v>
       </c>
       <c r="G31" t="n">
-        <v>3.276060625874086</v>
+        <v>2.729724775475392</v>
       </c>
       <c r="H31" t="n">
-        <v>3.441970623593182</v>
+        <v>2.867813960688786</v>
       </c>
       <c r="I31" t="n">
-        <v>3.640251982735907</v>
+        <v>3.033203094272241</v>
       </c>
       <c r="J31" t="n">
-        <v>3.608195675258792</v>
+        <v>3.006360919974853</v>
       </c>
       <c r="K31" t="n">
-        <v>3.781380182286761</v>
+        <v>3.150738115741863</v>
       </c>
       <c r="L31" t="n">
-        <v>3.825137291230905</v>
+        <v>3.187197501193656</v>
       </c>
       <c r="M31" t="n">
-        <v>3.835533639885139</v>
+        <v>3.195883701292169</v>
       </c>
       <c r="N31" t="n">
-        <v>4.179374453915484</v>
+        <v>3.482302114526047</v>
       </c>
       <c r="O31" t="n">
-        <v>3.995751087529539</v>
+        <v>3.329346599431774</v>
       </c>
       <c r="P31" t="n">
-        <v>4.406695802683008</v>
+        <v>3.671705867392417</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.447058960619767</v>
+        <v>3.705356037560848</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.15937176516742</v>
+        <v>2.632371009883587</v>
       </c>
       <c r="B32" t="n">
-        <v>3.113194135594471</v>
+        <v>2.593891377188845</v>
       </c>
       <c r="C32" t="n">
-        <v>3.129257571059231</v>
+        <v>2.607275784875314</v>
       </c>
       <c r="D32" t="n">
-        <v>3.095326261019605</v>
+        <v>2.579008505589707</v>
       </c>
       <c r="E32" t="n">
-        <v>3.137578016312458</v>
+        <v>2.614221868133558</v>
       </c>
       <c r="F32" t="n">
-        <v>3.284121043726251</v>
+        <v>2.736326179669491</v>
       </c>
       <c r="G32" t="n">
-        <v>3.319899950950848</v>
+        <v>2.766196207613308</v>
       </c>
       <c r="H32" t="n">
-        <v>3.481693315698944</v>
+        <v>2.900904589256999</v>
       </c>
       <c r="I32" t="n">
-        <v>3.653633143847806</v>
+        <v>3.044311577287897</v>
       </c>
       <c r="J32" t="n">
-        <v>3.639802707176562</v>
+        <v>3.032605434799514</v>
       </c>
       <c r="K32" t="n">
-        <v>3.731405289496814</v>
+        <v>3.108989695678233</v>
       </c>
       <c r="L32" t="n">
-        <v>3.841602959953407</v>
+        <v>3.200921014104422</v>
       </c>
       <c r="M32" t="n">
-        <v>3.855549923426786</v>
+        <v>3.212563506937768</v>
       </c>
       <c r="N32" t="n">
-        <v>4.177330919070625</v>
+        <v>3.480719863214374</v>
       </c>
       <c r="O32" t="n">
-        <v>4.058003157876338</v>
+        <v>3.381243723249502</v>
       </c>
       <c r="P32" t="n">
-        <v>4.404050212693782</v>
+        <v>3.669687777764892</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.51374768106269</v>
+        <v>3.761040136052037</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.223629822833945</v>
+        <v>2.685915113475738</v>
       </c>
       <c r="B33" t="n">
-        <v>3.188362338796498</v>
+        <v>2.65651868211771</v>
       </c>
       <c r="C33" t="n">
-        <v>3.192841068015615</v>
+        <v>2.66024919918755</v>
       </c>
       <c r="D33" t="n">
-        <v>3.189236505602889</v>
+        <v>2.657258204804632</v>
       </c>
       <c r="E33" t="n">
-        <v>3.202763756798206</v>
+        <v>2.668532824208014</v>
       </c>
       <c r="F33" t="n">
-        <v>3.394256782345413</v>
+        <v>2.828152673946281</v>
       </c>
       <c r="G33" t="n">
-        <v>3.38984710604608</v>
+        <v>2.824522485993705</v>
       </c>
       <c r="H33" t="n">
-        <v>3.722701168958037</v>
+        <v>3.101763482017309</v>
       </c>
       <c r="I33" t="n">
-        <v>3.625459552575922</v>
+        <v>3.020824135373826</v>
       </c>
       <c r="J33" t="n">
-        <v>3.932143853631978</v>
+        <v>3.2762922745411</v>
       </c>
       <c r="K33" t="n">
-        <v>3.683795890790218</v>
+        <v>3.069371920846799</v>
       </c>
       <c r="L33" t="n">
-        <v>3.930639363142184</v>
+        <v>3.275086886723662</v>
       </c>
       <c r="M33" t="n">
-        <v>3.953410426602465</v>
+        <v>3.294077138886874</v>
       </c>
       <c r="N33" t="n">
-        <v>4.017697831759897</v>
+        <v>3.347664035184954</v>
       </c>
       <c r="O33" t="n">
-        <v>4.113734474691781</v>
+        <v>3.427670572759692</v>
       </c>
       <c r="P33" t="n">
-        <v>4.34958472221413</v>
+        <v>3.624291908825285</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.568887732252483</v>
+        <v>3.806897375090024</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.103122983034345</v>
+        <v>2.585554710789183</v>
       </c>
       <c r="B34" t="n">
-        <v>3.068345774727365</v>
+        <v>2.556571103182474</v>
       </c>
       <c r="C34" t="n">
-        <v>3.069541253401126</v>
+        <v>2.557565584092117</v>
       </c>
       <c r="D34" t="n">
-        <v>3.092411148852848</v>
+        <v>2.576638365045336</v>
       </c>
       <c r="E34" t="n">
-        <v>3.085348761481936</v>
+        <v>2.570762638839181</v>
       </c>
       <c r="F34" t="n">
-        <v>3.333717224409258</v>
+        <v>2.777755632252791</v>
       </c>
       <c r="G34" t="n">
-        <v>3.300082626134329</v>
+        <v>2.749766145953154</v>
       </c>
       <c r="H34" t="n">
-        <v>3.648868492382708</v>
+        <v>3.040346958944444</v>
       </c>
       <c r="I34" t="n">
-        <v>3.576476216555998</v>
+        <v>2.980013918417504</v>
       </c>
       <c r="J34" t="n">
-        <v>3.825842062593451</v>
+        <v>3.187777180537841</v>
       </c>
       <c r="K34" t="n">
-        <v>3.747280555755162</v>
+        <v>3.122316566953369</v>
       </c>
       <c r="L34" t="n">
-        <v>3.874599897672204</v>
+        <v>3.228388177669921</v>
       </c>
       <c r="M34" t="n">
-        <v>3.886146409021591</v>
+        <v>3.23802480736315</v>
       </c>
       <c r="N34" t="n">
-        <v>4.0381280012395</v>
+        <v>3.364517528872266</v>
       </c>
       <c r="O34" t="n">
-        <v>4.122907723504341</v>
+        <v>3.43517008437445</v>
       </c>
       <c r="P34" t="n">
-        <v>4.36251790250893</v>
+        <v>3.634787269457668</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.563613815503977</v>
+        <v>3.802255265503119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.056204760896712</v>
+        <v>2.546295819323442</v>
       </c>
       <c r="B35" t="n">
-        <v>3.019213974929906</v>
+        <v>2.515464034303928</v>
       </c>
       <c r="C35" t="n">
-        <v>3.022586346899858</v>
+        <v>2.518280621439991</v>
       </c>
       <c r="D35" t="n">
-        <v>3.036268319793566</v>
+        <v>2.529689372602294</v>
       </c>
       <c r="E35" t="n">
-        <v>3.036996828097288</v>
+        <v>2.530313822466548</v>
       </c>
       <c r="F35" t="n">
-        <v>3.271917882267793</v>
+        <v>2.726131266985041</v>
       </c>
       <c r="G35" t="n">
-        <v>3.248508942461007</v>
+        <v>2.706696905646848</v>
       </c>
       <c r="H35" t="n">
-        <v>3.581335599995425</v>
+        <v>2.984015575825753</v>
       </c>
       <c r="I35" t="n">
-        <v>3.546890061493783</v>
+        <v>2.955402358867004</v>
       </c>
       <c r="J35" t="n">
-        <v>3.779813975749909</v>
+        <v>3.149316966381924</v>
       </c>
       <c r="K35" t="n">
-        <v>3.721094825411561</v>
+        <v>3.100432233300079</v>
       </c>
       <c r="L35" t="n">
-        <v>3.813023251197043</v>
+        <v>3.177092309350629</v>
       </c>
       <c r="M35" t="n">
-        <v>3.827080699342077</v>
+        <v>3.188828298852391</v>
       </c>
       <c r="N35" t="n">
-        <v>4.040146504400937</v>
+        <v>3.366264837763952</v>
       </c>
       <c r="O35" t="n">
-        <v>4.098104777879415</v>
+        <v>3.414527458398253</v>
       </c>
       <c r="P35" t="n">
-        <v>4.372482670414514</v>
+        <v>3.643226782192589</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.544554346482088</v>
+        <v>3.786440663642948</v>
       </c>
     </row>
   </sheetData>
@@ -4239,1804 +4239,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.822234047534735</v>
+        <v>8.184033088470953</v>
       </c>
       <c r="B2" t="n">
-        <v>9.863182428966663</v>
+        <v>8.218161530058595</v>
       </c>
       <c r="C2" t="n">
-        <v>9.821307875248133</v>
+        <v>8.183283676713334</v>
       </c>
       <c r="D2" t="n">
-        <v>10.005994225018</v>
+        <v>8.33716696644036</v>
       </c>
       <c r="E2" t="n">
-        <v>9.870496859494788</v>
+        <v>8.224338783020393</v>
       </c>
       <c r="F2" t="n">
-        <v>10.17873614598823</v>
+        <v>8.481131698058622</v>
       </c>
       <c r="G2" t="n">
-        <v>9.798453948284111</v>
+        <v>8.164320394742933</v>
       </c>
       <c r="H2" t="n">
-        <v>10.25335818375284</v>
+        <v>8.543301948119957</v>
       </c>
       <c r="I2" t="n">
-        <v>9.669398357015249</v>
+        <v>8.056876900218647</v>
       </c>
       <c r="J2" t="n">
-        <v>10.17371168291245</v>
+        <v>8.476940170492973</v>
       </c>
       <c r="K2" t="n">
-        <v>9.409868136975961</v>
+        <v>7.840657224042561</v>
       </c>
       <c r="L2" t="n">
-        <v>10.06627656082796</v>
+        <v>8.387460981997306</v>
       </c>
       <c r="M2" t="n">
-        <v>9.772802514907339</v>
+        <v>8.142940583496525</v>
       </c>
       <c r="N2" t="n">
-        <v>10.07198033200212</v>
+        <v>8.392207016727184</v>
       </c>
       <c r="O2" t="n">
-        <v>9.466795364045915</v>
+        <v>7.887981641569554</v>
       </c>
       <c r="P2" t="n">
-        <v>10.05070167477067</v>
+        <v>8.374636835116197</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.405709424881968</v>
+        <v>7.836956913588671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.7778028094612</v>
+        <v>8.147098308420517</v>
       </c>
       <c r="B3" t="n">
-        <v>9.820524124608584</v>
+        <v>8.182686017240606</v>
       </c>
       <c r="C3" t="n">
-        <v>9.790397198868309</v>
+        <v>8.157583600180915</v>
       </c>
       <c r="D3" t="n">
-        <v>9.95855659544937</v>
+        <v>8.297685480983272</v>
       </c>
       <c r="E3" t="n">
-        <v>9.865211721646817</v>
+        <v>8.219919267424835</v>
       </c>
       <c r="F3" t="n">
-        <v>10.14769599538381</v>
+        <v>8.455293534139004</v>
       </c>
       <c r="G3" t="n">
-        <v>9.766329666839082</v>
+        <v>8.137529284010604</v>
       </c>
       <c r="H3" t="n">
-        <v>10.23948458900673</v>
+        <v>8.531782439365838</v>
       </c>
       <c r="I3" t="n">
-        <v>9.61660998932485</v>
+        <v>8.012786748213742</v>
       </c>
       <c r="J3" t="n">
-        <v>10.1253193967278</v>
+        <v>8.436643825610373</v>
       </c>
       <c r="K3" t="n">
-        <v>9.359158262171063</v>
+        <v>7.798359331250695</v>
       </c>
       <c r="L3" t="n">
-        <v>10.04095312882016</v>
+        <v>8.366371729628133</v>
       </c>
       <c r="M3" t="n">
-        <v>9.738237212747945</v>
+        <v>8.11413497916238</v>
       </c>
       <c r="N3" t="n">
-        <v>10.05678005803466</v>
+        <v>8.3795317453104</v>
       </c>
       <c r="O3" t="n">
-        <v>9.439360639015719</v>
+        <v>7.865085745884506</v>
       </c>
       <c r="P3" t="n">
-        <v>10.0613738035233</v>
+        <v>8.383433433203958</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.293374998138807</v>
+        <v>7.74335739883638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.742335503537127</v>
+        <v>8.117514524123084</v>
       </c>
       <c r="B4" t="n">
-        <v>9.77847089646011</v>
+        <v>8.147623328173935</v>
       </c>
       <c r="C4" t="n">
-        <v>9.753696435164596</v>
+        <v>8.126993647890288</v>
       </c>
       <c r="D4" t="n">
-        <v>9.908484596990975</v>
+        <v>8.25594065694535</v>
       </c>
       <c r="E4" t="n">
-        <v>9.835270375628463</v>
+        <v>8.194962849008904</v>
       </c>
       <c r="F4" t="n">
-        <v>10.08250140749272</v>
+        <v>8.400905802915675</v>
       </c>
       <c r="G4" t="n">
-        <v>9.738442645184303</v>
+        <v>8.114291765883264</v>
       </c>
       <c r="H4" t="n">
-        <v>10.19377759824019</v>
+        <v>8.493563878137522</v>
       </c>
       <c r="I4" t="n">
-        <v>9.601764474732782</v>
+        <v>8.000364637006827</v>
       </c>
       <c r="J4" t="n">
-        <v>10.08815770478453</v>
+        <v>8.405354805922043</v>
       </c>
       <c r="K4" t="n">
-        <v>9.322754426022421</v>
+        <v>7.767858560397634</v>
       </c>
       <c r="L4" t="n">
-        <v>10.02532904255753</v>
+        <v>8.353328944383957</v>
       </c>
       <c r="M4" t="n">
-        <v>9.742514177967069</v>
+        <v>8.117712305537044</v>
       </c>
       <c r="N4" t="n">
-        <v>10.03670292160746</v>
+        <v>8.362789368817477</v>
       </c>
       <c r="O4" t="n">
-        <v>9.395110664856617</v>
+        <v>7.828234393630503</v>
       </c>
       <c r="P4" t="n">
-        <v>10.06593733835952</v>
+        <v>8.387183368812622</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.178003969248145</v>
+        <v>7.647260803832213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.722550115696009</v>
+        <v>8.101057672071404</v>
       </c>
       <c r="B5" t="n">
-        <v>9.764191615810271</v>
+        <v>8.135759320156955</v>
       </c>
       <c r="C5" t="n">
-        <v>9.733981826566255</v>
+        <v>8.110596489865365</v>
       </c>
       <c r="D5" t="n">
-        <v>9.891179935293099</v>
+        <v>8.241563026958236</v>
       </c>
       <c r="E5" t="n">
-        <v>9.788944498068352</v>
+        <v>8.156408418979428</v>
       </c>
       <c r="F5" t="n">
-        <v>10.07094971717435</v>
+        <v>8.391317359966939</v>
       </c>
       <c r="G5" t="n">
-        <v>9.705815140586349</v>
+        <v>8.087145367810949</v>
       </c>
       <c r="H5" t="n">
-        <v>10.1893936009954</v>
+        <v>8.490018915994233</v>
       </c>
       <c r="I5" t="n">
-        <v>9.580885461274583</v>
+        <v>7.983036827528584</v>
       </c>
       <c r="J5" t="n">
-        <v>10.08406286664133</v>
+        <v>8.402390961533223</v>
       </c>
       <c r="K5" t="n">
-        <v>9.296194946750488</v>
+        <v>7.745756667188989</v>
       </c>
       <c r="L5" t="n">
-        <v>10.01296339094721</v>
+        <v>8.342979582395332</v>
       </c>
       <c r="M5" t="n">
-        <v>9.716793691670514</v>
+        <v>8.096244751263351</v>
       </c>
       <c r="N5" t="n">
-        <v>10.02903373170394</v>
+        <v>8.356432314570259</v>
       </c>
       <c r="O5" t="n">
-        <v>9.372336148750348</v>
+        <v>7.809198471940796</v>
       </c>
       <c r="P5" t="n">
-        <v>10.07607258066082</v>
+        <v>8.395693004048855</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.124812505138509</v>
+        <v>7.602944102207681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.6833539521036</v>
+        <v>8.068377709639083</v>
       </c>
       <c r="B6" t="n">
-        <v>9.722954075276746</v>
+        <v>8.101368368692604</v>
       </c>
       <c r="C6" t="n">
-        <v>9.693250098670148</v>
+        <v>8.0766126085112</v>
       </c>
       <c r="D6" t="n">
-        <v>9.854783004436435</v>
+        <v>8.211224796467192</v>
       </c>
       <c r="E6" t="n">
-        <v>9.750714212191422</v>
+        <v>8.124495129228128</v>
       </c>
       <c r="F6" t="n">
-        <v>10.03178462739584</v>
+        <v>8.358738805459595</v>
       </c>
       <c r="G6" t="n">
-        <v>9.672397843218366</v>
+        <v>8.05926466128899</v>
       </c>
       <c r="H6" t="n">
-        <v>10.13856978887286</v>
+        <v>8.447701604663543</v>
       </c>
       <c r="I6" t="n">
-        <v>9.53364290620434</v>
+        <v>7.943631577816513</v>
       </c>
       <c r="J6" t="n">
-        <v>10.05615167646463</v>
+        <v>8.378979395761599</v>
       </c>
       <c r="K6" t="n">
-        <v>9.255975073622281</v>
+        <v>7.712187767201566</v>
       </c>
       <c r="L6" t="n">
-        <v>9.967479959008461</v>
+        <v>8.305156583994934</v>
       </c>
       <c r="M6" t="n">
-        <v>9.672943361284661</v>
+        <v>8.059720637348809</v>
       </c>
       <c r="N6" t="n">
-        <v>10.01488651476319</v>
+        <v>8.344705674735339</v>
       </c>
       <c r="O6" t="n">
-        <v>9.32971841298264</v>
+        <v>7.773768269046732</v>
       </c>
       <c r="P6" t="n">
-        <v>10.07712391136454</v>
+        <v>8.396600640937642</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.083020814923717</v>
+        <v>7.568181321685087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.643450859244902</v>
+        <v>8.035155466529945</v>
       </c>
       <c r="B7" t="n">
-        <v>9.685202844030817</v>
+        <v>8.069938384796506</v>
       </c>
       <c r="C7" t="n">
-        <v>9.652697045203983</v>
+        <v>8.042869660879493</v>
       </c>
       <c r="D7" t="n">
-        <v>9.813570495586331</v>
+        <v>8.176867647644499</v>
       </c>
       <c r="E7" t="n">
-        <v>9.706573859542477</v>
+        <v>8.087753815360802</v>
       </c>
       <c r="F7" t="n">
-        <v>9.981217174237996</v>
+        <v>8.316545916618413</v>
       </c>
       <c r="G7" t="n">
-        <v>9.624772044443322</v>
+        <v>8.019565975879118</v>
       </c>
       <c r="H7" t="n">
-        <v>10.07159277248983</v>
+        <v>8.391877620772298</v>
       </c>
       <c r="I7" t="n">
-        <v>9.485272199057125</v>
+        <v>7.903359685908731</v>
       </c>
       <c r="J7" t="n">
-        <v>9.997458420971199</v>
+        <v>8.330228794438675</v>
       </c>
       <c r="K7" t="n">
-        <v>9.223862876438217</v>
+        <v>7.685495187573646</v>
       </c>
       <c r="L7" t="n">
-        <v>9.932400212596677</v>
+        <v>8.275884215523845</v>
       </c>
       <c r="M7" t="n">
-        <v>9.638918398222577</v>
+        <v>8.031352309740798</v>
       </c>
       <c r="N7" t="n">
-        <v>9.978244446041293</v>
+        <v>8.314109968803578</v>
       </c>
       <c r="O7" t="n">
-        <v>9.289779930502553</v>
+        <v>7.740448933243469</v>
       </c>
       <c r="P7" t="n">
-        <v>10.07598194870361</v>
+        <v>8.395639782868372</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.067125695950931</v>
+        <v>7.554870272923068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.625621395356665</v>
+        <v>8.020234836660871</v>
       </c>
       <c r="B8" t="n">
-        <v>9.665693667868835</v>
+        <v>8.05363831946571</v>
       </c>
       <c r="C8" t="n">
-        <v>9.625321878317102</v>
+        <v>8.019998218169262</v>
       </c>
       <c r="D8" t="n">
-        <v>9.781953753101718</v>
+        <v>8.150549773895388</v>
       </c>
       <c r="E8" t="n">
-        <v>9.660894489943844</v>
+        <v>8.049681971981386</v>
       </c>
       <c r="F8" t="n">
-        <v>9.944674369088288</v>
+        <v>8.286163095408586</v>
       </c>
       <c r="G8" t="n">
-        <v>9.576876076119623</v>
+        <v>7.979683173952979</v>
       </c>
       <c r="H8" t="n">
-        <v>10.03413328982999</v>
+        <v>8.360689289803801</v>
       </c>
       <c r="I8" t="n">
-        <v>9.436858333835046</v>
+        <v>7.863034572820465</v>
       </c>
       <c r="J8" t="n">
-        <v>9.913964809337335</v>
+        <v>8.260521274492643</v>
       </c>
       <c r="K8" t="n">
-        <v>9.170655875421627</v>
+        <v>7.641303627643764</v>
       </c>
       <c r="L8" t="n">
-        <v>9.891327535909136</v>
+        <v>8.241703991166004</v>
       </c>
       <c r="M8" t="n">
-        <v>9.589905498921372</v>
+        <v>7.99053094510478</v>
       </c>
       <c r="N8" t="n">
-        <v>9.968342257344263</v>
+        <v>8.305893050060003</v>
       </c>
       <c r="O8" t="n">
-        <v>9.237324743150111</v>
+        <v>7.69676657055389</v>
       </c>
       <c r="P8" t="n">
-        <v>10.09197633124858</v>
+        <v>8.40893788593784</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.040622322176324</v>
+        <v>7.532853245921141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.520616072887083</v>
+        <v>7.932849973537746</v>
       </c>
       <c r="B9" t="n">
-        <v>9.561703423320077</v>
+        <v>7.96708269987093</v>
       </c>
       <c r="C9" t="n">
-        <v>9.532813408005435</v>
+        <v>7.943003711727836</v>
       </c>
       <c r="D9" t="n">
-        <v>9.692981655444488</v>
+        <v>8.076452944969748</v>
       </c>
       <c r="E9" t="n">
-        <v>9.597529804427026</v>
+        <v>7.996903102659971</v>
       </c>
       <c r="F9" t="n">
-        <v>9.874404391593066</v>
+        <v>8.22757664456819</v>
       </c>
       <c r="G9" t="n">
-        <v>9.524332846294458</v>
+        <v>7.935923856313241</v>
       </c>
       <c r="H9" t="n">
-        <v>9.98802924477469</v>
+        <v>8.322226198827318</v>
       </c>
       <c r="I9" t="n">
-        <v>9.398232719992352</v>
+        <v>7.830888979808406</v>
       </c>
       <c r="J9" t="n">
-        <v>9.870320774549338</v>
+        <v>8.224222271787443</v>
       </c>
       <c r="K9" t="n">
-        <v>9.114231008343102</v>
+        <v>7.59420288291583</v>
       </c>
       <c r="L9" t="n">
-        <v>9.827139394323893</v>
+        <v>8.18816779883041</v>
       </c>
       <c r="M9" t="n">
-        <v>9.531087085010833</v>
+        <v>7.941504169007454</v>
       </c>
       <c r="N9" t="n">
-        <v>9.926105175796865</v>
+        <v>8.270674293477592</v>
       </c>
       <c r="O9" t="n">
-        <v>9.183143232803072</v>
+        <v>7.651596172426196</v>
       </c>
       <c r="P9" t="n">
-        <v>10.08814821000806</v>
+        <v>8.405746053519112</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.000286785407479</v>
+        <v>7.499103825443158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.461179635344479</v>
+        <v>7.883250710147652</v>
       </c>
       <c r="B10" t="n">
-        <v>9.50310252610686</v>
+        <v>7.918194730365947</v>
       </c>
       <c r="C10" t="n">
-        <v>9.47222551302543</v>
+        <v>7.892478112115271</v>
       </c>
       <c r="D10" t="n">
-        <v>9.638591260015101</v>
+        <v>8.031121444890323</v>
       </c>
       <c r="E10" t="n">
-        <v>9.534807311064199</v>
+        <v>7.944675863682217</v>
       </c>
       <c r="F10" t="n">
-        <v>9.817209584458951</v>
+        <v>8.179931461548012</v>
       </c>
       <c r="G10" t="n">
-        <v>9.467841515780643</v>
+        <v>7.888895032099474</v>
       </c>
       <c r="H10" t="n">
-        <v>9.936816146816865</v>
+        <v>8.279501098181301</v>
       </c>
       <c r="I10" t="n">
-        <v>9.34313453213518</v>
+        <v>7.784961977871676</v>
       </c>
       <c r="J10" t="n">
-        <v>9.817063710165906</v>
+        <v>8.179763167544861</v>
       </c>
       <c r="K10" t="n">
-        <v>9.034694992174362</v>
+        <v>7.527938197982971</v>
       </c>
       <c r="L10" t="n">
-        <v>9.757611735716349</v>
+        <v>8.130278257772293</v>
       </c>
       <c r="M10" t="n">
-        <v>9.467831157842674</v>
+        <v>7.888872017534941</v>
       </c>
       <c r="N10" t="n">
-        <v>9.849295886798096</v>
+        <v>8.206627637201642</v>
       </c>
       <c r="O10" t="n">
-        <v>9.1574917994263</v>
+        <v>7.630287562488813</v>
       </c>
       <c r="P10" t="n">
-        <v>10.03494552479895</v>
+        <v>8.361297018148512</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.987782164796087</v>
+        <v>7.488882481969751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.478545581508664</v>
+        <v>7.897814614266458</v>
       </c>
       <c r="B11" t="n">
-        <v>9.513491537888367</v>
+        <v>7.926934511247515</v>
       </c>
       <c r="C11" t="n">
-        <v>9.477835199596386</v>
+        <v>7.89719897466519</v>
       </c>
       <c r="D11" t="n">
-        <v>9.627881152156599</v>
+        <v>8.022231350134145</v>
       </c>
       <c r="E11" t="n">
-        <v>9.51197151049162</v>
+        <v>7.925584563196601</v>
       </c>
       <c r="F11" t="n">
-        <v>9.791293160502507</v>
+        <v>8.158320785451128</v>
       </c>
       <c r="G11" t="n">
-        <v>9.437418525646795</v>
+        <v>7.863453869418058</v>
       </c>
       <c r="H11" t="n">
-        <v>9.897605309479003</v>
+        <v>8.246890898647724</v>
       </c>
       <c r="I11" t="n">
-        <v>9.297371435871309</v>
+        <v>7.74680814510611</v>
       </c>
       <c r="J11" t="n">
-        <v>9.805423114213314</v>
+        <v>8.170141641159606</v>
       </c>
       <c r="K11" t="n">
-        <v>8.998153913347648</v>
+        <v>7.497509347644077</v>
       </c>
       <c r="L11" t="n">
-        <v>9.703062518571459</v>
+        <v>8.084787813356556</v>
       </c>
       <c r="M11" t="n">
-        <v>9.414272850096685</v>
+        <v>7.844165506723624</v>
       </c>
       <c r="N11" t="n">
-        <v>9.829841089810444</v>
+        <v>8.190397334769585</v>
       </c>
       <c r="O11" t="n">
-        <v>9.105301602653531</v>
+        <v>7.586807296444043</v>
       </c>
       <c r="P11" t="n">
-        <v>9.992217304359592</v>
+        <v>8.325610778224014</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.975186049065984</v>
+        <v>7.478395751799069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.378000214495632</v>
+        <v>7.813989816594598</v>
       </c>
       <c r="B12" t="n">
-        <v>9.419059943760713</v>
+        <v>7.848215350876365</v>
       </c>
       <c r="C12" t="n">
-        <v>9.395299697224527</v>
+        <v>7.828396933992521</v>
       </c>
       <c r="D12" t="n">
-        <v>9.562990397112552</v>
+        <v>7.968165822814284</v>
       </c>
       <c r="E12" t="n">
-        <v>9.467627451729312</v>
+        <v>7.888635399043332</v>
       </c>
       <c r="F12" t="n">
-        <v>9.750194588970048</v>
+        <v>8.124114669708185</v>
       </c>
       <c r="G12" t="n">
-        <v>9.385514035329631</v>
+        <v>7.820265600660806</v>
       </c>
       <c r="H12" t="n">
-        <v>9.882171118745774</v>
+        <v>8.234020003432407</v>
       </c>
       <c r="I12" t="n">
-        <v>9.282771059144473</v>
+        <v>7.734650701391329</v>
       </c>
       <c r="J12" t="n">
-        <v>9.761203350706616</v>
+        <v>8.133147886287555</v>
       </c>
       <c r="K12" t="n">
-        <v>8.98886197982921</v>
+        <v>7.489740493703763</v>
       </c>
       <c r="L12" t="n">
-        <v>9.659934654358846</v>
+        <v>8.048878619838142</v>
       </c>
       <c r="M12" t="n">
-        <v>9.362307938474711</v>
+        <v>7.800893090964797</v>
       </c>
       <c r="N12" t="n">
-        <v>9.754841850471513</v>
+        <v>8.127991185421784</v>
       </c>
       <c r="O12" t="n">
-        <v>9.062734793414164</v>
+        <v>7.551318837933504</v>
       </c>
       <c r="P12" t="n">
-        <v>9.891432841611808</v>
+        <v>8.241858620271461</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.963601558610716</v>
+        <v>7.468670659873415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.350418752010896</v>
+        <v>7.790940730214374</v>
       </c>
       <c r="B13" t="n">
-        <v>9.402243831470306</v>
+        <v>7.834118930099643</v>
       </c>
       <c r="C13" t="n">
-        <v>9.362610908160264</v>
+        <v>7.801113167738148</v>
       </c>
       <c r="D13" t="n">
-        <v>9.552153404513946</v>
+        <v>7.959027602284231</v>
       </c>
       <c r="E13" t="n">
-        <v>9.424234596937028</v>
+        <v>7.852523389674965</v>
       </c>
       <c r="F13" t="n">
-        <v>9.715624971003168</v>
+        <v>8.095278858758089</v>
       </c>
       <c r="G13" t="n">
-        <v>9.351767010269679</v>
+        <v>7.792145398826671</v>
       </c>
       <c r="H13" t="n">
-        <v>9.835959178503309</v>
+        <v>8.195522390609122</v>
       </c>
       <c r="I13" t="n">
-        <v>9.243871823107135</v>
+        <v>7.702203042219769</v>
       </c>
       <c r="J13" t="n">
-        <v>9.728504203704388</v>
+        <v>8.105942513393623</v>
       </c>
       <c r="K13" t="n">
-        <v>8.96749441696354</v>
+        <v>7.471849546599594</v>
       </c>
       <c r="L13" t="n">
-        <v>9.614082652460755</v>
+        <v>8.010648551327558</v>
       </c>
       <c r="M13" t="n">
-        <v>9.318847757085639</v>
+        <v>7.764676796850888</v>
       </c>
       <c r="N13" t="n">
-        <v>9.706566091089002</v>
+        <v>8.087686210077484</v>
       </c>
       <c r="O13" t="n">
-        <v>9.031855190848244</v>
+        <v>7.525515195860686</v>
       </c>
       <c r="P13" t="n">
-        <v>9.787118048340066</v>
+        <v>8.154747055102172</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.954317393545754</v>
+        <v>7.460858653624601</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.314714939836565</v>
+        <v>7.761290059838767</v>
       </c>
       <c r="B14" t="n">
-        <v>9.36054363637423</v>
+        <v>7.799473380015141</v>
       </c>
       <c r="C14" t="n">
-        <v>9.3316812422275</v>
+        <v>7.77541740643658</v>
       </c>
       <c r="D14" t="n">
-        <v>9.517902293139571</v>
+        <v>7.930575846879787</v>
       </c>
       <c r="E14" t="n">
-        <v>9.398054908723909</v>
+        <v>7.830691917599588</v>
       </c>
       <c r="F14" t="n">
-        <v>9.692802981014546</v>
+        <v>8.076250848324939</v>
       </c>
       <c r="G14" t="n">
-        <v>9.315779217962737</v>
+        <v>7.762160298060187</v>
       </c>
       <c r="H14" t="n">
-        <v>9.803584580224063</v>
+        <v>8.168652886516352</v>
       </c>
       <c r="I14" t="n">
-        <v>9.191576320631697</v>
+        <v>7.658649417250549</v>
       </c>
       <c r="J14" t="n">
-        <v>9.720983477578409</v>
+        <v>8.099786836586073</v>
       </c>
       <c r="K14" t="n">
-        <v>8.908355770137504</v>
+        <v>7.422607008959767</v>
       </c>
       <c r="L14" t="n">
-        <v>9.589884783045436</v>
+        <v>7.990514403386522</v>
       </c>
       <c r="M14" t="n">
-        <v>9.294705130006149</v>
+        <v>7.74459802770576</v>
       </c>
       <c r="N14" t="n">
-        <v>9.653743196938711</v>
+        <v>8.04376003684488</v>
       </c>
       <c r="O14" t="n">
-        <v>8.987507679439947</v>
+        <v>7.488666001222109</v>
       </c>
       <c r="P14" t="n">
-        <v>9.664791664104156</v>
+        <v>8.053017645428449</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.947893745682844</v>
+        <v>7.455608456090413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.268471062618698</v>
+        <v>7.722673058961965</v>
       </c>
       <c r="B15" t="n">
-        <v>9.30907331629021</v>
+        <v>7.75650950326209</v>
       </c>
       <c r="C15" t="n">
-        <v>9.284984205223552</v>
+        <v>7.736458063912345</v>
       </c>
       <c r="D15" t="n">
-        <v>9.466855785350726</v>
+        <v>7.888028389903762</v>
       </c>
       <c r="E15" t="n">
-        <v>9.362261327753858</v>
+        <v>7.800883741297955</v>
       </c>
       <c r="F15" t="n">
-        <v>9.660228992429426</v>
+        <v>8.049128184022301</v>
       </c>
       <c r="G15" t="n">
-        <v>9.274642667324395</v>
+        <v>7.727871473725953</v>
       </c>
       <c r="H15" t="n">
-        <v>9.775749348259122</v>
+        <v>8.145339851849135</v>
       </c>
       <c r="I15" t="n">
-        <v>9.151535985094927</v>
+        <v>7.625294840395344</v>
       </c>
       <c r="J15" t="n">
-        <v>9.704517808855908</v>
+        <v>8.085886039607885</v>
       </c>
       <c r="K15" t="n">
-        <v>8.881444120974674</v>
+        <v>7.400179315821947</v>
       </c>
       <c r="L15" t="n">
-        <v>9.559247728860258</v>
+        <v>7.964966798344138</v>
       </c>
       <c r="M15" t="n">
-        <v>9.259625383594365</v>
+        <v>7.715319186388395</v>
       </c>
       <c r="N15" t="n">
-        <v>9.618200795964375</v>
+        <v>8.014030973108829</v>
       </c>
       <c r="O15" t="n">
-        <v>8.9210502862783</v>
+        <v>7.433236860953643</v>
       </c>
       <c r="P15" t="n">
-        <v>9.537855997472663</v>
+        <v>7.947271475038503</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.912613745803686</v>
+        <v>7.426146217461923</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.224347110038201</v>
+        <v>7.685925991453505</v>
       </c>
       <c r="B16" t="n">
-        <v>9.263975717540758</v>
+        <v>7.718949733943543</v>
       </c>
       <c r="C16" t="n">
-        <v>9.235310987376911</v>
+        <v>7.695063492778417</v>
       </c>
       <c r="D16" t="n">
-        <v>9.413014360633621</v>
+        <v>7.843144235422454</v>
       </c>
       <c r="E16" t="n">
-        <v>9.311542821333985</v>
+        <v>7.758625404788881</v>
       </c>
       <c r="F16" t="n">
-        <v>9.603804988512399</v>
+        <v>8.002096482987966</v>
       </c>
       <c r="G16" t="n">
-        <v>9.226513645396425</v>
+        <v>7.687754930128771</v>
       </c>
       <c r="H16" t="n">
-        <v>9.732647378891429</v>
+        <v>8.109485317921486</v>
       </c>
       <c r="I16" t="n">
-        <v>9.120748740809217</v>
+        <v>7.599630004914868</v>
       </c>
       <c r="J16" t="n">
-        <v>9.693551342032707</v>
+        <v>8.077015363390535</v>
       </c>
       <c r="K16" t="n">
-        <v>8.839376219080746</v>
+        <v>7.365163375089485</v>
       </c>
       <c r="L16" t="n">
-        <v>9.499589458812846</v>
+        <v>7.915244550874819</v>
       </c>
       <c r="M16" t="n">
-        <v>9.209176183561651</v>
+        <v>7.673285241883523</v>
       </c>
       <c r="N16" t="n">
-        <v>9.552587574747088</v>
+        <v>7.95941453465045</v>
       </c>
       <c r="O16" t="n">
-        <v>8.874411944256167</v>
+        <v>7.394415605816608</v>
       </c>
       <c r="P16" t="n">
-        <v>9.486779279031412</v>
+        <v>7.904671516087135</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.868885121188953</v>
+        <v>7.389731422728914</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.159404565304317</v>
+        <v>7.631805085337736</v>
       </c>
       <c r="B17" t="n">
-        <v>9.198871761606879</v>
+        <v>7.664691459645714</v>
       </c>
       <c r="C17" t="n">
-        <v>9.170014546429133</v>
+        <v>7.640648431759703</v>
       </c>
       <c r="D17" t="n">
-        <v>9.353220574231134</v>
+        <v>7.793341436977267</v>
       </c>
       <c r="E17" t="n">
-        <v>9.250245407603201</v>
+        <v>7.707511495370431</v>
       </c>
       <c r="F17" t="n">
-        <v>9.565762008680384</v>
+        <v>7.970435634241393</v>
       </c>
       <c r="G17" t="n">
-        <v>9.184668439168801</v>
+        <v>7.652907283399459</v>
       </c>
       <c r="H17" t="n">
-        <v>9.7175334210737</v>
+        <v>8.096892035890853</v>
       </c>
       <c r="I17" t="n">
-        <v>9.06005985593403</v>
+        <v>7.549100090071454</v>
       </c>
       <c r="J17" t="n">
-        <v>9.694494777549256</v>
+        <v>8.077683504967146</v>
       </c>
       <c r="K17" t="n">
-        <v>8.782315201978712</v>
+        <v>7.317590112583474</v>
       </c>
       <c r="L17" t="n">
-        <v>9.452831137342589</v>
+        <v>7.876304626889408</v>
       </c>
       <c r="M17" t="n">
-        <v>9.15647154253649</v>
+        <v>7.629378487189743</v>
       </c>
       <c r="N17" t="n">
-        <v>9.562013298297607</v>
+        <v>7.967196334283313</v>
       </c>
       <c r="O17" t="n">
-        <v>8.808772828193963</v>
+        <v>7.339727246844061</v>
       </c>
       <c r="P17" t="n">
-        <v>9.401759597870322</v>
+        <v>7.833689564630067</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.774671906920117</v>
+        <v>7.3112941907733</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.123884606528911</v>
+        <v>7.602207636142611</v>
       </c>
       <c r="B18" t="n">
-        <v>9.162281482574819</v>
+        <v>7.634194284818362</v>
       </c>
       <c r="C18" t="n">
-        <v>9.134313323739294</v>
+        <v>7.61089635345912</v>
       </c>
       <c r="D18" t="n">
-        <v>9.306374210288151</v>
+        <v>7.754259829578948</v>
       </c>
       <c r="E18" t="n">
-        <v>9.21532793555291</v>
+        <v>7.678385844748242</v>
       </c>
       <c r="F18" t="n">
-        <v>9.516184601759942</v>
+        <v>7.929043939928031</v>
       </c>
       <c r="G18" t="n">
-        <v>9.128240982605785</v>
+        <v>7.605882055211401</v>
       </c>
       <c r="H18" t="n">
-        <v>9.676642871462089</v>
+        <v>8.062747771790095</v>
       </c>
       <c r="I18" t="n">
-        <v>8.994368950181986</v>
+        <v>7.494343406610448</v>
       </c>
       <c r="J18" t="n">
-        <v>9.673339552411921</v>
+        <v>8.059874547249125</v>
       </c>
       <c r="K18" t="n">
-        <v>8.728950242408118</v>
+        <v>7.273217312957892</v>
       </c>
       <c r="L18" t="n">
-        <v>9.421755597116782</v>
+        <v>7.850398857686473</v>
       </c>
       <c r="M18" t="n">
-        <v>9.117447148082045</v>
+        <v>7.596891990940533</v>
       </c>
       <c r="N18" t="n">
-        <v>9.533746485584016</v>
+        <v>7.943699902304972</v>
       </c>
       <c r="O18" t="n">
-        <v>8.777652403570295</v>
+        <v>7.313766818050359</v>
       </c>
       <c r="P18" t="n">
-        <v>9.366055785695989</v>
+        <v>7.803981357843125</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.626688910338451</v>
+        <v>7.187907356668483</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.189936313786825</v>
+        <v>7.657180081146118</v>
       </c>
       <c r="B19" t="n">
-        <v>9.226557666632788</v>
+        <v>7.687683009614604</v>
       </c>
       <c r="C19" t="n">
-        <v>9.179170963592496</v>
+        <v>7.648236046004317</v>
       </c>
       <c r="D19" t="n">
-        <v>9.318549966369071</v>
+        <v>7.764400622076487</v>
       </c>
       <c r="E19" t="n">
-        <v>9.177990158664189</v>
+        <v>7.647361492552046</v>
       </c>
       <c r="F19" t="n">
-        <v>9.46700770177425</v>
+        <v>7.888162162060113</v>
       </c>
       <c r="G19" t="n">
-        <v>9.082111905867059</v>
+        <v>7.567475062235967</v>
       </c>
       <c r="H19" t="n">
-        <v>9.628858250971541</v>
+        <v>8.023048367175083</v>
       </c>
       <c r="I19" t="n">
-        <v>8.918543665290139</v>
+        <v>7.431152604453085</v>
       </c>
       <c r="J19" t="n">
-        <v>9.630100340366157</v>
+        <v>8.024117106015602</v>
       </c>
       <c r="K19" t="n">
-        <v>8.617571335442468</v>
+        <v>7.180274432499945</v>
       </c>
       <c r="L19" t="n">
-        <v>9.373365900416626</v>
+        <v>7.810127684983833</v>
       </c>
       <c r="M19" t="n">
-        <v>9.079817622607235</v>
+        <v>7.565542558020302</v>
       </c>
       <c r="N19" t="n">
-        <v>9.463423855237458</v>
+        <v>7.885067422335509</v>
       </c>
       <c r="O19" t="n">
-        <v>8.714886752132601</v>
+        <v>7.261453993660746</v>
       </c>
       <c r="P19" t="n">
-        <v>9.381234480626016</v>
+        <v>7.816556659745216</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.519613726598344</v>
+        <v>7.098751810486569</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.123225151144974</v>
+        <v>7.601619326336726</v>
       </c>
       <c r="B20" t="n">
-        <v>9.165599475370442</v>
+        <v>7.636900653766464</v>
       </c>
       <c r="C20" t="n">
-        <v>9.102786350050398</v>
+        <v>7.584607967120817</v>
       </c>
       <c r="D20" t="n">
-        <v>9.275001742507273</v>
+        <v>7.728069974345053</v>
       </c>
       <c r="E20" t="n">
-        <v>9.088878228844397</v>
+        <v>7.573069759033014</v>
       </c>
       <c r="F20" t="n">
-        <v>9.429897799520816</v>
+        <v>7.85717808535185</v>
       </c>
       <c r="G20" t="n">
-        <v>9.031723127139157</v>
+        <v>7.525427452833403</v>
       </c>
       <c r="H20" t="n">
-        <v>9.587607763015559</v>
+        <v>7.988694095172955</v>
       </c>
       <c r="I20" t="n">
-        <v>8.857028734862036</v>
+        <v>7.379841632825817</v>
       </c>
       <c r="J20" t="n">
-        <v>9.611162577115387</v>
+        <v>8.008353567720491</v>
       </c>
       <c r="K20" t="n">
-        <v>8.545099432967634</v>
+        <v>7.119923771447034</v>
       </c>
       <c r="L20" t="n">
-        <v>9.335481742300114</v>
+        <v>7.778530126289726</v>
       </c>
       <c r="M20" t="n">
-        <v>9.034532717812869</v>
+        <v>7.527762711928403</v>
       </c>
       <c r="N20" t="n">
-        <v>9.435732771242566</v>
+        <v>7.862126216726536</v>
       </c>
       <c r="O20" t="n">
-        <v>8.647687903244774</v>
+        <v>7.205427193919552</v>
       </c>
       <c r="P20" t="n">
-        <v>9.429843420346486</v>
+        <v>7.857329837636742</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.491304618971384</v>
+        <v>7.075062631530259</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.998163408124119</v>
+        <v>7.497494963541244</v>
       </c>
       <c r="B21" t="n">
-        <v>9.037945658373195</v>
+        <v>7.530646724546498</v>
       </c>
       <c r="C21" t="n">
-        <v>9.002536184269443</v>
+        <v>7.501115442224408</v>
       </c>
       <c r="D21" t="n">
-        <v>9.171109898369208</v>
+        <v>7.641574767982174</v>
       </c>
       <c r="E21" t="n">
-        <v>9.05346702841765</v>
+        <v>7.543501797248699</v>
       </c>
       <c r="F21" t="n">
-        <v>9.363910829375198</v>
+        <v>7.802248792656844</v>
       </c>
       <c r="G21" t="n">
-        <v>8.970818451889643</v>
+        <v>7.474635747318422</v>
       </c>
       <c r="H21" t="n">
-        <v>9.536461128493025</v>
+        <v>7.946110677939847</v>
       </c>
       <c r="I21" t="n">
-        <v>8.794314009952684</v>
+        <v>7.327597132924663</v>
       </c>
       <c r="J21" t="n">
-        <v>9.570182258708058</v>
+        <v>7.974286977775033</v>
       </c>
       <c r="K21" t="n">
-        <v>8.489428105876252</v>
+        <v>7.073583945758987</v>
       </c>
       <c r="L21" t="n">
-        <v>9.28873809457531</v>
+        <v>7.739638389048807</v>
       </c>
       <c r="M21" t="n">
-        <v>8.980261438670111</v>
+        <v>7.482559949569335</v>
       </c>
       <c r="N21" t="n">
-        <v>9.400968078777296</v>
+        <v>7.833110604491022</v>
       </c>
       <c r="O21" t="n">
-        <v>8.621238908644498</v>
+        <v>7.183497190739766</v>
       </c>
       <c r="P21" t="n">
-        <v>9.458896573184118</v>
+        <v>7.881539001910479</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.480687732554589</v>
+        <v>7.066212093056874</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.030579438155234</v>
+        <v>7.524311965658674</v>
       </c>
       <c r="B22" t="n">
-        <v>9.073053889114389</v>
+        <v>7.559711961936787</v>
       </c>
       <c r="C22" t="n">
-        <v>9.015179773881899</v>
+        <v>7.51153744393234</v>
       </c>
       <c r="D22" t="n">
-        <v>9.182890326484362</v>
+        <v>7.651332943344345</v>
       </c>
       <c r="E22" t="n">
-        <v>9.012946775088382</v>
+        <v>7.509827893310592</v>
       </c>
       <c r="F22" t="n">
-        <v>9.339601612126728</v>
+        <v>7.781964330841197</v>
       </c>
       <c r="G22" t="n">
-        <v>8.955131354837707</v>
+        <v>7.46162964153647</v>
       </c>
       <c r="H22" t="n">
-        <v>9.523926297229231</v>
+        <v>7.935493771638523</v>
       </c>
       <c r="I22" t="n">
-        <v>8.76344217584024</v>
+        <v>7.301840239186054</v>
       </c>
       <c r="J22" t="n">
-        <v>9.550215606952507</v>
+        <v>7.95731229802135</v>
       </c>
       <c r="K22" t="n">
-        <v>8.456649548016271</v>
+        <v>7.046221786144171</v>
       </c>
       <c r="L22" t="n">
-        <v>9.256523181173067</v>
+        <v>7.71274515118636</v>
       </c>
       <c r="M22" t="n">
-        <v>8.962910166251378</v>
+        <v>7.468090261324087</v>
       </c>
       <c r="N22" t="n">
-        <v>9.391451723269562</v>
+        <v>7.825138934700758</v>
       </c>
       <c r="O22" t="n">
-        <v>8.586363731507575</v>
+        <v>7.154370101707294</v>
       </c>
       <c r="P22" t="n">
-        <v>9.466911890848049</v>
+        <v>7.888008971364937</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.492305023146754</v>
+        <v>7.075924958495121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.94668963539411</v>
+        <v>7.454577115917259</v>
       </c>
       <c r="B23" t="n">
-        <v>8.986862034639966</v>
+        <v>7.488061149697965</v>
       </c>
       <c r="C23" t="n">
-        <v>8.946011190457233</v>
+        <v>7.454015416701615</v>
       </c>
       <c r="D23" t="n">
-        <v>9.119014649361143</v>
+        <v>7.598209574760071</v>
       </c>
       <c r="E23" t="n">
-        <v>8.988104987196078</v>
+        <v>7.489113346820227</v>
       </c>
       <c r="F23" t="n">
-        <v>9.302262972076511</v>
+        <v>7.750870934951401</v>
       </c>
       <c r="G23" t="n">
-        <v>8.930860979856616</v>
+        <v>7.441448745261225</v>
       </c>
       <c r="H23" t="n">
-        <v>9.513481179950398</v>
+        <v>7.926882009272172</v>
       </c>
       <c r="I23" t="n">
-        <v>8.751836969509036</v>
+        <v>7.292217274390516</v>
       </c>
       <c r="J23" t="n">
-        <v>9.532099573447168</v>
+        <v>7.942293137047866</v>
       </c>
       <c r="K23" t="n">
-        <v>8.465118025466285</v>
+        <v>7.05332969055929</v>
       </c>
       <c r="L23" t="n">
-        <v>9.220641557730291</v>
+        <v>7.682842759011169</v>
       </c>
       <c r="M23" t="n">
-        <v>8.930788474290843</v>
+        <v>7.441345898925966</v>
       </c>
       <c r="N23" t="n">
-        <v>9.3316812422275</v>
+        <v>7.775446174642247</v>
       </c>
       <c r="O23" t="n">
-        <v>8.562392873566045</v>
+        <v>7.134369725922608</v>
       </c>
       <c r="P23" t="n">
-        <v>9.471524625889623</v>
+        <v>7.892018540029745</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.488260248370405</v>
+        <v>7.072483561892232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.923003620746691</v>
+        <v>7.434865141394383</v>
       </c>
       <c r="B24" t="n">
-        <v>8.964329203752939</v>
+        <v>7.469322259731767</v>
       </c>
       <c r="C24" t="n">
-        <v>8.931898499976372</v>
+        <v>7.44227367355872</v>
       </c>
       <c r="D24" t="n">
-        <v>9.106648134589319</v>
+        <v>7.587954428645006</v>
       </c>
       <c r="E24" t="n">
-        <v>8.991560222669772</v>
+        <v>7.492009585925731</v>
       </c>
       <c r="F24" t="n">
-        <v>9.291722907032975</v>
+        <v>7.742136188505826</v>
       </c>
       <c r="G24" t="n">
-        <v>8.921531930393794</v>
+        <v>7.433643931063828</v>
       </c>
       <c r="H24" t="n">
-        <v>9.484300279211165</v>
+        <v>7.902512462251844</v>
       </c>
       <c r="I24" t="n">
-        <v>8.76624917702946</v>
+        <v>7.304198512845588</v>
       </c>
       <c r="J24" t="n">
-        <v>9.492610798107172</v>
+        <v>7.909414673996446</v>
       </c>
       <c r="K24" t="n">
-        <v>8.481540536113922</v>
+        <v>7.066952874352794</v>
       </c>
       <c r="L24" t="n">
-        <v>9.189880208289502</v>
+        <v>7.65722395265976</v>
       </c>
       <c r="M24" t="n">
-        <v>8.892413177282366</v>
+        <v>7.409362846275925</v>
       </c>
       <c r="N24" t="n">
-        <v>9.300548733342872</v>
+        <v>7.749376426667012</v>
       </c>
       <c r="O24" t="n">
-        <v>8.521529945122349</v>
+        <v>7.100452011441475</v>
       </c>
       <c r="P24" t="n">
-        <v>9.476593973363268</v>
+        <v>7.895980641155202</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.478904440901166</v>
+        <v>7.064871494672802</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8.915645168982206</v>
+        <v>7.428668469893758</v>
       </c>
       <c r="B25" t="n">
-        <v>8.952402038183244</v>
+        <v>7.459291505620903</v>
       </c>
       <c r="C25" t="n">
-        <v>8.922844799031187</v>
+        <v>7.43468318249354</v>
       </c>
       <c r="D25" t="n">
-        <v>9.086160996450896</v>
+        <v>7.570777652246513</v>
       </c>
       <c r="E25" t="n">
-        <v>8.980503123889354</v>
+        <v>7.482758450188436</v>
       </c>
       <c r="F25" t="n">
-        <v>9.267408510815521</v>
+        <v>7.721845973049046</v>
       </c>
       <c r="G25" t="n">
-        <v>8.9133129066165</v>
+        <v>7.426783433217443</v>
       </c>
       <c r="H25" t="n">
-        <v>9.449640029287069</v>
+        <v>7.873665144019481</v>
       </c>
       <c r="I25" t="n">
-        <v>8.772230886205751</v>
+        <v>7.309196269375049</v>
       </c>
       <c r="J25" t="n">
-        <v>9.443047201770689</v>
+        <v>7.868142367736601</v>
       </c>
       <c r="K25" t="n">
-        <v>8.503760902538925</v>
+        <v>7.085445076955399</v>
       </c>
       <c r="L25" t="n">
-        <v>9.129767052133012</v>
+        <v>7.607144260235031</v>
       </c>
       <c r="M25" t="n">
-        <v>8.83953158815026</v>
+        <v>7.365297866450977</v>
       </c>
       <c r="N25" t="n">
-        <v>9.257768723213671</v>
+        <v>7.713800944334331</v>
       </c>
       <c r="O25" t="n">
-        <v>8.484327684588704</v>
+        <v>7.069348546679695</v>
       </c>
       <c r="P25" t="n">
-        <v>9.442527578549315</v>
+        <v>7.867767661857791</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.449157306219705</v>
+        <v>7.03989709612833</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.891479236542287</v>
+        <v>7.408578912671505</v>
       </c>
       <c r="B26" t="n">
-        <v>8.926268960690978</v>
+        <v>7.43756072226536</v>
       </c>
       <c r="C26" t="n">
-        <v>8.901527299532361</v>
+        <v>7.416956933366812</v>
       </c>
       <c r="D26" t="n">
-        <v>9.054436358779119</v>
+        <v>7.544374193085543</v>
       </c>
       <c r="E26" t="n">
-        <v>8.964209224304815</v>
+        <v>7.469201433267966</v>
       </c>
       <c r="F26" t="n">
-        <v>9.237286764044232</v>
+        <v>7.696716226193972</v>
       </c>
       <c r="G26" t="n">
-        <v>8.886788816965957</v>
+        <v>7.404678663188231</v>
       </c>
       <c r="H26" t="n">
-        <v>9.390184602191525</v>
+        <v>7.824134924322988</v>
       </c>
       <c r="I26" t="n">
-        <v>8.745885470985151</v>
+        <v>7.287284965528947</v>
       </c>
       <c r="J26" t="n">
-        <v>9.376012353567349</v>
+        <v>7.812433456668025</v>
       </c>
       <c r="K26" t="n">
-        <v>8.473709935010413</v>
+        <v>7.060505919462869</v>
       </c>
       <c r="L26" t="n">
-        <v>9.100515372151001</v>
+        <v>7.582774713214702</v>
       </c>
       <c r="M26" t="n">
-        <v>8.808442237340495</v>
+        <v>7.339410796581726</v>
       </c>
       <c r="N26" t="n">
-        <v>9.233387000399429</v>
+        <v>7.693588403032853</v>
       </c>
       <c r="O26" t="n">
-        <v>8.464666592003198</v>
+        <v>7.053068619092865</v>
       </c>
       <c r="P26" t="n">
-        <v>9.45465931339387</v>
+        <v>7.878073871537915</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.372455912408098</v>
+        <v>6.976141717934755</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.918418506873032</v>
+        <v>7.430971364757384</v>
       </c>
       <c r="B27" t="n">
-        <v>8.960053964856812</v>
+        <v>7.46566150556067</v>
       </c>
       <c r="C27" t="n">
-        <v>8.897954674095034</v>
+        <v>7.41393195654095</v>
       </c>
       <c r="D27" t="n">
-        <v>9.090010696728855</v>
+        <v>7.57397236148581</v>
       </c>
       <c r="E27" t="n">
-        <v>8.89277656827273</v>
+        <v>7.409631109793767</v>
       </c>
       <c r="F27" t="n">
-        <v>9.20206891179288</v>
+        <v>7.667361868336733</v>
       </c>
       <c r="G27" t="n">
-        <v>8.854915715516643</v>
+        <v>7.378127766973219</v>
       </c>
       <c r="H27" t="n">
-        <v>9.301842612427324</v>
+        <v>7.750519962842266</v>
       </c>
       <c r="I27" t="n">
-        <v>8.72089521931531</v>
+        <v>7.266509286601541</v>
       </c>
       <c r="J27" t="n">
-        <v>9.236307938906293</v>
+        <v>7.695875475383361</v>
       </c>
       <c r="K27" t="n">
-        <v>8.430967040825596</v>
+        <v>7.024816083512663</v>
       </c>
       <c r="L27" t="n">
-        <v>9.067043695608687</v>
+        <v>7.554851573589385</v>
       </c>
       <c r="M27" t="n">
-        <v>8.77776893037243</v>
+        <v>7.313839457769667</v>
       </c>
       <c r="N27" t="n">
-        <v>9.199172141807939</v>
+        <v>7.66490074834194</v>
       </c>
       <c r="O27" t="n">
-        <v>8.430289459050217</v>
+        <v>7.024325585606044</v>
       </c>
       <c r="P27" t="n">
-        <v>9.475788643686286</v>
+        <v>7.895251367141549</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.247453727530557</v>
+        <v>6.871903001521749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.774370663557558</v>
+        <v>7.311007227921773</v>
       </c>
       <c r="B28" t="n">
-        <v>8.80729595887208</v>
+        <v>7.338449219307313</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793195352652182</v>
+        <v>7.32669956490786</v>
       </c>
       <c r="D28" t="n">
-        <v>8.930063418633111</v>
+        <v>7.440742485812105</v>
       </c>
       <c r="E28" t="n">
-        <v>8.878573245834652</v>
+        <v>7.397837583880671</v>
       </c>
       <c r="F28" t="n">
-        <v>9.102835550255744</v>
+        <v>7.584672695583568</v>
       </c>
       <c r="G28" t="n">
-        <v>8.815069591316767</v>
+        <v>7.344878913273839</v>
       </c>
       <c r="H28" t="n">
-        <v>9.222263438183719</v>
+        <v>7.684266785191674</v>
       </c>
       <c r="I28" t="n">
-        <v>8.659180898581329</v>
+        <v>7.214976799790639</v>
       </c>
       <c r="J28" t="n">
-        <v>9.195221451634795</v>
+        <v>7.661800254976203</v>
       </c>
       <c r="K28" t="n">
-        <v>8.344784681127642</v>
+        <v>6.953026464681499</v>
       </c>
       <c r="L28" t="n">
-        <v>9.006304747366656</v>
+        <v>7.504279225642612</v>
       </c>
       <c r="M28" t="n">
-        <v>8.736765306604674</v>
+        <v>7.279669302283809</v>
       </c>
       <c r="N28" t="n">
-        <v>9.157847421963188</v>
+        <v>7.63069103657329</v>
       </c>
       <c r="O28" t="n">
-        <v>8.321676984683416</v>
+        <v>6.93385245560459</v>
       </c>
       <c r="P28" t="n">
-        <v>9.458741204114604</v>
+        <v>7.881508076089387</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.120197827983567</v>
+        <v>6.765885690793392</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.734505549804743</v>
+        <v>7.277806560966885</v>
       </c>
       <c r="B29" t="n">
-        <v>8.772407834312698</v>
+        <v>7.309401242840425</v>
       </c>
       <c r="C29" t="n">
-        <v>8.755012540657605</v>
+        <v>7.294929396979752</v>
       </c>
       <c r="D29" t="n">
-        <v>8.920212156464421</v>
+        <v>7.432629851814074</v>
       </c>
       <c r="E29" t="n">
-        <v>8.859114133039514</v>
+        <v>7.381753999297517</v>
       </c>
       <c r="F29" t="n">
-        <v>9.083462753610334</v>
+        <v>7.568577603718147</v>
       </c>
       <c r="G29" t="n">
-        <v>8.753876620127157</v>
+        <v>7.29405412432234</v>
       </c>
       <c r="H29" t="n">
-        <v>9.287250867315462</v>
+        <v>7.738311455562427</v>
       </c>
       <c r="I29" t="n">
-        <v>8.534960738020343</v>
+        <v>7.111537839495169</v>
       </c>
       <c r="J29" t="n">
-        <v>9.162059650070013</v>
+        <v>7.634060512662011</v>
       </c>
       <c r="K29" t="n">
-        <v>8.214858159908005</v>
+        <v>6.844813420655625</v>
       </c>
       <c r="L29" t="n">
-        <v>8.951037379856011</v>
+        <v>7.458199033010707</v>
       </c>
       <c r="M29" t="n">
-        <v>8.65106286469922</v>
+        <v>7.208339974743313</v>
       </c>
       <c r="N29" t="n">
-        <v>9.133210203345744</v>
+        <v>7.609831210644308</v>
       </c>
       <c r="O29" t="n">
-        <v>8.253067729908999</v>
+        <v>6.876763389869151</v>
       </c>
       <c r="P29" t="n">
-        <v>9.438463814220025</v>
+        <v>7.863992554069168</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.983062181938475</v>
+        <v>6.651791706324087</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.646840278654427</v>
+        <v>7.204743949034966</v>
       </c>
       <c r="B30" t="n">
-        <v>8.701203916077397</v>
+        <v>7.250038050447026</v>
       </c>
       <c r="C30" t="n">
-        <v>8.668386515950038</v>
+        <v>7.222700343807028</v>
       </c>
       <c r="D30" t="n">
-        <v>8.85822939250478</v>
+        <v>7.380890233922371</v>
       </c>
       <c r="E30" t="n">
-        <v>8.724123443315213</v>
+        <v>7.269168188010293</v>
       </c>
       <c r="F30" t="n">
-        <v>9.030453416576629</v>
+        <v>7.524398270275674</v>
       </c>
       <c r="G30" t="n">
-        <v>8.598137254330751</v>
+        <v>7.164172867788249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.241248675316839</v>
+        <v>7.699958402972618</v>
       </c>
       <c r="I30" t="n">
-        <v>8.29130405791641</v>
+        <v>6.908609793542275</v>
       </c>
       <c r="J30" t="n">
-        <v>9.106251080300561</v>
+        <v>7.587432285712154</v>
       </c>
       <c r="K30" t="n">
-        <v>7.968113087966731</v>
+        <v>6.639353772604056</v>
       </c>
       <c r="L30" t="n">
-        <v>8.921146960365999</v>
+        <v>7.433301589416393</v>
       </c>
       <c r="M30" t="n">
-        <v>8.560503413048455</v>
+        <v>7.132788193816077</v>
       </c>
       <c r="N30" t="n">
-        <v>9.10932738787694</v>
+        <v>7.590154477173373</v>
       </c>
       <c r="O30" t="n">
-        <v>8.171521410613046</v>
+        <v>6.808722987441509</v>
       </c>
       <c r="P30" t="n">
-        <v>9.480333188969572</v>
+        <v>7.899173192779073</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.794560658350537</v>
+        <v>6.494561235867732</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8.566416069304964</v>
+        <v>7.137709714600521</v>
       </c>
       <c r="B31" t="n">
-        <v>8.616413835874589</v>
+        <v>7.179364637995733</v>
       </c>
       <c r="C31" t="n">
-        <v>8.57378660533041</v>
+        <v>7.143845972869244</v>
       </c>
       <c r="D31" t="n">
-        <v>8.759973129782589</v>
+        <v>7.298956945773101</v>
       </c>
       <c r="E31" t="n">
-        <v>8.617353818745149</v>
+        <v>7.18015144842072</v>
       </c>
       <c r="F31" t="n">
-        <v>8.916147528973633</v>
+        <v>7.429098554568476</v>
       </c>
       <c r="G31" t="n">
-        <v>8.515746763090437</v>
+        <v>7.095529771451889</v>
       </c>
       <c r="H31" t="n">
-        <v>9.226290086568625</v>
+        <v>7.687614685126145</v>
       </c>
       <c r="I31" t="n">
-        <v>8.203570597007808</v>
+        <v>6.835450088916231</v>
       </c>
       <c r="J31" t="n">
-        <v>9.205008839852685</v>
+        <v>7.669791343305293</v>
       </c>
       <c r="K31" t="n">
-        <v>7.84939385562804</v>
+        <v>6.540421351726286</v>
       </c>
       <c r="L31" t="n">
-        <v>8.857445641865231</v>
+        <v>7.380229284397177</v>
       </c>
       <c r="M31" t="n">
-        <v>8.525630825396023</v>
+        <v>7.103783369657688</v>
       </c>
       <c r="N31" t="n">
-        <v>9.044774128978338</v>
+        <v>7.536398927269571</v>
       </c>
       <c r="O31" t="n">
-        <v>8.087521123180267</v>
+        <v>6.738752957618769</v>
       </c>
       <c r="P31" t="n">
-        <v>9.428100697283437</v>
+        <v>7.855884954507128</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.785941127638496</v>
+        <v>6.487394356630995</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.464706297432073</v>
+        <v>7.052961457526756</v>
       </c>
       <c r="B32" t="n">
-        <v>8.511517271753666</v>
+        <v>7.091974021231475</v>
       </c>
       <c r="C32" t="n">
-        <v>8.468955641483282</v>
+        <v>7.05649994682377</v>
       </c>
       <c r="D32" t="n">
-        <v>8.649792290975194</v>
+        <v>7.207200034593767</v>
       </c>
       <c r="E32" t="n">
-        <v>8.503720333948552</v>
+        <v>7.085464495494224</v>
       </c>
       <c r="F32" t="n">
-        <v>8.800401887993143</v>
+        <v>7.332696297379099</v>
       </c>
       <c r="G32" t="n">
-        <v>8.417725280295512</v>
+        <v>7.01379498392172</v>
       </c>
       <c r="H32" t="n">
-        <v>9.106639502974346</v>
+        <v>7.587824971719505</v>
       </c>
       <c r="I32" t="n">
-        <v>8.124423003512851</v>
+        <v>6.769403323141297</v>
       </c>
       <c r="J32" t="n">
-        <v>9.199542438090281</v>
+        <v>7.665269700579616</v>
       </c>
       <c r="K32" t="n">
-        <v>7.772335112956551</v>
+        <v>6.476053929957151</v>
       </c>
       <c r="L32" t="n">
-        <v>8.753238743780651</v>
+        <v>7.293447834387913</v>
       </c>
       <c r="M32" t="n">
-        <v>8.433148249929275</v>
+        <v>7.026696085752986</v>
       </c>
       <c r="N32" t="n">
-        <v>8.986109357814319</v>
+        <v>7.487562021329647</v>
       </c>
       <c r="O32" t="n">
-        <v>8.022753800230335</v>
+        <v>6.684773015710767</v>
       </c>
       <c r="P32" t="n">
-        <v>9.407249304993153</v>
+        <v>7.83862762713277</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.732174797971656</v>
+        <v>6.442582841868995</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.923794060887843</v>
+        <v>6.602288816422978</v>
       </c>
       <c r="B33" t="n">
-        <v>7.960821099637537</v>
+        <v>6.633137682564606</v>
       </c>
       <c r="C33" t="n">
-        <v>7.937137674474609</v>
+        <v>6.613420673605738</v>
       </c>
       <c r="D33" t="n">
-        <v>8.106567644779696</v>
+        <v>6.754538791273273</v>
       </c>
       <c r="E33" t="n">
-        <v>8.013687151862692</v>
+        <v>6.677222800133521</v>
       </c>
       <c r="F33" t="n">
-        <v>8.295653528701306</v>
+        <v>6.912070608683988</v>
       </c>
       <c r="G33" t="n">
-        <v>7.914905223788645</v>
+        <v>6.594925594182565</v>
       </c>
       <c r="H33" t="n">
-        <v>8.593953510553336</v>
+        <v>7.160584034131318</v>
       </c>
       <c r="I33" t="n">
-        <v>7.685007337951679</v>
+        <v>6.40341277223825</v>
       </c>
       <c r="J33" t="n">
-        <v>8.760527279463856</v>
+        <v>7.29924103180406</v>
       </c>
       <c r="K33" t="n">
-        <v>7.399599536223327</v>
+        <v>6.16554430209277</v>
       </c>
       <c r="L33" t="n">
-        <v>8.299572281899049</v>
+        <v>6.915348745719718</v>
       </c>
       <c r="M33" t="n">
-        <v>7.991301921591704</v>
+        <v>6.658550796245497</v>
       </c>
       <c r="N33" t="n">
-        <v>8.554380145386606</v>
+        <v>7.127676802874231</v>
       </c>
       <c r="O33" t="n">
-        <v>7.63041582589342</v>
+        <v>6.357864072206039</v>
       </c>
       <c r="P33" t="n">
-        <v>8.834135102469139</v>
+        <v>7.360838075367485</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.648381669298231</v>
+        <v>6.372806997434505</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.868121870634965</v>
+        <v>6.555909434452138</v>
       </c>
       <c r="B34" t="n">
-        <v>7.920624531869756</v>
+        <v>6.5996450183222</v>
       </c>
       <c r="C34" t="n">
-        <v>7.874855393475405</v>
+        <v>6.561522830582868</v>
       </c>
       <c r="D34" t="n">
-        <v>8.075641431492922</v>
+        <v>6.728783335944947</v>
       </c>
       <c r="E34" t="n">
-        <v>7.931974242397759</v>
+        <v>6.60912270367912</v>
       </c>
       <c r="F34" t="n">
-        <v>8.254468641019118</v>
+        <v>6.877758769785221</v>
       </c>
       <c r="G34" t="n">
-        <v>7.880590238463469</v>
+        <v>6.56628828385157</v>
       </c>
       <c r="H34" t="n">
-        <v>8.419089938622744</v>
+        <v>7.014963692276933</v>
       </c>
       <c r="I34" t="n">
-        <v>7.740076178317945</v>
+        <v>6.449335458944129</v>
       </c>
       <c r="J34" t="n">
-        <v>8.548675511050948</v>
+        <v>7.123016353556213</v>
       </c>
       <c r="K34" t="n">
-        <v>7.633129605640933</v>
+        <v>6.360338137893382</v>
       </c>
       <c r="L34" t="n">
-        <v>8.25216572614432</v>
+        <v>6.875868698672914</v>
       </c>
       <c r="M34" t="n">
-        <v>7.937153211381561</v>
+        <v>6.613440811349705</v>
       </c>
       <c r="N34" t="n">
-        <v>8.497333802030026</v>
+        <v>7.080143815856154</v>
       </c>
       <c r="O34" t="n">
-        <v>7.602026444247212</v>
+        <v>6.334328803150046</v>
       </c>
       <c r="P34" t="n">
-        <v>8.740103152114735</v>
+        <v>7.282518793055104</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.606089345415005</v>
+        <v>6.337633550776018</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7.882805110865542</v>
+        <v>6.568230856939219</v>
       </c>
       <c r="B35" t="n">
-        <v>7.933647049379527</v>
+        <v>6.610571182834443</v>
       </c>
       <c r="C35" t="n">
-        <v>7.88251163595646</v>
+        <v>6.567982011960201</v>
       </c>
       <c r="D35" t="n">
-        <v>8.085530672767492</v>
+        <v>6.737092312946655</v>
       </c>
       <c r="E35" t="n">
-        <v>7.924788422932734</v>
+        <v>6.60319429569634</v>
       </c>
       <c r="F35" t="n">
-        <v>8.266657344522496</v>
+        <v>6.888008881464295</v>
       </c>
       <c r="G35" t="n">
-        <v>7.864893646635062</v>
+        <v>6.553345468122086</v>
       </c>
       <c r="H35" t="n">
-        <v>8.40806995578671</v>
+        <v>7.005758585668705</v>
       </c>
       <c r="I35" t="n">
-        <v>7.752020607117586</v>
+        <v>6.459263366719735</v>
       </c>
       <c r="J35" t="n">
-        <v>8.508495343351617</v>
+        <v>7.089533038980649</v>
       </c>
       <c r="K35" t="n">
-        <v>7.747456209119862</v>
+        <v>6.455409146365528</v>
       </c>
       <c r="L35" t="n">
-        <v>8.226150038615687</v>
+        <v>6.854265933832588</v>
       </c>
       <c r="M35" t="n">
-        <v>7.894848803237373</v>
+        <v>6.578271679922067</v>
       </c>
       <c r="N35" t="n">
-        <v>8.435330322194449</v>
+        <v>7.028518551581977</v>
       </c>
       <c r="O35" t="n">
-        <v>7.587824848132129</v>
+        <v>6.322351160720683</v>
       </c>
       <c r="P35" t="n">
-        <v>8.659806690666873</v>
+        <v>7.215683059239759</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.599562118172419</v>
+        <v>6.33197412551622</v>
       </c>
     </row>
   </sheetData>
@@ -6113,1804 +6113,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.97490595316011</v>
+        <v>2.478525478426498</v>
       </c>
       <c r="B2" t="n">
-        <v>2.93253508158063</v>
+        <v>2.443235880137631</v>
       </c>
       <c r="C2" t="n">
-        <v>2.928820897657746</v>
+        <v>2.440137544387319</v>
       </c>
       <c r="D2" t="n">
-        <v>2.947104600283937</v>
+        <v>2.455475852642418</v>
       </c>
       <c r="E2" t="n">
-        <v>2.948038972604765</v>
+        <v>2.456241806118296</v>
       </c>
       <c r="F2" t="n">
-        <v>3.240009606987465</v>
+        <v>2.699597631693429</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2146438800663</v>
+        <v>2.678484285952009</v>
       </c>
       <c r="H2" t="n">
-        <v>3.613194675070407</v>
+        <v>3.010572045880613</v>
       </c>
       <c r="I2" t="n">
-        <v>3.524715658418511</v>
+        <v>2.936842550981081</v>
       </c>
       <c r="J2" t="n">
-        <v>3.888696619665365</v>
+        <v>3.240119132735692</v>
       </c>
       <c r="K2" t="n">
-        <v>3.507130037653262</v>
+        <v>2.922196118072268</v>
       </c>
       <c r="L2" t="n">
-        <v>3.823970728467303</v>
+        <v>3.186139910032831</v>
       </c>
       <c r="M2" t="n">
-        <v>3.784811680819278</v>
+        <v>3.153526474076116</v>
       </c>
       <c r="N2" t="n">
-        <v>4.22480005403391</v>
+        <v>3.52012295531102</v>
       </c>
       <c r="O2" t="n">
-        <v>4.085386093216695</v>
+        <v>3.404046841471275</v>
       </c>
       <c r="P2" t="n">
-        <v>4.581201162592221</v>
+        <v>3.817130945050839</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.535635298730484</v>
+        <v>3.779170578468383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.918349669743622</v>
+        <v>2.431652002523331</v>
       </c>
       <c r="B3" t="n">
-        <v>2.881525473945794</v>
+        <v>2.400970711179711</v>
       </c>
       <c r="C3" t="n">
-        <v>2.877756910848581</v>
+        <v>2.397833178749178</v>
       </c>
       <c r="D3" t="n">
-        <v>2.929165299095169</v>
+        <v>2.440656091294462</v>
       </c>
       <c r="E3" t="n">
-        <v>2.924526237627929</v>
+        <v>2.436804927562108</v>
       </c>
       <c r="F3" t="n">
-        <v>3.245317402824739</v>
+        <v>2.704080077738884</v>
       </c>
       <c r="G3" t="n">
-        <v>3.220269535124955</v>
+        <v>2.683248660412998</v>
       </c>
       <c r="H3" t="n">
-        <v>3.627807783429328</v>
+        <v>3.022761674025484</v>
       </c>
       <c r="I3" t="n">
-        <v>3.528265194285785</v>
+        <v>2.93983192715243</v>
       </c>
       <c r="J3" t="n">
-        <v>3.883689419819526</v>
+        <v>3.236025417069309</v>
       </c>
       <c r="K3" t="n">
-        <v>3.537021751885522</v>
+        <v>2.946993771953175</v>
       </c>
       <c r="L3" t="n">
-        <v>3.829849289844668</v>
+        <v>3.191055317573571</v>
       </c>
       <c r="M3" t="n">
-        <v>3.792498133952738</v>
+        <v>3.159952212414362</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2107188689477</v>
+        <v>3.508468595592837</v>
       </c>
       <c r="O3" t="n">
-        <v>4.113686569228681</v>
+        <v>3.427646119784875</v>
       </c>
       <c r="P3" t="n">
-        <v>4.601383604722098</v>
+        <v>3.833994867212705</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.536628366033128</v>
+        <v>3.780049087548932</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.922723309050443</v>
+        <v>2.435363640458202</v>
       </c>
       <c r="B4" t="n">
-        <v>2.886566552880402</v>
+        <v>2.40524386852894</v>
       </c>
       <c r="C4" t="n">
-        <v>2.879828498442101</v>
+        <v>2.399623280346793</v>
       </c>
       <c r="D4" t="n">
-        <v>2.943797181216656</v>
+        <v>2.452946587960452</v>
       </c>
       <c r="E4" t="n">
-        <v>2.935197071638304</v>
+        <v>2.44575795276818</v>
       </c>
       <c r="F4" t="n">
-        <v>3.26405814946375</v>
+        <v>2.719786978629089</v>
       </c>
       <c r="G4" t="n">
-        <v>3.239076960989632</v>
+        <v>2.698975159643314</v>
       </c>
       <c r="H4" t="n">
-        <v>3.631909958445247</v>
+        <v>3.026286138822235</v>
       </c>
       <c r="I4" t="n">
-        <v>3.542394716415843</v>
+        <v>2.951689102720564</v>
       </c>
       <c r="J4" t="n">
-        <v>3.888948662822577</v>
+        <v>3.240396386317805</v>
       </c>
       <c r="K4" t="n">
-        <v>3.582747947995383</v>
+        <v>2.985315898721892</v>
       </c>
       <c r="L4" t="n">
-        <v>3.831888077301291</v>
+        <v>3.192779611900723</v>
       </c>
       <c r="M4" t="n">
-        <v>3.799639500600652</v>
+        <v>3.165911546218235</v>
       </c>
       <c r="N4" t="n">
-        <v>4.206248123972434</v>
+        <v>3.50460574477693</v>
       </c>
       <c r="O4" t="n">
-        <v>4.135150374601301</v>
+        <v>3.445400058309557</v>
       </c>
       <c r="P4" t="n">
-        <v>4.59230573525499</v>
+        <v>3.826308721863684</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.561099426062341</v>
+        <v>3.80028716063294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.971682260758067</v>
+        <v>2.476288390833335</v>
       </c>
       <c r="B5" t="n">
-        <v>2.936847652211517</v>
+        <v>2.447273857405534</v>
       </c>
       <c r="C5" t="n">
-        <v>2.930382572596737</v>
+        <v>2.441881796657153</v>
       </c>
       <c r="D5" t="n">
-        <v>2.992917759914651</v>
+        <v>2.493988748574962</v>
       </c>
       <c r="E5" t="n">
-        <v>2.983793279726688</v>
+        <v>2.486369129701545</v>
       </c>
       <c r="F5" t="n">
-        <v>3.291139194070426</v>
+        <v>2.742395731661325</v>
       </c>
       <c r="G5" t="n">
-        <v>3.286759728423498</v>
+        <v>2.738749721195632</v>
       </c>
       <c r="H5" t="n">
-        <v>3.653057415129106</v>
+        <v>3.043845532356095</v>
       </c>
       <c r="I5" t="n">
-        <v>3.583548961864877</v>
+        <v>2.985938370772006</v>
       </c>
       <c r="J5" t="n">
-        <v>3.897044686086506</v>
+        <v>3.247084994135331</v>
       </c>
       <c r="K5" t="n">
-        <v>3.60736035071978</v>
+        <v>3.005690980385388</v>
       </c>
       <c r="L5" t="n">
-        <v>3.838070471525705</v>
+        <v>3.197972992228719</v>
       </c>
       <c r="M5" t="n">
-        <v>3.819152560989373</v>
+        <v>3.182211251946461</v>
       </c>
       <c r="N5" t="n">
-        <v>4.17519675226855</v>
+        <v>3.478737374241362</v>
       </c>
       <c r="O5" t="n">
-        <v>4.155058331375035</v>
+        <v>3.461995357351009</v>
       </c>
       <c r="P5" t="n">
-        <v>4.593023885620743</v>
+        <v>3.82684560850194</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.56360647863125</v>
+        <v>3.802324309196719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.01343359817286</v>
+        <v>2.511043080298085</v>
       </c>
       <c r="B6" t="n">
-        <v>2.978067282143972</v>
+        <v>2.481573469816893</v>
       </c>
       <c r="C6" t="n">
-        <v>2.972943771286372</v>
+        <v>2.477312538955072</v>
       </c>
       <c r="D6" t="n">
-        <v>3.026484600012041</v>
+        <v>2.521902358732153</v>
       </c>
       <c r="E6" t="n">
-        <v>3.021971775913781</v>
+        <v>2.518161053585188</v>
       </c>
       <c r="F6" t="n">
-        <v>3.311144903883731</v>
+        <v>2.759070682672217</v>
       </c>
       <c r="G6" t="n">
-        <v>3.312475683122193</v>
+        <v>2.760198036731784</v>
       </c>
       <c r="H6" t="n">
-        <v>3.653581354157968</v>
+        <v>3.044402556738318</v>
       </c>
       <c r="I6" t="n">
-        <v>3.598444971404538</v>
+        <v>2.99841154554398</v>
       </c>
       <c r="J6" t="n">
-        <v>3.896280788161395</v>
+        <v>3.246393478391616</v>
       </c>
       <c r="K6" t="n">
-        <v>3.639807886145546</v>
+        <v>3.032682389749672</v>
       </c>
       <c r="L6" t="n">
-        <v>3.862627847704649</v>
+        <v>3.218602672512366</v>
       </c>
       <c r="M6" t="n">
-        <v>3.848226429702941</v>
+        <v>3.206612084390453</v>
       </c>
       <c r="N6" t="n">
-        <v>4.190030182599656</v>
+        <v>3.49121666225704</v>
       </c>
       <c r="O6" t="n">
-        <v>4.174789340041825</v>
+        <v>3.478588858379608</v>
       </c>
       <c r="P6" t="n">
-        <v>4.576346742331403</v>
+        <v>3.813132164463157</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.572898843730437</v>
+        <v>3.810237363767937</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.038213238437358</v>
+        <v>2.531635361914366</v>
       </c>
       <c r="B7" t="n">
-        <v>3.005475464958125</v>
+        <v>2.504368317179536</v>
       </c>
       <c r="C7" t="n">
-        <v>2.999407223841729</v>
+        <v>2.499315541456737</v>
       </c>
       <c r="D7" t="n">
-        <v>3.060536968451663</v>
+        <v>2.550273383359445</v>
       </c>
       <c r="E7" t="n">
-        <v>3.051245898094722</v>
+        <v>2.542532938022227</v>
       </c>
       <c r="F7" t="n">
-        <v>3.34368091336297</v>
+        <v>2.786202876442984</v>
       </c>
       <c r="G7" t="n">
-        <v>3.342675761799364</v>
+        <v>2.785355652786097</v>
       </c>
       <c r="H7" t="n">
-        <v>3.689756452509826</v>
+        <v>3.074472523711519</v>
       </c>
       <c r="I7" t="n">
-        <v>3.623813935181319</v>
+        <v>3.019453330373804</v>
       </c>
       <c r="J7" t="n">
-        <v>3.926565240874926</v>
+        <v>3.271618879530532</v>
       </c>
       <c r="K7" t="n">
-        <v>3.663641501409003</v>
+        <v>3.052501166236087</v>
       </c>
       <c r="L7" t="n">
-        <v>3.877794889954462</v>
+        <v>3.231099221451444</v>
       </c>
       <c r="M7" t="n">
-        <v>3.86547930171098</v>
+        <v>3.220839760105529</v>
       </c>
       <c r="N7" t="n">
-        <v>4.175053467459999</v>
+        <v>3.478735935831079</v>
       </c>
       <c r="O7" t="n">
-        <v>4.172054412837628</v>
+        <v>3.476251801271752</v>
       </c>
       <c r="P7" t="n">
-        <v>4.574153017386014</v>
+        <v>3.81128129003107</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.581966786840326</v>
+        <v>3.817766362793504</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.077670292592326</v>
+        <v>2.564177776363341</v>
       </c>
       <c r="B8" t="n">
-        <v>3.044374916785837</v>
+        <v>2.536434797626012</v>
       </c>
       <c r="C8" t="n">
-        <v>3.038452765752859</v>
+        <v>2.531500510950303</v>
       </c>
       <c r="D8" t="n">
-        <v>3.085519883248776</v>
+        <v>2.570779899762581</v>
       </c>
       <c r="E8" t="n">
-        <v>3.076667083142089</v>
+        <v>2.563404990438617</v>
       </c>
       <c r="F8" t="n">
-        <v>3.361339902855489</v>
+        <v>2.800680296143505</v>
       </c>
       <c r="G8" t="n">
-        <v>3.341100707857165</v>
+        <v>2.783845501789877</v>
       </c>
       <c r="H8" t="n">
-        <v>3.724197459413607</v>
+        <v>3.103134287017332</v>
       </c>
       <c r="I8" t="n">
-        <v>3.643479775155062</v>
+        <v>3.035858399655285</v>
       </c>
       <c r="J8" t="n">
-        <v>3.954649063351091</v>
+        <v>3.295255556511499</v>
       </c>
       <c r="K8" t="n">
-        <v>3.685753541066095</v>
+        <v>3.071127140995044</v>
       </c>
       <c r="L8" t="n">
-        <v>3.896968296293994</v>
+        <v>3.247060900763086</v>
       </c>
       <c r="M8" t="n">
-        <v>3.87177822273753</v>
+        <v>3.226080967575445</v>
       </c>
       <c r="N8" t="n">
-        <v>4.246231922431129</v>
+        <v>3.538038355390007</v>
       </c>
       <c r="O8" t="n">
-        <v>4.173328439207643</v>
+        <v>3.477309032830007</v>
       </c>
       <c r="P8" t="n">
-        <v>4.577707516431897</v>
+        <v>3.814293321164382</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.598140275395991</v>
+        <v>3.831232040660982</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.993541178306076</v>
+        <v>2.494216916406157</v>
       </c>
       <c r="B9" t="n">
-        <v>2.960246234080335</v>
+        <v>2.466471060848261</v>
       </c>
       <c r="C9" t="n">
-        <v>2.95366462766342</v>
+        <v>2.460985143828892</v>
       </c>
       <c r="D9" t="n">
-        <v>3.018475540268966</v>
+        <v>2.514996910564413</v>
       </c>
       <c r="E9" t="n">
-        <v>3.008764110262839</v>
+        <v>2.506906931528344</v>
       </c>
       <c r="F9" t="n">
-        <v>3.321832353752929</v>
+        <v>2.767806867528077</v>
       </c>
       <c r="G9" t="n">
-        <v>3.301359673569585</v>
+        <v>2.750764402689791</v>
       </c>
       <c r="H9" t="n">
-        <v>3.695348444270086</v>
+        <v>3.079090180323608</v>
       </c>
       <c r="I9" t="n">
-        <v>3.618798319510881</v>
+        <v>3.01530747233465</v>
       </c>
       <c r="J9" t="n">
-        <v>3.942738297849843</v>
+        <v>3.285159354732743</v>
       </c>
       <c r="K9" t="n">
-        <v>3.678608721772191</v>
+        <v>3.065069276086762</v>
       </c>
       <c r="L9" t="n">
-        <v>3.881824559404608</v>
+        <v>3.234421949205957</v>
       </c>
       <c r="M9" t="n">
-        <v>3.856310368705907</v>
+        <v>3.213175550513328</v>
       </c>
       <c r="N9" t="n">
-        <v>4.242325253494347</v>
+        <v>3.534852636214981</v>
       </c>
       <c r="O9" t="n">
-        <v>4.159993025655102</v>
+        <v>3.466270312713092</v>
       </c>
       <c r="P9" t="n">
-        <v>4.58163964863285</v>
+        <v>3.817511404570782</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.602554051712437</v>
+        <v>3.834957882897401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.974120044616818</v>
+        <v>2.478286342716893</v>
       </c>
       <c r="B10" t="n">
-        <v>2.940044370816769</v>
+        <v>2.449902911800907</v>
       </c>
       <c r="C10" t="n">
-        <v>2.935834516404061</v>
+        <v>2.446393909914701</v>
       </c>
       <c r="D10" t="n">
-        <v>3.00266975851115</v>
+        <v>2.502094550124148</v>
       </c>
       <c r="E10" t="n">
-        <v>2.999406576470606</v>
+        <v>2.49937038084879</v>
       </c>
       <c r="F10" t="n">
-        <v>3.312989264213087</v>
+        <v>2.760602050220117</v>
       </c>
       <c r="G10" t="n">
-        <v>3.292939317373046</v>
+        <v>2.743927998215652</v>
       </c>
       <c r="H10" t="n">
-        <v>3.670084570405602</v>
+        <v>3.058092986212568</v>
       </c>
       <c r="I10" t="n">
-        <v>3.597290708692274</v>
+        <v>2.997459138135124</v>
       </c>
       <c r="J10" t="n">
-        <v>3.898977304678961</v>
+        <v>3.248800658000784</v>
       </c>
       <c r="K10" t="n">
-        <v>3.669959843569242</v>
+        <v>3.05788729354205</v>
       </c>
       <c r="L10" t="n">
-        <v>3.866040788264974</v>
+        <v>3.221292859344781</v>
       </c>
       <c r="M10" t="n">
-        <v>3.840498113236862</v>
+        <v>3.200026682510756</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2181528473432</v>
+        <v>3.514513874411139</v>
       </c>
       <c r="O10" t="n">
-        <v>4.149053316838317</v>
+        <v>3.457016300155232</v>
       </c>
       <c r="P10" t="n">
-        <v>4.57196749247485</v>
+        <v>3.809292328211784</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.60037241102801</v>
+        <v>3.832950940949572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.058695197606799</v>
+        <v>2.548528411884469</v>
       </c>
       <c r="B11" t="n">
-        <v>3.017901753663635</v>
+        <v>2.514531944440324</v>
       </c>
       <c r="C11" t="n">
-        <v>3.011682459285212</v>
+        <v>2.509352049208735</v>
       </c>
       <c r="D11" t="n">
-        <v>3.03036817937877</v>
+        <v>2.524874653781387</v>
       </c>
       <c r="E11" t="n">
-        <v>3.025695670403509</v>
+        <v>2.520983034759814</v>
       </c>
       <c r="F11" t="n">
-        <v>3.309653792397144</v>
+        <v>2.757554957836149</v>
       </c>
       <c r="G11" t="n">
-        <v>3.279721509574511</v>
+        <v>2.732637196696583</v>
       </c>
       <c r="H11" t="n">
-        <v>3.642424128643863</v>
+        <v>3.034879201854902</v>
       </c>
       <c r="I11" t="n">
-        <v>3.570726913612855</v>
+        <v>2.975158564506093</v>
       </c>
       <c r="J11" t="n">
-        <v>3.855726871533732</v>
+        <v>3.212729643325493</v>
       </c>
       <c r="K11" t="n">
-        <v>3.662380422461447</v>
+        <v>3.051531677705117</v>
       </c>
       <c r="L11" t="n">
-        <v>3.860025415790288</v>
+        <v>3.21614874456899</v>
       </c>
       <c r="M11" t="n">
-        <v>3.829249824184792</v>
+        <v>3.190522746166164</v>
       </c>
       <c r="N11" t="n">
-        <v>4.255684835568814</v>
+        <v>3.545844607997687</v>
       </c>
       <c r="O11" t="n">
-        <v>4.164567350010045</v>
+        <v>3.469973499987549</v>
       </c>
       <c r="P11" t="n">
-        <v>4.580732897479935</v>
+        <v>3.816722796132942</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.605287684174387</v>
+        <v>3.837147143348643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.90621815068944</v>
+        <v>2.421244205116947</v>
       </c>
       <c r="B12" t="n">
-        <v>2.872766326861564</v>
+        <v>2.39336026217185</v>
       </c>
       <c r="C12" t="n">
-        <v>2.864915873043617</v>
+        <v>2.386815315581372</v>
       </c>
       <c r="D12" t="n">
-        <v>2.932335475484379</v>
+        <v>2.443009330518005</v>
       </c>
       <c r="E12" t="n">
-        <v>2.923102021157383</v>
+        <v>2.435303407027587</v>
       </c>
       <c r="F12" t="n">
-        <v>3.247878402987229</v>
+        <v>2.706005749505704</v>
       </c>
       <c r="G12" t="n">
-        <v>3.228878707899028</v>
+        <v>2.690188990030109</v>
       </c>
       <c r="H12" t="n">
-        <v>3.604402512058905</v>
+        <v>3.003238850454866</v>
       </c>
       <c r="I12" t="n">
-        <v>3.553588410503208</v>
+        <v>2.960861665296131</v>
       </c>
       <c r="J12" t="n">
-        <v>3.838630663337453</v>
+        <v>3.198463490135337</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65237508596549</v>
+        <v>3.043174873561489</v>
       </c>
       <c r="L12" t="n">
-        <v>3.835951841630581</v>
+        <v>3.196146211168878</v>
       </c>
       <c r="M12" t="n">
-        <v>3.80878469666455</v>
+        <v>3.173524692245377</v>
       </c>
       <c r="N12" t="n">
-        <v>4.22608530150339</v>
+        <v>3.521143507407049</v>
       </c>
       <c r="O12" t="n">
-        <v>4.151620790712037</v>
+        <v>3.459172117567386</v>
       </c>
       <c r="P12" t="n">
-        <v>4.571588564577535</v>
+        <v>3.809070813028149</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.613138569573082</v>
+        <v>3.843700180996964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.874655355798406</v>
+        <v>2.395260222354856</v>
       </c>
       <c r="B13" t="n">
-        <v>2.842110714704194</v>
+        <v>2.368149784539625</v>
       </c>
       <c r="C13" t="n">
-        <v>2.832631475140841</v>
+        <v>2.360247877648102</v>
       </c>
       <c r="D13" t="n">
-        <v>2.908677945166371</v>
+        <v>2.4236170426806</v>
       </c>
       <c r="E13" t="n">
-        <v>2.889790461072819</v>
+        <v>2.407881013982157</v>
       </c>
       <c r="F13" t="n">
-        <v>3.215500136271622</v>
+        <v>2.679244126184182</v>
       </c>
       <c r="G13" t="n">
-        <v>3.200670374376879</v>
+        <v>2.66690939840198</v>
       </c>
       <c r="H13" t="n">
-        <v>3.580757497582608</v>
+        <v>2.983634217299383</v>
       </c>
       <c r="I13" t="n">
-        <v>3.523487595398227</v>
+        <v>2.935906145886627</v>
       </c>
       <c r="J13" t="n">
-        <v>3.83652454928404</v>
+        <v>3.196582768689872</v>
       </c>
       <c r="K13" t="n">
-        <v>3.652426875655328</v>
+        <v>3.04322737553683</v>
       </c>
       <c r="L13" t="n">
-        <v>3.816861730375538</v>
+        <v>3.180421509951417</v>
       </c>
       <c r="M13" t="n">
-        <v>3.796154917636051</v>
+        <v>3.163164182577058</v>
       </c>
       <c r="N13" t="n">
-        <v>4.204219262873028</v>
+        <v>3.503148275557337</v>
       </c>
       <c r="O13" t="n">
-        <v>4.158523061625199</v>
+        <v>3.465076432177921</v>
       </c>
       <c r="P13" t="n">
-        <v>4.584422481300146</v>
+        <v>3.819989066283834</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.598128622715778</v>
+        <v>3.831322300906261</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.880308200444226</v>
+        <v>2.400008774302728</v>
       </c>
       <c r="B14" t="n">
-        <v>2.846251516197118</v>
+        <v>2.371639367887005</v>
       </c>
       <c r="C14" t="n">
-        <v>2.839977195273241</v>
+        <v>2.366422253789334</v>
       </c>
       <c r="D14" t="n">
-        <v>2.903816403823201</v>
+        <v>2.419603877990084</v>
       </c>
       <c r="E14" t="n">
-        <v>2.897773194390227</v>
+        <v>2.414589040338508</v>
       </c>
       <c r="F14" t="n">
-        <v>3.20594709640025</v>
+        <v>2.671322081548693</v>
       </c>
       <c r="G14" t="n">
-        <v>3.186457988743079</v>
+        <v>2.65510112878348</v>
       </c>
       <c r="H14" t="n">
-        <v>3.560417744269849</v>
+        <v>2.96664856966729</v>
       </c>
       <c r="I14" t="n">
-        <v>3.519200056450762</v>
+        <v>2.93229483706902</v>
       </c>
       <c r="J14" t="n">
-        <v>3.836111526507582</v>
+        <v>3.196348307813687</v>
       </c>
       <c r="K14" t="n">
-        <v>3.638529112387296</v>
+        <v>3.031713620423844</v>
       </c>
       <c r="L14" t="n">
-        <v>3.822455448458793</v>
+        <v>3.184963290421059</v>
       </c>
       <c r="M14" t="n">
-        <v>3.790264703578473</v>
+        <v>3.15815491876533</v>
       </c>
       <c r="N14" t="n">
-        <v>4.229059756023087</v>
+        <v>3.523735522737625</v>
       </c>
       <c r="O14" t="n">
-        <v>4.128510936364066</v>
+        <v>3.439986960810781</v>
       </c>
       <c r="P14" t="n">
-        <v>4.590689033770547</v>
+        <v>3.825098659212824</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.588501782536387</v>
+        <v>3.823250661601305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.883887083802408</v>
+        <v>2.402895843542675</v>
       </c>
       <c r="B15" t="n">
-        <v>2.847111009258054</v>
+        <v>2.372255726693416</v>
       </c>
       <c r="C15" t="n">
-        <v>2.842251194237879</v>
+        <v>2.368210017970239</v>
       </c>
       <c r="D15" t="n">
-        <v>2.896754663823413</v>
+        <v>2.41363321670523</v>
       </c>
       <c r="E15" t="n">
-        <v>2.897925758184875</v>
+        <v>2.414611155896615</v>
       </c>
       <c r="F15" t="n">
-        <v>3.204720328122212</v>
+        <v>2.670231946355208</v>
       </c>
       <c r="G15" t="n">
-        <v>3.184865887361309</v>
+        <v>2.653706230411212</v>
       </c>
       <c r="H15" t="n">
-        <v>3.553954390978063</v>
+        <v>2.961237629783939</v>
       </c>
       <c r="I15" t="n">
-        <v>3.522399364540506</v>
+        <v>2.93490123650243</v>
       </c>
       <c r="J15" t="n">
-        <v>3.860824271756039</v>
+        <v>3.216937353006831</v>
       </c>
       <c r="K15" t="n">
-        <v>3.642179853940127</v>
+        <v>3.034790020417335</v>
       </c>
       <c r="L15" t="n">
-        <v>3.82562497747688</v>
+        <v>3.187564655418478</v>
       </c>
       <c r="M15" t="n">
-        <v>3.787940209666243</v>
+        <v>3.156182858266872</v>
       </c>
       <c r="N15" t="n">
-        <v>4.262431305831713</v>
+        <v>3.551433910756171</v>
       </c>
       <c r="O15" t="n">
-        <v>4.112825134054376</v>
+        <v>3.426876570283289</v>
       </c>
       <c r="P15" t="n">
-        <v>4.577874538181625</v>
+        <v>3.814370276114541</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.575088684449089</v>
+        <v>3.812015238878144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.899115626308904</v>
+        <v>2.415282893498934</v>
       </c>
       <c r="B16" t="n">
-        <v>2.86408378536022</v>
+        <v>2.386085322362578</v>
       </c>
       <c r="C16" t="n">
-        <v>2.855642713287745</v>
+        <v>2.379047180846201</v>
       </c>
       <c r="D16" t="n">
-        <v>2.909307189897903</v>
+        <v>2.423805834030288</v>
       </c>
       <c r="E16" t="n">
-        <v>2.901402141115252</v>
+        <v>2.417210003676037</v>
       </c>
       <c r="F16" t="n">
-        <v>3.215095097739013</v>
+        <v>2.678733130931026</v>
       </c>
       <c r="G16" t="n">
-        <v>3.181584363138947</v>
+        <v>2.6508150257417</v>
       </c>
       <c r="H16" t="n">
-        <v>3.564118549189524</v>
+        <v>2.969751580251022</v>
       </c>
       <c r="I16" t="n">
-        <v>3.527287016518969</v>
+        <v>2.938987760117396</v>
       </c>
       <c r="J16" t="n">
-        <v>3.888319418091045</v>
+        <v>3.240000823489887</v>
       </c>
       <c r="K16" t="n">
-        <v>3.656573503488359</v>
+        <v>3.046765864833844</v>
       </c>
       <c r="L16" t="n">
-        <v>3.827838123555958</v>
+        <v>3.189507947711269</v>
       </c>
       <c r="M16" t="n">
-        <v>3.778347032785248</v>
+        <v>3.14828131097792</v>
       </c>
       <c r="N16" t="n">
-        <v>4.275185811696572</v>
+        <v>3.562185668021559</v>
       </c>
       <c r="O16" t="n">
-        <v>4.095790641905153</v>
+        <v>3.412768282621729</v>
       </c>
       <c r="P16" t="n">
-        <v>4.598591277278331</v>
+        <v>3.831639110771167</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.550256822914003</v>
+        <v>3.791425114877289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.884619907913616</v>
+        <v>2.40349242420769</v>
       </c>
       <c r="B17" t="n">
-        <v>2.842962655102029</v>
+        <v>2.368776392019304</v>
       </c>
       <c r="C17" t="n">
-        <v>2.839468361570583</v>
+        <v>2.365869904240532</v>
       </c>
       <c r="D17" t="n">
-        <v>2.889564312760526</v>
+        <v>2.407590634906208</v>
       </c>
       <c r="E17" t="n">
-        <v>2.894300048315465</v>
+        <v>2.411554534044519</v>
       </c>
       <c r="F17" t="n">
-        <v>3.223513296031809</v>
+        <v>2.685871241962096</v>
       </c>
       <c r="G17" t="n">
-        <v>3.194076036327878</v>
+        <v>2.661348863849163</v>
       </c>
       <c r="H17" t="n">
-        <v>3.584791698630616</v>
+        <v>2.986990388092984</v>
       </c>
       <c r="I17" t="n">
-        <v>3.548408362567534</v>
+        <v>2.956615657941</v>
       </c>
       <c r="J17" t="n">
-        <v>3.933013920421257</v>
+        <v>3.277087355825215</v>
       </c>
       <c r="K17" t="n">
-        <v>3.639876507484581</v>
+        <v>3.032693537429369</v>
       </c>
       <c r="L17" t="n">
-        <v>3.854289707640727</v>
+        <v>3.211477866776417</v>
       </c>
       <c r="M17" t="n">
-        <v>3.806653119346966</v>
+        <v>3.17178529461025</v>
       </c>
       <c r="N17" t="n">
-        <v>4.303913552649722</v>
+        <v>3.586140952880286</v>
       </c>
       <c r="O17" t="n">
-        <v>4.091221064938445</v>
+        <v>3.408909387434102</v>
       </c>
       <c r="P17" t="n">
-        <v>4.575469338669397</v>
+        <v>3.812372683833554</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.582580926245655</v>
+        <v>3.818298214995769</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.911549899258264</v>
+        <v>2.426087871944805</v>
       </c>
       <c r="B18" t="n">
-        <v>2.872706121347127</v>
+        <v>2.393718965736258</v>
       </c>
       <c r="C18" t="n">
-        <v>2.867939096187912</v>
+        <v>2.389757583815943</v>
       </c>
       <c r="D18" t="n">
-        <v>2.921352392802355</v>
+        <v>2.434243838052623</v>
       </c>
       <c r="E18" t="n">
-        <v>2.920474989140349</v>
+        <v>2.433537039199647</v>
       </c>
       <c r="F18" t="n">
-        <v>3.255581471979512</v>
+        <v>2.712688603682097</v>
       </c>
       <c r="G18" t="n">
-        <v>3.217927130611656</v>
+        <v>2.681333417120732</v>
       </c>
       <c r="H18" t="n">
-        <v>3.628244543146962</v>
+        <v>3.023170542148523</v>
       </c>
       <c r="I18" t="n">
-        <v>3.57134580040642</v>
+        <v>2.975731411401433</v>
       </c>
       <c r="J18" t="n">
-        <v>3.981144668672222</v>
+        <v>3.317254603384885</v>
       </c>
       <c r="K18" t="n">
-        <v>3.668298257686939</v>
+        <v>3.056463986566686</v>
       </c>
       <c r="L18" t="n">
-        <v>3.873605535627314</v>
+        <v>3.227540594410463</v>
       </c>
       <c r="M18" t="n">
-        <v>3.826732413677916</v>
+        <v>3.188494228064086</v>
       </c>
       <c r="N18" t="n">
-        <v>4.330187757046796</v>
+        <v>3.608000473956188</v>
       </c>
       <c r="O18" t="n">
-        <v>4.123081650546046</v>
+        <v>3.435412816109764</v>
       </c>
       <c r="P18" t="n">
-        <v>4.599507091626966</v>
+        <v>3.832397872195628</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.622310523643396</v>
+        <v>3.85138812435884</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.111867024792372</v>
+        <v>2.592614967863667</v>
       </c>
       <c r="B19" t="n">
-        <v>3.070489004725162</v>
+        <v>2.558140588602882</v>
       </c>
       <c r="C19" t="n">
-        <v>3.061495077713666</v>
+        <v>2.550648448840826</v>
       </c>
       <c r="D19" t="n">
-        <v>3.056506651630393</v>
+        <v>2.546544304699889</v>
       </c>
       <c r="E19" t="n">
-        <v>3.043515207934526</v>
+        <v>2.535729437183319</v>
       </c>
       <c r="F19" t="n">
-        <v>3.312286866544659</v>
+        <v>2.759797259666589</v>
       </c>
       <c r="G19" t="n">
-        <v>3.27361011038325</v>
+        <v>2.72758693819178</v>
       </c>
       <c r="H19" t="n">
-        <v>3.653524385499146</v>
+        <v>3.044227070683751</v>
       </c>
       <c r="I19" t="n">
-        <v>3.608960004764652</v>
+        <v>3.007037871814449</v>
       </c>
       <c r="J19" t="n">
-        <v>4.013536530181413</v>
+        <v>3.344153594888465</v>
       </c>
       <c r="K19" t="n">
-        <v>3.711471006297411</v>
+        <v>3.092468474766373</v>
       </c>
       <c r="L19" t="n">
-        <v>3.893324028452392</v>
+        <v>3.243953215345932</v>
       </c>
       <c r="M19" t="n">
-        <v>3.850136174515718</v>
+        <v>3.20797210131335</v>
       </c>
       <c r="N19" t="n">
-        <v>4.307403314583308</v>
+        <v>3.588974980741035</v>
       </c>
       <c r="O19" t="n">
-        <v>4.154879656945094</v>
+        <v>3.461958677888784</v>
       </c>
       <c r="P19" t="n">
-        <v>4.604778850471728</v>
+        <v>3.836826377855458</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.603636456230052</v>
+        <v>3.835843584029367</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.211710425717724</v>
+        <v>2.676104076535653</v>
       </c>
       <c r="B20" t="n">
-        <v>3.165375484961892</v>
+        <v>2.637511169031098</v>
       </c>
       <c r="C20" t="n">
-        <v>3.159190069672238</v>
+        <v>2.632357344985895</v>
       </c>
       <c r="D20" t="n">
-        <v>3.12215180982308</v>
+        <v>2.601521064934246</v>
       </c>
       <c r="E20" t="n">
-        <v>3.118206082828546</v>
+        <v>2.598244186507514</v>
       </c>
       <c r="F20" t="n">
-        <v>3.357119690504814</v>
+        <v>2.797273601188702</v>
       </c>
       <c r="G20" t="n">
-        <v>3.327097423096087</v>
+        <v>2.772265400002571</v>
       </c>
       <c r="H20" t="n">
-        <v>3.706800871016267</v>
+        <v>3.088599151104191</v>
       </c>
       <c r="I20" t="n">
-        <v>3.646982484511106</v>
+        <v>3.038733062606538</v>
       </c>
       <c r="J20" t="n">
-        <v>4.06865888656051</v>
+        <v>3.390101453774303</v>
       </c>
       <c r="K20" t="n">
-        <v>3.745217599776614</v>
+        <v>3.120425417033349</v>
       </c>
       <c r="L20" t="n">
-        <v>3.924076314697461</v>
+        <v>3.269641065390941</v>
       </c>
       <c r="M20" t="n">
-        <v>3.8877423946301</v>
+        <v>3.239366124952364</v>
       </c>
       <c r="N20" t="n">
-        <v>4.288532446348579</v>
+        <v>3.57338261326964</v>
       </c>
       <c r="O20" t="n">
-        <v>4.161783654181251</v>
+        <v>3.467741446830377</v>
       </c>
       <c r="P20" t="n">
-        <v>4.599219658848366</v>
+        <v>3.832253671564724</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.60856079257215</v>
+        <v>3.84002396391532</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.09712012640137</v>
+        <v>2.580705470121476</v>
       </c>
       <c r="B21" t="n">
-        <v>3.058690018637815</v>
+        <v>2.548690233041345</v>
       </c>
       <c r="C21" t="n">
-        <v>3.051953043151385</v>
+        <v>2.543084748167173</v>
       </c>
       <c r="D21" t="n">
-        <v>3.097582996754297</v>
+        <v>2.581103010763534</v>
       </c>
       <c r="E21" t="n">
-        <v>3.08957285805935</v>
+        <v>2.574445868170956</v>
       </c>
       <c r="F21" t="n">
-        <v>3.412985228933087</v>
+        <v>2.843904884760412</v>
       </c>
       <c r="G21" t="n">
-        <v>3.37901593978758</v>
+        <v>2.81561153428842</v>
       </c>
       <c r="H21" t="n">
-        <v>3.767967947360959</v>
+        <v>3.139603022135966</v>
       </c>
       <c r="I21" t="n">
-        <v>3.685859278349514</v>
+        <v>3.071182160188382</v>
       </c>
       <c r="J21" t="n">
-        <v>4.103049830097449</v>
+        <v>3.418641671411173</v>
       </c>
       <c r="K21" t="n">
-        <v>3.786892763189269</v>
+        <v>3.155222359800173</v>
       </c>
       <c r="L21" t="n">
-        <v>3.95764207584298</v>
+        <v>3.297691504326334</v>
       </c>
       <c r="M21" t="n">
-        <v>3.919944792190633</v>
+        <v>3.266291727046186</v>
       </c>
       <c r="N21" t="n">
-        <v>4.295694528872429</v>
+        <v>3.579419261626243</v>
       </c>
       <c r="O21" t="n">
-        <v>4.166590600559717</v>
+        <v>3.471833724086477</v>
       </c>
       <c r="P21" t="n">
-        <v>4.607615199151858</v>
+        <v>3.83926124686258</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.615329273453231</v>
+        <v>3.845689862021393</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.249321393220341</v>
+        <v>2.707175716469914</v>
       </c>
       <c r="B22" t="n">
-        <v>3.206405219364942</v>
+        <v>2.671425107685237</v>
       </c>
       <c r="C22" t="n">
-        <v>3.200214625106304</v>
+        <v>2.666259596556482</v>
       </c>
       <c r="D22" t="n">
-        <v>3.196756800148119</v>
+        <v>2.663474834247938</v>
       </c>
       <c r="E22" t="n">
-        <v>3.189708870732287</v>
+        <v>2.657587780560802</v>
       </c>
       <c r="F22" t="n">
-        <v>3.473592976627529</v>
+        <v>2.894204833759777</v>
       </c>
       <c r="G22" t="n">
-        <v>3.414925400188644</v>
+        <v>2.845364331794145</v>
       </c>
       <c r="H22" t="n">
-        <v>3.809326762084854</v>
+        <v>3.174027057036834</v>
       </c>
       <c r="I22" t="n">
-        <v>3.709382155473944</v>
+        <v>3.090770431426891</v>
       </c>
       <c r="J22" t="n">
-        <v>4.156064777680888</v>
+        <v>3.463019505472746</v>
       </c>
       <c r="K22" t="n">
-        <v>3.853120555392634</v>
+        <v>3.210476733219214</v>
       </c>
       <c r="L22" t="n">
-        <v>4.005992067114259</v>
+        <v>3.337819555205782</v>
       </c>
       <c r="M22" t="n">
-        <v>3.954204535179981</v>
+        <v>3.294689542065005</v>
       </c>
       <c r="N22" t="n">
-        <v>4.36659763532592</v>
+        <v>3.638231183278553</v>
       </c>
       <c r="O22" t="n">
-        <v>4.169644465937166</v>
+        <v>3.474240184490503</v>
       </c>
       <c r="P22" t="n">
-        <v>4.615955497119522</v>
+        <v>3.84605521823336</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.619703775921549</v>
+        <v>3.849193469869035</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.210791806094222</v>
+        <v>2.675462006145428</v>
       </c>
       <c r="B23" t="n">
-        <v>3.171904222737098</v>
+        <v>2.643065410538926</v>
       </c>
       <c r="C23" t="n">
-        <v>3.165622780730869</v>
+        <v>2.637827259690862</v>
       </c>
       <c r="D23" t="n">
-        <v>3.186597820905642</v>
+        <v>2.65528632410746</v>
       </c>
       <c r="E23" t="n">
-        <v>3.179442859464145</v>
+        <v>2.649317101232888</v>
       </c>
       <c r="F23" t="n">
-        <v>3.475497974052071</v>
+        <v>2.89591851981109</v>
       </c>
       <c r="G23" t="n">
-        <v>3.424864704830057</v>
+        <v>2.853770581291263</v>
       </c>
       <c r="H23" t="n">
-        <v>3.813402610675106</v>
+        <v>3.177398331138409</v>
       </c>
       <c r="I23" t="n">
-        <v>3.732998254040081</v>
+        <v>3.110418756294731</v>
       </c>
       <c r="J23" t="n">
-        <v>4.193369322851964</v>
+        <v>3.493981286821618</v>
       </c>
       <c r="K23" t="n">
-        <v>3.896943264610573</v>
+        <v>3.247032132557419</v>
       </c>
       <c r="L23" t="n">
-        <v>4.021745627601488</v>
+        <v>3.350923113284429</v>
       </c>
       <c r="M23" t="n">
-        <v>3.970303791846879</v>
+        <v>3.308084737828599</v>
       </c>
       <c r="N23" t="n">
-        <v>4.376028537845424</v>
+        <v>3.646034559065666</v>
       </c>
       <c r="O23" t="n">
-        <v>4.179236779656665</v>
+        <v>3.482198548985647</v>
       </c>
       <c r="P23" t="n">
-        <v>4.631662015305148</v>
+        <v>3.859042624681628</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.625190461979138</v>
+        <v>3.853614064272307</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.172582236093227</v>
+        <v>2.643370713121565</v>
       </c>
       <c r="B24" t="n">
-        <v>3.138133029155222</v>
+        <v>2.614659864064834</v>
       </c>
       <c r="C24" t="n">
-        <v>3.131593070280551</v>
+        <v>2.609211525514117</v>
       </c>
       <c r="D24" t="n">
-        <v>3.18118687726944</v>
+        <v>2.650540469178868</v>
       </c>
       <c r="E24" t="n">
-        <v>3.172790473804451</v>
+        <v>2.643544401163278</v>
       </c>
       <c r="F24" t="n">
-        <v>3.492939015266522</v>
+        <v>2.910338043497707</v>
       </c>
       <c r="G24" t="n">
-        <v>3.435487849167707</v>
+        <v>2.862499753896991</v>
       </c>
       <c r="H24" t="n">
-        <v>3.835505587136477</v>
+        <v>3.195836233752819</v>
       </c>
       <c r="I24" t="n">
-        <v>3.758530571130226</v>
+        <v>3.131692484782743</v>
       </c>
       <c r="J24" t="n">
-        <v>4.210923006641812</v>
+        <v>3.508622145890583</v>
       </c>
       <c r="K24" t="n">
-        <v>3.943554417045541</v>
+        <v>3.285815269821946</v>
       </c>
       <c r="L24" t="n">
-        <v>4.032972337616125</v>
+        <v>3.36037526685882</v>
       </c>
       <c r="M24" t="n">
-        <v>3.976774050430642</v>
+        <v>3.313563282995267</v>
       </c>
       <c r="N24" t="n">
-        <v>4.400231154648977</v>
+        <v>3.666326932137871</v>
       </c>
       <c r="O24" t="n">
-        <v>4.178948915297314</v>
+        <v>3.482014432469379</v>
       </c>
       <c r="P24" t="n">
-        <v>4.613552887091787</v>
+        <v>3.844165506723624</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.627035901260367</v>
+        <v>3.855370722830834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.207904746676127</v>
+        <v>2.672868732205854</v>
       </c>
       <c r="B25" t="n">
-        <v>3.17387158357982</v>
+        <v>2.644504540027407</v>
       </c>
       <c r="C25" t="n">
-        <v>3.16954390762273</v>
+        <v>2.640900063658645</v>
       </c>
       <c r="D25" t="n">
-        <v>3.206926568909311</v>
+        <v>2.672061064831758</v>
       </c>
       <c r="E25" t="n">
-        <v>3.204755717743601</v>
+        <v>2.670259995355733</v>
       </c>
       <c r="F25" t="n">
-        <v>3.496747931163734</v>
+        <v>2.913588491135482</v>
       </c>
       <c r="G25" t="n">
-        <v>3.432921885826608</v>
+        <v>2.860403270909024</v>
       </c>
       <c r="H25" t="n">
-        <v>3.833380915110872</v>
+        <v>3.194096836117691</v>
       </c>
       <c r="I25" t="n">
-        <v>3.752178565671592</v>
+        <v>3.126382952824368</v>
       </c>
       <c r="J25" t="n">
-        <v>4.194536317196313</v>
+        <v>3.494983858789105</v>
       </c>
       <c r="K25" t="n">
-        <v>3.938895934444611</v>
+        <v>3.281945586557193</v>
       </c>
       <c r="L25" t="n">
-        <v>4.029730303032265</v>
+        <v>3.35769119327011</v>
       </c>
       <c r="M25" t="n">
-        <v>3.965603877494078</v>
+        <v>3.304256408859493</v>
       </c>
       <c r="N25" t="n">
-        <v>4.415196648689171</v>
+        <v>3.67886303735974</v>
       </c>
       <c r="O25" t="n">
-        <v>4.159716813975965</v>
+        <v>3.465957458476467</v>
       </c>
       <c r="P25" t="n">
-        <v>4.618517792024258</v>
+        <v>3.848194134324685</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.610237915361405</v>
+        <v>3.841323208003746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.237417101430323</v>
+        <v>2.697593206963596</v>
       </c>
       <c r="B26" t="n">
-        <v>3.203330422321184</v>
+        <v>2.669187480688218</v>
       </c>
       <c r="C26" t="n">
-        <v>3.198414070222935</v>
+        <v>2.665096821643687</v>
       </c>
       <c r="D26" t="n">
-        <v>3.229804017024134</v>
+        <v>2.691244783178079</v>
       </c>
       <c r="E26" t="n">
-        <v>3.226945657725824</v>
+        <v>2.688876440646562</v>
       </c>
       <c r="F26" t="n">
-        <v>3.516530297939612</v>
+        <v>2.930115645489761</v>
       </c>
       <c r="G26" t="n">
-        <v>3.442667194921503</v>
+        <v>2.868596635684208</v>
       </c>
       <c r="H26" t="n">
-        <v>3.842350889390817</v>
+        <v>3.201624756335546</v>
       </c>
       <c r="I26" t="n">
-        <v>3.763598192280876</v>
+        <v>3.135989016299076</v>
       </c>
       <c r="J26" t="n">
-        <v>4.118358862413568</v>
+        <v>3.431568664627541</v>
       </c>
       <c r="K26" t="n">
-        <v>3.920886932964936</v>
+        <v>3.266993671264455</v>
       </c>
       <c r="L26" t="n">
-        <v>4.040042061859763</v>
+        <v>3.366273468225652</v>
       </c>
       <c r="M26" t="n">
-        <v>3.965206391624571</v>
+        <v>3.303948948661429</v>
       </c>
       <c r="N26" t="n">
-        <v>4.44718584535987</v>
+        <v>3.705444140190703</v>
       </c>
       <c r="O26" t="n">
-        <v>4.131871655653805</v>
+        <v>3.442814875427826</v>
       </c>
       <c r="P26" t="n">
-        <v>4.634360689726457</v>
+        <v>3.861440095021383</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.565713455846161</v>
+        <v>3.804239552488985</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.371783941182449</v>
+        <v>2.809467005160567</v>
       </c>
       <c r="B27" t="n">
-        <v>3.330462889774061</v>
+        <v>2.775036857015995</v>
       </c>
       <c r="C27" t="n">
-        <v>3.324500817521833</v>
+        <v>2.770068947499913</v>
       </c>
       <c r="D27" t="n">
-        <v>3.280000310738139</v>
+        <v>2.732996979068703</v>
       </c>
       <c r="E27" t="n">
-        <v>3.277863986032321</v>
+        <v>2.731212810913506</v>
       </c>
       <c r="F27" t="n">
-        <v>3.498160063373317</v>
+        <v>2.914750187240564</v>
       </c>
       <c r="G27" t="n">
-        <v>3.406018220907627</v>
+        <v>2.837993917502315</v>
       </c>
       <c r="H27" t="n">
-        <v>3.793188663150578</v>
+        <v>3.16063653610666</v>
       </c>
       <c r="I27" t="n">
-        <v>3.729050153351429</v>
+        <v>3.107147811310418</v>
       </c>
       <c r="J27" t="n">
-        <v>3.981966829998401</v>
+        <v>3.31794144429518</v>
       </c>
       <c r="K27" t="n">
-        <v>3.872009981599555</v>
+        <v>3.226248901976025</v>
       </c>
       <c r="L27" t="n">
-        <v>4.029811440213011</v>
+        <v>3.357684720423835</v>
       </c>
       <c r="M27" t="n">
-        <v>3.938510101255317</v>
+        <v>3.281630215102571</v>
       </c>
       <c r="N27" t="n">
-        <v>4.523093993755458</v>
+        <v>3.768651484066325</v>
       </c>
       <c r="O27" t="n">
-        <v>4.094188182585414</v>
+        <v>3.411438831917353</v>
       </c>
       <c r="P27" t="n">
-        <v>4.651043011984782</v>
+        <v>3.875265735062266</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.532650917853568</v>
+        <v>3.776727438602131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.24039500859601</v>
+        <v>2.700026457759149</v>
       </c>
       <c r="B28" t="n">
-        <v>3.211199649901697</v>
+        <v>2.675696646822898</v>
       </c>
       <c r="C28" t="n">
-        <v>3.203071905452742</v>
+        <v>2.66891903736909</v>
       </c>
       <c r="D28" t="n">
-        <v>3.24738899041826</v>
+        <v>2.705850401195103</v>
       </c>
       <c r="E28" t="n">
-        <v>3.237608075911601</v>
+        <v>2.697689220850009</v>
       </c>
       <c r="F28" t="n">
-        <v>3.509119193323791</v>
+        <v>2.923909264719724</v>
       </c>
       <c r="G28" t="n">
-        <v>3.422925612526372</v>
+        <v>2.852120544894988</v>
       </c>
       <c r="H28" t="n">
-        <v>3.816060284925294</v>
+        <v>3.179623192244164</v>
       </c>
       <c r="I28" t="n">
-        <v>3.685461792480007</v>
+        <v>3.070922167529668</v>
       </c>
       <c r="J28" t="n">
-        <v>3.981498133305367</v>
+        <v>3.317403478849211</v>
       </c>
       <c r="K28" t="n">
-        <v>3.770112040520254</v>
+        <v>3.141341700565952</v>
       </c>
       <c r="L28" t="n">
-        <v>4.010254358587928</v>
+        <v>3.341478870966597</v>
       </c>
       <c r="M28" t="n">
-        <v>3.929288083818161</v>
+        <v>3.274037206819395</v>
       </c>
       <c r="N28" t="n">
-        <v>4.450649280867788</v>
+        <v>3.70832060115481</v>
       </c>
       <c r="O28" t="n">
-        <v>4.150745544953774</v>
+        <v>3.458471252156829</v>
       </c>
       <c r="P28" t="n">
-        <v>4.643622412592491</v>
+        <v>3.869095674151884</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.51884723918874</v>
+        <v>3.765126659667003</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.234684979500993</v>
+        <v>2.695136042597082</v>
       </c>
       <c r="B29" t="n">
-        <v>3.210264846000121</v>
+        <v>2.674794044370103</v>
       </c>
       <c r="C29" t="n">
-        <v>3.197369213230453</v>
+        <v>2.664028262604452</v>
       </c>
       <c r="D29" t="n">
-        <v>3.260299512723756</v>
+        <v>2.716511718413926</v>
       </c>
       <c r="E29" t="n">
-        <v>3.232003784100004</v>
+        <v>2.692883851695944</v>
       </c>
       <c r="F29" t="n">
-        <v>3.5295232521681</v>
+        <v>2.940868121960291</v>
       </c>
       <c r="G29" t="n">
-        <v>3.410140032847611</v>
+        <v>2.841388925373566</v>
       </c>
       <c r="H29" t="n">
-        <v>3.836807666255154</v>
+        <v>3.196898499747065</v>
       </c>
       <c r="I29" t="n">
-        <v>3.599396391164938</v>
+        <v>2.999169048359444</v>
       </c>
       <c r="J29" t="n">
-        <v>3.970508792702487</v>
+        <v>3.308232894087783</v>
       </c>
       <c r="K29" t="n">
-        <v>3.668731996339332</v>
+        <v>3.05695664208873</v>
       </c>
       <c r="L29" t="n">
-        <v>4.032974495519868</v>
+        <v>3.360297233100949</v>
       </c>
       <c r="M29" t="n">
-        <v>3.942932940767484</v>
+        <v>3.285265437491139</v>
       </c>
       <c r="N29" t="n">
-        <v>4.449484012846432</v>
+        <v>3.707401816586327</v>
       </c>
       <c r="O29" t="n">
-        <v>4.195894501812315</v>
+        <v>3.496154724759743</v>
       </c>
       <c r="P29" t="n">
-        <v>4.67666035048241</v>
+        <v>3.896911652211093</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.515795531715035</v>
+        <v>3.762706534365285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.173395334223684</v>
+        <v>2.644135767591016</v>
       </c>
       <c r="B30" t="n">
-        <v>3.146230131371022</v>
+        <v>2.621499504962111</v>
       </c>
       <c r="C30" t="n">
-        <v>3.131111426165058</v>
+        <v>2.608907121937905</v>
       </c>
       <c r="D30" t="n">
-        <v>3.206173028922168</v>
+        <v>2.6714477626472</v>
       </c>
       <c r="E30" t="n">
-        <v>3.171349641475083</v>
+        <v>2.642440780873387</v>
       </c>
       <c r="F30" t="n">
-        <v>3.492094843322162</v>
+        <v>2.909685005229071</v>
       </c>
       <c r="G30" t="n">
-        <v>3.398393483821224</v>
+        <v>2.831621040741982</v>
       </c>
       <c r="H30" t="n">
-        <v>3.785724905683422</v>
+        <v>3.154383766604986</v>
       </c>
       <c r="I30" t="n">
-        <v>3.576271863071513</v>
+        <v>2.979861626728756</v>
       </c>
       <c r="J30" t="n">
-        <v>3.97641022785953</v>
+        <v>3.313353994299041</v>
       </c>
       <c r="K30" t="n">
-        <v>3.590725070763058</v>
+        <v>2.99185491186995</v>
       </c>
       <c r="L30" t="n">
-        <v>4.036539352503719</v>
+        <v>3.363337672837357</v>
       </c>
       <c r="M30" t="n">
-        <v>3.971219174614766</v>
+        <v>3.308919734998077</v>
       </c>
       <c r="N30" t="n">
-        <v>4.4029734187259</v>
+        <v>3.668559704500184</v>
       </c>
       <c r="O30" t="n">
-        <v>4.200351004622878</v>
+        <v>3.499745356429528</v>
       </c>
       <c r="P30" t="n">
-        <v>4.662586933849677</v>
+        <v>3.884793764779104</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.588589825009112</v>
+        <v>3.823232681472763</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.202397344742602</v>
+        <v>2.668269415324877</v>
       </c>
       <c r="B31" t="n">
-        <v>3.172161444863294</v>
+        <v>2.643063792327358</v>
       </c>
       <c r="C31" t="n">
-        <v>3.160238595101084</v>
+        <v>2.633140199782602</v>
       </c>
       <c r="D31" t="n">
-        <v>3.212697882470636</v>
+        <v>2.676838025382727</v>
       </c>
       <c r="E31" t="n">
-        <v>3.186296577543084</v>
+        <v>2.654869544727862</v>
       </c>
       <c r="F31" t="n">
-        <v>3.490323635929701</v>
+        <v>2.908164965162153</v>
       </c>
       <c r="G31" t="n">
-        <v>3.377833624326653</v>
+        <v>2.814501441152253</v>
       </c>
       <c r="H31" t="n">
-        <v>3.704737915037719</v>
+        <v>3.086838177314813</v>
       </c>
       <c r="I31" t="n">
-        <v>3.48665994695441</v>
+        <v>2.9052471499024</v>
       </c>
       <c r="J31" t="n">
-        <v>3.547048020047789</v>
+        <v>2.955269665518366</v>
       </c>
       <c r="K31" t="n">
-        <v>3.479704591609164</v>
+        <v>2.899160876391021</v>
       </c>
       <c r="L31" t="n">
-        <v>4.029806692824776</v>
+        <v>3.357707734988368</v>
       </c>
       <c r="M31" t="n">
-        <v>3.960697667543423</v>
+        <v>3.300152983923697</v>
       </c>
       <c r="N31" t="n">
-        <v>4.385193586623759</v>
+        <v>3.653684024952463</v>
       </c>
       <c r="O31" t="n">
-        <v>4.175723712362652</v>
+        <v>3.479203778775735</v>
       </c>
       <c r="P31" t="n">
-        <v>4.640493020584028</v>
+        <v>3.866410881358032</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.579161943554849</v>
+        <v>3.815273957375048</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.267558700916052</v>
+        <v>2.722483997910349</v>
       </c>
       <c r="B32" t="n">
-        <v>3.237644328694488</v>
+        <v>2.697555448693658</v>
       </c>
       <c r="C32" t="n">
-        <v>3.228172641794237</v>
+        <v>2.689674218949959</v>
       </c>
       <c r="D32" t="n">
-        <v>3.262338300180379</v>
+        <v>2.71811590548242</v>
       </c>
       <c r="E32" t="n">
-        <v>3.243943249721037</v>
+        <v>2.702821828343533</v>
       </c>
       <c r="F32" t="n">
-        <v>3.480503015994167</v>
+        <v>2.899939236155593</v>
       </c>
       <c r="G32" t="n">
-        <v>3.403005571491675</v>
+        <v>2.835464113416493</v>
       </c>
       <c r="H32" t="n">
-        <v>3.604814887464241</v>
+        <v>3.003581371903586</v>
       </c>
       <c r="I32" t="n">
-        <v>3.474049157478852</v>
+        <v>2.894851758784709</v>
       </c>
       <c r="J32" t="n">
-        <v>3.557639658990787</v>
+        <v>2.964392063535302</v>
       </c>
       <c r="K32" t="n">
-        <v>3.456110719451582</v>
+        <v>2.879905956735676</v>
       </c>
       <c r="L32" t="n">
-        <v>4.02023595814271</v>
+        <v>3.349749010890654</v>
       </c>
       <c r="M32" t="n">
-        <v>3.970372413185914</v>
+        <v>3.3082487166009</v>
       </c>
       <c r="N32" t="n">
-        <v>4.372155532207037</v>
+        <v>3.642961035892742</v>
       </c>
       <c r="O32" t="n">
-        <v>4.190091467065965</v>
+        <v>3.491355468849382</v>
       </c>
       <c r="P32" t="n">
-        <v>4.633424591082635</v>
+        <v>3.860782381919327</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.590063241685003</v>
+        <v>3.824623624216752</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.105392234610747</v>
+        <v>2.587502498114109</v>
       </c>
       <c r="B33" t="n">
-        <v>3.068404469709181</v>
+        <v>2.556684018389716</v>
       </c>
       <c r="C33" t="n">
-        <v>3.058708792400381</v>
+        <v>2.548613457892472</v>
       </c>
       <c r="D33" t="n">
-        <v>3.064013998753163</v>
+        <v>2.553034411898314</v>
       </c>
       <c r="E33" t="n">
-        <v>3.055278372819735</v>
+        <v>2.54576936115974</v>
       </c>
       <c r="F33" t="n">
-        <v>3.303412703190914</v>
+        <v>2.752505598337773</v>
       </c>
       <c r="G33" t="n">
-        <v>3.270357717861422</v>
+        <v>2.725019196034734</v>
       </c>
       <c r="H33" t="n">
-        <v>3.587335219772786</v>
+        <v>2.989022861823341</v>
       </c>
       <c r="I33" t="n">
-        <v>3.52450008383456</v>
+        <v>2.936700687766887</v>
       </c>
       <c r="J33" t="n">
-        <v>3.787664861148605</v>
+        <v>3.155998741750605</v>
       </c>
       <c r="K33" t="n">
-        <v>3.57183478139464</v>
+        <v>2.976116545754797</v>
       </c>
       <c r="L33" t="n">
-        <v>3.920394499330726</v>
+        <v>3.266518995870953</v>
       </c>
       <c r="M33" t="n">
-        <v>3.892923521517645</v>
+        <v>3.24365510481471</v>
       </c>
       <c r="N33" t="n">
-        <v>4.272123746284899</v>
+        <v>3.559576751370153</v>
       </c>
       <c r="O33" t="n">
-        <v>4.136036841459028</v>
+        <v>3.446298705134073</v>
       </c>
       <c r="P33" t="n">
-        <v>4.625357483728866</v>
+        <v>3.853985174125409</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.598318518245184</v>
+        <v>3.831440250549495</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.903464881303426</v>
+        <v>2.419275560842912</v>
       </c>
       <c r="B34" t="n">
-        <v>2.867966069984702</v>
+        <v>2.389704003032888</v>
       </c>
       <c r="C34" t="n">
-        <v>2.860510944132519</v>
+        <v>2.38348863219858</v>
       </c>
       <c r="D34" t="n">
-        <v>2.913449286133073</v>
+        <v>2.427593168306319</v>
       </c>
       <c r="E34" t="n">
-        <v>2.901862421983687</v>
+        <v>2.417934602856269</v>
       </c>
       <c r="F34" t="n">
-        <v>3.201934474389675</v>
+        <v>2.667917724010601</v>
       </c>
       <c r="G34" t="n">
-        <v>3.183343917851194</v>
+        <v>2.652443665785011</v>
       </c>
       <c r="H34" t="n">
-        <v>3.520221823873191</v>
+        <v>2.933055935910192</v>
       </c>
       <c r="I34" t="n">
-        <v>3.498297737632137</v>
+        <v>2.914812758087889</v>
       </c>
       <c r="J34" t="n">
-        <v>3.804188793272174</v>
+        <v>3.169731963930783</v>
       </c>
       <c r="K34" t="n">
-        <v>3.778230074402363</v>
+        <v>3.148112657372199</v>
       </c>
       <c r="L34" t="n">
-        <v>3.838832211547072</v>
+        <v>3.198549435149767</v>
       </c>
       <c r="M34" t="n">
-        <v>3.824650899727176</v>
+        <v>3.186751953608391</v>
       </c>
       <c r="N34" t="n">
-        <v>4.221069470042577</v>
+        <v>3.517006639432166</v>
       </c>
       <c r="O34" t="n">
-        <v>4.130738756188598</v>
+        <v>3.441775264395543</v>
       </c>
       <c r="P34" t="n">
-        <v>4.611822679870448</v>
+        <v>3.842514930923492</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.606288088349758</v>
+        <v>3.837911298811666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.878033554108465</v>
+        <v>2.398293649841132</v>
       </c>
       <c r="B35" t="n">
-        <v>2.839611214798386</v>
+        <v>2.36627571574172</v>
       </c>
       <c r="C35" t="n">
-        <v>2.835976873314003</v>
+        <v>2.363246423685008</v>
       </c>
       <c r="D35" t="n">
-        <v>2.872732663563169</v>
+        <v>2.393830082930646</v>
       </c>
       <c r="E35" t="n">
-        <v>2.871143367456265</v>
+        <v>2.392511779905966</v>
       </c>
       <c r="F35" t="n">
-        <v>3.143722863011739</v>
+        <v>2.619559449092458</v>
       </c>
       <c r="G35" t="n">
-        <v>3.148187997437274</v>
+        <v>2.623296798611143</v>
       </c>
       <c r="H35" t="n">
-        <v>3.475640395699125</v>
+        <v>2.895947108215471</v>
       </c>
       <c r="I35" t="n">
-        <v>3.510941758825341</v>
+        <v>2.925401795189974</v>
       </c>
       <c r="J35" t="n">
-        <v>3.759765755232863</v>
+        <v>3.132637520338897</v>
       </c>
       <c r="K35" t="n">
-        <v>3.783446590911298</v>
+        <v>3.152364238567178</v>
       </c>
       <c r="L35" t="n">
-        <v>3.795172208271374</v>
+        <v>3.162301136407054</v>
       </c>
       <c r="M35" t="n">
-        <v>3.790595726012688</v>
+        <v>3.158488629951064</v>
       </c>
       <c r="N35" t="n">
-        <v>4.194281252973861</v>
+        <v>3.494699413155574</v>
       </c>
       <c r="O35" t="n">
-        <v>4.132506079354321</v>
+        <v>3.443229497191998</v>
       </c>
       <c r="P35" t="n">
-        <v>4.603345139224713</v>
+        <v>3.83551742449762</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.597336672042005</v>
+        <v>3.830493776583058</v>
       </c>
     </row>
   </sheetData>
